--- a/sequences/01_retrieval_2.xlsx
+++ b/sequences/01_retrieval_2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="473">
   <si>
     <t>word</t>
   </si>
@@ -2032,6 +2032,30 @@
       <c r="F6" t="s">
         <v>209</v>
       </c>
+      <c r="G6" t="s">
+        <v>209</v>
+      </c>
+      <c r="H6" t="s">
+        <v>209</v>
+      </c>
+      <c r="I6" t="s">
+        <v>209</v>
+      </c>
+      <c r="J6" t="s">
+        <v>209</v>
+      </c>
+      <c r="K6" t="s">
+        <v>209</v>
+      </c>
+      <c r="L6" t="s">
+        <v>209</v>
+      </c>
+      <c r="M6" t="s">
+        <v>209</v>
+      </c>
+      <c r="N6" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
@@ -2052,6 +2076,30 @@
       <c r="F7" t="s">
         <v>209</v>
       </c>
+      <c r="G7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H7" t="s">
+        <v>209</v>
+      </c>
+      <c r="I7" t="s">
+        <v>209</v>
+      </c>
+      <c r="J7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L7" t="s">
+        <v>209</v>
+      </c>
+      <c r="M7" t="s">
+        <v>209</v>
+      </c>
+      <c r="N7" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
@@ -2336,6 +2384,30 @@
       <c r="F14" t="s">
         <v>209</v>
       </c>
+      <c r="G14" t="s">
+        <v>209</v>
+      </c>
+      <c r="H14" t="s">
+        <v>209</v>
+      </c>
+      <c r="I14" t="s">
+        <v>209</v>
+      </c>
+      <c r="J14" t="s">
+        <v>209</v>
+      </c>
+      <c r="K14" t="s">
+        <v>209</v>
+      </c>
+      <c r="L14" t="s">
+        <v>209</v>
+      </c>
+      <c r="M14" t="s">
+        <v>209</v>
+      </c>
+      <c r="N14" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
@@ -2488,6 +2560,30 @@
       <c r="F18" t="s">
         <v>209</v>
       </c>
+      <c r="G18" t="s">
+        <v>209</v>
+      </c>
+      <c r="H18" t="s">
+        <v>209</v>
+      </c>
+      <c r="I18" t="s">
+        <v>209</v>
+      </c>
+      <c r="J18" t="s">
+        <v>209</v>
+      </c>
+      <c r="K18" t="s">
+        <v>209</v>
+      </c>
+      <c r="L18" t="s">
+        <v>209</v>
+      </c>
+      <c r="M18" t="s">
+        <v>209</v>
+      </c>
+      <c r="N18" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1">
@@ -2508,6 +2604,30 @@
       <c r="F19" t="s">
         <v>209</v>
       </c>
+      <c r="G19" t="s">
+        <v>209</v>
+      </c>
+      <c r="H19" t="s">
+        <v>209</v>
+      </c>
+      <c r="I19" t="s">
+        <v>209</v>
+      </c>
+      <c r="J19" t="s">
+        <v>209</v>
+      </c>
+      <c r="K19" t="s">
+        <v>209</v>
+      </c>
+      <c r="L19" t="s">
+        <v>209</v>
+      </c>
+      <c r="M19" t="s">
+        <v>209</v>
+      </c>
+      <c r="N19" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1">
@@ -2528,6 +2648,30 @@
       <c r="F20" t="s">
         <v>209</v>
       </c>
+      <c r="G20" t="s">
+        <v>209</v>
+      </c>
+      <c r="H20" t="s">
+        <v>209</v>
+      </c>
+      <c r="I20" t="s">
+        <v>209</v>
+      </c>
+      <c r="J20" t="s">
+        <v>209</v>
+      </c>
+      <c r="K20" t="s">
+        <v>209</v>
+      </c>
+      <c r="L20" t="s">
+        <v>209</v>
+      </c>
+      <c r="M20" t="s">
+        <v>209</v>
+      </c>
+      <c r="N20" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1">
@@ -2812,6 +2956,30 @@
       <c r="F27" t="s">
         <v>209</v>
       </c>
+      <c r="G27" t="s">
+        <v>209</v>
+      </c>
+      <c r="H27" t="s">
+        <v>209</v>
+      </c>
+      <c r="I27" t="s">
+        <v>209</v>
+      </c>
+      <c r="J27" t="s">
+        <v>209</v>
+      </c>
+      <c r="K27" t="s">
+        <v>209</v>
+      </c>
+      <c r="L27" t="s">
+        <v>209</v>
+      </c>
+      <c r="M27" t="s">
+        <v>209</v>
+      </c>
+      <c r="N27" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="1">
@@ -2876,6 +3044,30 @@
       <c r="F29" t="s">
         <v>209</v>
       </c>
+      <c r="G29" t="s">
+        <v>209</v>
+      </c>
+      <c r="H29" t="s">
+        <v>209</v>
+      </c>
+      <c r="I29" t="s">
+        <v>209</v>
+      </c>
+      <c r="J29" t="s">
+        <v>209</v>
+      </c>
+      <c r="K29" t="s">
+        <v>209</v>
+      </c>
+      <c r="L29" t="s">
+        <v>209</v>
+      </c>
+      <c r="M29" t="s">
+        <v>209</v>
+      </c>
+      <c r="N29" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="1">
@@ -2984,6 +3176,30 @@
       <c r="F32" t="s">
         <v>209</v>
       </c>
+      <c r="G32" t="s">
+        <v>209</v>
+      </c>
+      <c r="H32" t="s">
+        <v>209</v>
+      </c>
+      <c r="I32" t="s">
+        <v>209</v>
+      </c>
+      <c r="J32" t="s">
+        <v>209</v>
+      </c>
+      <c r="K32" t="s">
+        <v>209</v>
+      </c>
+      <c r="L32" t="s">
+        <v>209</v>
+      </c>
+      <c r="M32" t="s">
+        <v>209</v>
+      </c>
+      <c r="N32" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="1">
@@ -3004,6 +3220,30 @@
       <c r="F33" t="s">
         <v>209</v>
       </c>
+      <c r="G33" t="s">
+        <v>209</v>
+      </c>
+      <c r="H33" t="s">
+        <v>209</v>
+      </c>
+      <c r="I33" t="s">
+        <v>209</v>
+      </c>
+      <c r="J33" t="s">
+        <v>209</v>
+      </c>
+      <c r="K33" t="s">
+        <v>209</v>
+      </c>
+      <c r="L33" t="s">
+        <v>209</v>
+      </c>
+      <c r="M33" t="s">
+        <v>209</v>
+      </c>
+      <c r="N33" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="1">
@@ -3024,6 +3264,30 @@
       <c r="F34" t="s">
         <v>209</v>
       </c>
+      <c r="G34" t="s">
+        <v>209</v>
+      </c>
+      <c r="H34" t="s">
+        <v>209</v>
+      </c>
+      <c r="I34" t="s">
+        <v>209</v>
+      </c>
+      <c r="J34" t="s">
+        <v>209</v>
+      </c>
+      <c r="K34" t="s">
+        <v>209</v>
+      </c>
+      <c r="L34" t="s">
+        <v>209</v>
+      </c>
+      <c r="M34" t="s">
+        <v>209</v>
+      </c>
+      <c r="N34" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="1">
@@ -3220,6 +3484,30 @@
       <c r="F39" t="s">
         <v>209</v>
       </c>
+      <c r="G39" t="s">
+        <v>209</v>
+      </c>
+      <c r="H39" t="s">
+        <v>209</v>
+      </c>
+      <c r="I39" t="s">
+        <v>209</v>
+      </c>
+      <c r="J39" t="s">
+        <v>209</v>
+      </c>
+      <c r="K39" t="s">
+        <v>209</v>
+      </c>
+      <c r="L39" t="s">
+        <v>209</v>
+      </c>
+      <c r="M39" t="s">
+        <v>209</v>
+      </c>
+      <c r="N39" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="1">
@@ -3240,6 +3528,30 @@
       <c r="F40" t="s">
         <v>209</v>
       </c>
+      <c r="G40" t="s">
+        <v>209</v>
+      </c>
+      <c r="H40" t="s">
+        <v>209</v>
+      </c>
+      <c r="I40" t="s">
+        <v>209</v>
+      </c>
+      <c r="J40" t="s">
+        <v>209</v>
+      </c>
+      <c r="K40" t="s">
+        <v>209</v>
+      </c>
+      <c r="L40" t="s">
+        <v>209</v>
+      </c>
+      <c r="M40" t="s">
+        <v>209</v>
+      </c>
+      <c r="N40" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="1">
@@ -3392,6 +3704,30 @@
       <c r="F44" t="s">
         <v>209</v>
       </c>
+      <c r="G44" t="s">
+        <v>209</v>
+      </c>
+      <c r="H44" t="s">
+        <v>209</v>
+      </c>
+      <c r="I44" t="s">
+        <v>209</v>
+      </c>
+      <c r="J44" t="s">
+        <v>209</v>
+      </c>
+      <c r="K44" t="s">
+        <v>209</v>
+      </c>
+      <c r="L44" t="s">
+        <v>209</v>
+      </c>
+      <c r="M44" t="s">
+        <v>209</v>
+      </c>
+      <c r="N44" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="1">
@@ -3456,6 +3792,30 @@
       <c r="F46" t="s">
         <v>209</v>
       </c>
+      <c r="G46" t="s">
+        <v>209</v>
+      </c>
+      <c r="H46" t="s">
+        <v>209</v>
+      </c>
+      <c r="I46" t="s">
+        <v>209</v>
+      </c>
+      <c r="J46" t="s">
+        <v>209</v>
+      </c>
+      <c r="K46" t="s">
+        <v>209</v>
+      </c>
+      <c r="L46" t="s">
+        <v>209</v>
+      </c>
+      <c r="M46" t="s">
+        <v>209</v>
+      </c>
+      <c r="N46" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="1">
@@ -3608,6 +3968,30 @@
       <c r="F50" t="s">
         <v>209</v>
       </c>
+      <c r="G50" t="s">
+        <v>209</v>
+      </c>
+      <c r="H50" t="s">
+        <v>209</v>
+      </c>
+      <c r="I50" t="s">
+        <v>209</v>
+      </c>
+      <c r="J50" t="s">
+        <v>209</v>
+      </c>
+      <c r="K50" t="s">
+        <v>209</v>
+      </c>
+      <c r="L50" t="s">
+        <v>209</v>
+      </c>
+      <c r="M50" t="s">
+        <v>209</v>
+      </c>
+      <c r="N50" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="1">
@@ -3628,6 +4012,30 @@
       <c r="F51" t="s">
         <v>209</v>
       </c>
+      <c r="G51" t="s">
+        <v>209</v>
+      </c>
+      <c r="H51" t="s">
+        <v>209</v>
+      </c>
+      <c r="I51" t="s">
+        <v>209</v>
+      </c>
+      <c r="J51" t="s">
+        <v>209</v>
+      </c>
+      <c r="K51" t="s">
+        <v>209</v>
+      </c>
+      <c r="L51" t="s">
+        <v>209</v>
+      </c>
+      <c r="M51" t="s">
+        <v>209</v>
+      </c>
+      <c r="N51" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="1">
@@ -3780,6 +4188,30 @@
       <c r="F55" t="s">
         <v>209</v>
       </c>
+      <c r="G55" t="s">
+        <v>209</v>
+      </c>
+      <c r="H55" t="s">
+        <v>209</v>
+      </c>
+      <c r="I55" t="s">
+        <v>209</v>
+      </c>
+      <c r="J55" t="s">
+        <v>209</v>
+      </c>
+      <c r="K55" t="s">
+        <v>209</v>
+      </c>
+      <c r="L55" t="s">
+        <v>209</v>
+      </c>
+      <c r="M55" t="s">
+        <v>209</v>
+      </c>
+      <c r="N55" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="1">
@@ -4064,6 +4496,30 @@
       <c r="F62" t="s">
         <v>209</v>
       </c>
+      <c r="G62" t="s">
+        <v>209</v>
+      </c>
+      <c r="H62" t="s">
+        <v>209</v>
+      </c>
+      <c r="I62" t="s">
+        <v>209</v>
+      </c>
+      <c r="J62" t="s">
+        <v>209</v>
+      </c>
+      <c r="K62" t="s">
+        <v>209</v>
+      </c>
+      <c r="L62" t="s">
+        <v>209</v>
+      </c>
+      <c r="M62" t="s">
+        <v>209</v>
+      </c>
+      <c r="N62" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="1">
@@ -4304,6 +4760,30 @@
       <c r="F68" t="s">
         <v>209</v>
       </c>
+      <c r="G68" t="s">
+        <v>209</v>
+      </c>
+      <c r="H68" t="s">
+        <v>209</v>
+      </c>
+      <c r="I68" t="s">
+        <v>209</v>
+      </c>
+      <c r="J68" t="s">
+        <v>209</v>
+      </c>
+      <c r="K68" t="s">
+        <v>209</v>
+      </c>
+      <c r="L68" t="s">
+        <v>209</v>
+      </c>
+      <c r="M68" t="s">
+        <v>209</v>
+      </c>
+      <c r="N68" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="1">
@@ -4588,6 +5068,30 @@
       <c r="F75" t="s">
         <v>209</v>
       </c>
+      <c r="G75" t="s">
+        <v>209</v>
+      </c>
+      <c r="H75" t="s">
+        <v>209</v>
+      </c>
+      <c r="I75" t="s">
+        <v>209</v>
+      </c>
+      <c r="J75" t="s">
+        <v>209</v>
+      </c>
+      <c r="K75" t="s">
+        <v>209</v>
+      </c>
+      <c r="L75" t="s">
+        <v>209</v>
+      </c>
+      <c r="M75" t="s">
+        <v>209</v>
+      </c>
+      <c r="N75" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="1">
@@ -4696,6 +5200,30 @@
       <c r="F78" t="s">
         <v>209</v>
       </c>
+      <c r="G78" t="s">
+        <v>209</v>
+      </c>
+      <c r="H78" t="s">
+        <v>209</v>
+      </c>
+      <c r="I78" t="s">
+        <v>209</v>
+      </c>
+      <c r="J78" t="s">
+        <v>209</v>
+      </c>
+      <c r="K78" t="s">
+        <v>209</v>
+      </c>
+      <c r="L78" t="s">
+        <v>209</v>
+      </c>
+      <c r="M78" t="s">
+        <v>209</v>
+      </c>
+      <c r="N78" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="1">
@@ -4760,6 +5288,30 @@
       <c r="F80" t="s">
         <v>209</v>
       </c>
+      <c r="G80" t="s">
+        <v>209</v>
+      </c>
+      <c r="H80" t="s">
+        <v>209</v>
+      </c>
+      <c r="I80" t="s">
+        <v>209</v>
+      </c>
+      <c r="J80" t="s">
+        <v>209</v>
+      </c>
+      <c r="K80" t="s">
+        <v>209</v>
+      </c>
+      <c r="L80" t="s">
+        <v>209</v>
+      </c>
+      <c r="M80" t="s">
+        <v>209</v>
+      </c>
+      <c r="N80" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="1">
@@ -4912,6 +5464,30 @@
       <c r="F84" t="s">
         <v>209</v>
       </c>
+      <c r="G84" t="s">
+        <v>209</v>
+      </c>
+      <c r="H84" t="s">
+        <v>209</v>
+      </c>
+      <c r="I84" t="s">
+        <v>209</v>
+      </c>
+      <c r="J84" t="s">
+        <v>209</v>
+      </c>
+      <c r="K84" t="s">
+        <v>209</v>
+      </c>
+      <c r="L84" t="s">
+        <v>209</v>
+      </c>
+      <c r="M84" t="s">
+        <v>209</v>
+      </c>
+      <c r="N84" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="1">
@@ -5064,6 +5640,30 @@
       <c r="F88" t="s">
         <v>209</v>
       </c>
+      <c r="G88" t="s">
+        <v>209</v>
+      </c>
+      <c r="H88" t="s">
+        <v>209</v>
+      </c>
+      <c r="I88" t="s">
+        <v>209</v>
+      </c>
+      <c r="J88" t="s">
+        <v>209</v>
+      </c>
+      <c r="K88" t="s">
+        <v>209</v>
+      </c>
+      <c r="L88" t="s">
+        <v>209</v>
+      </c>
+      <c r="M88" t="s">
+        <v>209</v>
+      </c>
+      <c r="N88" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="1">
@@ -5084,6 +5684,30 @@
       <c r="F89" t="s">
         <v>209</v>
       </c>
+      <c r="G89" t="s">
+        <v>209</v>
+      </c>
+      <c r="H89" t="s">
+        <v>209</v>
+      </c>
+      <c r="I89" t="s">
+        <v>209</v>
+      </c>
+      <c r="J89" t="s">
+        <v>209</v>
+      </c>
+      <c r="K89" t="s">
+        <v>209</v>
+      </c>
+      <c r="L89" t="s">
+        <v>209</v>
+      </c>
+      <c r="M89" t="s">
+        <v>209</v>
+      </c>
+      <c r="N89" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="1">
@@ -5148,6 +5772,30 @@
       <c r="F91" t="s">
         <v>209</v>
       </c>
+      <c r="G91" t="s">
+        <v>209</v>
+      </c>
+      <c r="H91" t="s">
+        <v>209</v>
+      </c>
+      <c r="I91" t="s">
+        <v>209</v>
+      </c>
+      <c r="J91" t="s">
+        <v>209</v>
+      </c>
+      <c r="K91" t="s">
+        <v>209</v>
+      </c>
+      <c r="L91" t="s">
+        <v>209</v>
+      </c>
+      <c r="M91" t="s">
+        <v>209</v>
+      </c>
+      <c r="N91" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="1">
@@ -5212,6 +5860,30 @@
       <c r="F93" t="s">
         <v>209</v>
       </c>
+      <c r="G93" t="s">
+        <v>209</v>
+      </c>
+      <c r="H93" t="s">
+        <v>209</v>
+      </c>
+      <c r="I93" t="s">
+        <v>209</v>
+      </c>
+      <c r="J93" t="s">
+        <v>209</v>
+      </c>
+      <c r="K93" t="s">
+        <v>209</v>
+      </c>
+      <c r="L93" t="s">
+        <v>209</v>
+      </c>
+      <c r="M93" t="s">
+        <v>209</v>
+      </c>
+      <c r="N93" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="1">
@@ -5452,6 +6124,30 @@
       <c r="F99" t="s">
         <v>209</v>
       </c>
+      <c r="G99" t="s">
+        <v>209</v>
+      </c>
+      <c r="H99" t="s">
+        <v>209</v>
+      </c>
+      <c r="I99" t="s">
+        <v>209</v>
+      </c>
+      <c r="J99" t="s">
+        <v>209</v>
+      </c>
+      <c r="K99" t="s">
+        <v>209</v>
+      </c>
+      <c r="L99" t="s">
+        <v>209</v>
+      </c>
+      <c r="M99" t="s">
+        <v>209</v>
+      </c>
+      <c r="N99" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="100" spans="1:14">
       <c r="A100" s="1">
@@ -5516,6 +6212,30 @@
       <c r="F101" t="s">
         <v>209</v>
       </c>
+      <c r="G101" t="s">
+        <v>209</v>
+      </c>
+      <c r="H101" t="s">
+        <v>209</v>
+      </c>
+      <c r="I101" t="s">
+        <v>209</v>
+      </c>
+      <c r="J101" t="s">
+        <v>209</v>
+      </c>
+      <c r="K101" t="s">
+        <v>209</v>
+      </c>
+      <c r="L101" t="s">
+        <v>209</v>
+      </c>
+      <c r="M101" t="s">
+        <v>209</v>
+      </c>
+      <c r="N101" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="102" spans="1:14">
       <c r="A102" s="1">
@@ -5712,6 +6432,30 @@
       <c r="F106" t="s">
         <v>209</v>
       </c>
+      <c r="G106" t="s">
+        <v>209</v>
+      </c>
+      <c r="H106" t="s">
+        <v>209</v>
+      </c>
+      <c r="I106" t="s">
+        <v>209</v>
+      </c>
+      <c r="J106" t="s">
+        <v>209</v>
+      </c>
+      <c r="K106" t="s">
+        <v>209</v>
+      </c>
+      <c r="L106" t="s">
+        <v>209</v>
+      </c>
+      <c r="M106" t="s">
+        <v>209</v>
+      </c>
+      <c r="N106" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="107" spans="1:14">
       <c r="A107" s="1">
@@ -5820,6 +6564,30 @@
       <c r="F109" t="s">
         <v>209</v>
       </c>
+      <c r="G109" t="s">
+        <v>209</v>
+      </c>
+      <c r="H109" t="s">
+        <v>209</v>
+      </c>
+      <c r="I109" t="s">
+        <v>209</v>
+      </c>
+      <c r="J109" t="s">
+        <v>209</v>
+      </c>
+      <c r="K109" t="s">
+        <v>209</v>
+      </c>
+      <c r="L109" t="s">
+        <v>209</v>
+      </c>
+      <c r="M109" t="s">
+        <v>209</v>
+      </c>
+      <c r="N109" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="110" spans="1:14">
       <c r="A110" s="1">
@@ -6060,6 +6828,30 @@
       <c r="F115" t="s">
         <v>209</v>
       </c>
+      <c r="G115" t="s">
+        <v>209</v>
+      </c>
+      <c r="H115" t="s">
+        <v>209</v>
+      </c>
+      <c r="I115" t="s">
+        <v>209</v>
+      </c>
+      <c r="J115" t="s">
+        <v>209</v>
+      </c>
+      <c r="K115" t="s">
+        <v>209</v>
+      </c>
+      <c r="L115" t="s">
+        <v>209</v>
+      </c>
+      <c r="M115" t="s">
+        <v>209</v>
+      </c>
+      <c r="N115" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="116" spans="1:14">
       <c r="A116" s="1">
@@ -6080,6 +6872,30 @@
       <c r="F116" t="s">
         <v>209</v>
       </c>
+      <c r="G116" t="s">
+        <v>209</v>
+      </c>
+      <c r="H116" t="s">
+        <v>209</v>
+      </c>
+      <c r="I116" t="s">
+        <v>209</v>
+      </c>
+      <c r="J116" t="s">
+        <v>209</v>
+      </c>
+      <c r="K116" t="s">
+        <v>209</v>
+      </c>
+      <c r="L116" t="s">
+        <v>209</v>
+      </c>
+      <c r="M116" t="s">
+        <v>209</v>
+      </c>
+      <c r="N116" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="117" spans="1:14">
       <c r="A117" s="1">
@@ -6100,6 +6916,30 @@
       <c r="F117" t="s">
         <v>209</v>
       </c>
+      <c r="G117" t="s">
+        <v>209</v>
+      </c>
+      <c r="H117" t="s">
+        <v>209</v>
+      </c>
+      <c r="I117" t="s">
+        <v>209</v>
+      </c>
+      <c r="J117" t="s">
+        <v>209</v>
+      </c>
+      <c r="K117" t="s">
+        <v>209</v>
+      </c>
+      <c r="L117" t="s">
+        <v>209</v>
+      </c>
+      <c r="M117" t="s">
+        <v>209</v>
+      </c>
+      <c r="N117" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="118" spans="1:14">
       <c r="A118" s="1">
@@ -6120,6 +6960,30 @@
       <c r="F118" t="s">
         <v>209</v>
       </c>
+      <c r="G118" t="s">
+        <v>209</v>
+      </c>
+      <c r="H118" t="s">
+        <v>209</v>
+      </c>
+      <c r="I118" t="s">
+        <v>209</v>
+      </c>
+      <c r="J118" t="s">
+        <v>209</v>
+      </c>
+      <c r="K118" t="s">
+        <v>209</v>
+      </c>
+      <c r="L118" t="s">
+        <v>209</v>
+      </c>
+      <c r="M118" t="s">
+        <v>209</v>
+      </c>
+      <c r="N118" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="119" spans="1:14">
       <c r="A119" s="1">
@@ -6228,6 +7092,30 @@
       <c r="F121" t="s">
         <v>209</v>
       </c>
+      <c r="G121" t="s">
+        <v>209</v>
+      </c>
+      <c r="H121" t="s">
+        <v>209</v>
+      </c>
+      <c r="I121" t="s">
+        <v>209</v>
+      </c>
+      <c r="J121" t="s">
+        <v>209</v>
+      </c>
+      <c r="K121" t="s">
+        <v>209</v>
+      </c>
+      <c r="L121" t="s">
+        <v>209</v>
+      </c>
+      <c r="M121" t="s">
+        <v>209</v>
+      </c>
+      <c r="N121" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="122" spans="1:14">
       <c r="A122" s="1">
@@ -6248,6 +7136,30 @@
       <c r="F122" t="s">
         <v>209</v>
       </c>
+      <c r="G122" t="s">
+        <v>209</v>
+      </c>
+      <c r="H122" t="s">
+        <v>209</v>
+      </c>
+      <c r="I122" t="s">
+        <v>209</v>
+      </c>
+      <c r="J122" t="s">
+        <v>209</v>
+      </c>
+      <c r="K122" t="s">
+        <v>209</v>
+      </c>
+      <c r="L122" t="s">
+        <v>209</v>
+      </c>
+      <c r="M122" t="s">
+        <v>209</v>
+      </c>
+      <c r="N122" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="123" spans="1:14">
       <c r="A123" s="1">
@@ -6444,6 +7356,30 @@
       <c r="F127" t="s">
         <v>209</v>
       </c>
+      <c r="G127" t="s">
+        <v>209</v>
+      </c>
+      <c r="H127" t="s">
+        <v>209</v>
+      </c>
+      <c r="I127" t="s">
+        <v>209</v>
+      </c>
+      <c r="J127" t="s">
+        <v>209</v>
+      </c>
+      <c r="K127" t="s">
+        <v>209</v>
+      </c>
+      <c r="L127" t="s">
+        <v>209</v>
+      </c>
+      <c r="M127" t="s">
+        <v>209</v>
+      </c>
+      <c r="N127" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="128" spans="1:14">
       <c r="A128" s="1">
@@ -6464,6 +7400,30 @@
       <c r="F128" t="s">
         <v>209</v>
       </c>
+      <c r="G128" t="s">
+        <v>209</v>
+      </c>
+      <c r="H128" t="s">
+        <v>209</v>
+      </c>
+      <c r="I128" t="s">
+        <v>209</v>
+      </c>
+      <c r="J128" t="s">
+        <v>209</v>
+      </c>
+      <c r="K128" t="s">
+        <v>209</v>
+      </c>
+      <c r="L128" t="s">
+        <v>209</v>
+      </c>
+      <c r="M128" t="s">
+        <v>209</v>
+      </c>
+      <c r="N128" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="129" spans="1:14">
       <c r="A129" s="1">
@@ -6484,6 +7444,30 @@
       <c r="F129" t="s">
         <v>209</v>
       </c>
+      <c r="G129" t="s">
+        <v>209</v>
+      </c>
+      <c r="H129" t="s">
+        <v>209</v>
+      </c>
+      <c r="I129" t="s">
+        <v>209</v>
+      </c>
+      <c r="J129" t="s">
+        <v>209</v>
+      </c>
+      <c r="K129" t="s">
+        <v>209</v>
+      </c>
+      <c r="L129" t="s">
+        <v>209</v>
+      </c>
+      <c r="M129" t="s">
+        <v>209</v>
+      </c>
+      <c r="N129" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="130" spans="1:14">
       <c r="A130" s="1">
@@ -6592,6 +7576,30 @@
       <c r="F132" t="s">
         <v>209</v>
       </c>
+      <c r="G132" t="s">
+        <v>209</v>
+      </c>
+      <c r="H132" t="s">
+        <v>209</v>
+      </c>
+      <c r="I132" t="s">
+        <v>209</v>
+      </c>
+      <c r="J132" t="s">
+        <v>209</v>
+      </c>
+      <c r="K132" t="s">
+        <v>209</v>
+      </c>
+      <c r="L132" t="s">
+        <v>209</v>
+      </c>
+      <c r="M132" t="s">
+        <v>209</v>
+      </c>
+      <c r="N132" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="133" spans="1:14">
       <c r="A133" s="1">
@@ -6612,6 +7620,30 @@
       <c r="F133" t="s">
         <v>209</v>
       </c>
+      <c r="G133" t="s">
+        <v>209</v>
+      </c>
+      <c r="H133" t="s">
+        <v>209</v>
+      </c>
+      <c r="I133" t="s">
+        <v>209</v>
+      </c>
+      <c r="J133" t="s">
+        <v>209</v>
+      </c>
+      <c r="K133" t="s">
+        <v>209</v>
+      </c>
+      <c r="L133" t="s">
+        <v>209</v>
+      </c>
+      <c r="M133" t="s">
+        <v>209</v>
+      </c>
+      <c r="N133" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="134" spans="1:14">
       <c r="A134" s="1">
@@ -6676,6 +7708,30 @@
       <c r="F135" t="s">
         <v>209</v>
       </c>
+      <c r="G135" t="s">
+        <v>209</v>
+      </c>
+      <c r="H135" t="s">
+        <v>209</v>
+      </c>
+      <c r="I135" t="s">
+        <v>209</v>
+      </c>
+      <c r="J135" t="s">
+        <v>209</v>
+      </c>
+      <c r="K135" t="s">
+        <v>209</v>
+      </c>
+      <c r="L135" t="s">
+        <v>209</v>
+      </c>
+      <c r="M135" t="s">
+        <v>209</v>
+      </c>
+      <c r="N135" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="136" spans="1:14">
       <c r="A136" s="1">
@@ -6740,6 +7796,30 @@
       <c r="F137" t="s">
         <v>209</v>
       </c>
+      <c r="G137" t="s">
+        <v>209</v>
+      </c>
+      <c r="H137" t="s">
+        <v>209</v>
+      </c>
+      <c r="I137" t="s">
+        <v>209</v>
+      </c>
+      <c r="J137" t="s">
+        <v>209</v>
+      </c>
+      <c r="K137" t="s">
+        <v>209</v>
+      </c>
+      <c r="L137" t="s">
+        <v>209</v>
+      </c>
+      <c r="M137" t="s">
+        <v>209</v>
+      </c>
+      <c r="N137" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="138" spans="1:14">
       <c r="A138" s="1">
@@ -6760,6 +7840,30 @@
       <c r="F138" t="s">
         <v>209</v>
       </c>
+      <c r="G138" t="s">
+        <v>209</v>
+      </c>
+      <c r="H138" t="s">
+        <v>209</v>
+      </c>
+      <c r="I138" t="s">
+        <v>209</v>
+      </c>
+      <c r="J138" t="s">
+        <v>209</v>
+      </c>
+      <c r="K138" t="s">
+        <v>209</v>
+      </c>
+      <c r="L138" t="s">
+        <v>209</v>
+      </c>
+      <c r="M138" t="s">
+        <v>209</v>
+      </c>
+      <c r="N138" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="139" spans="1:14">
       <c r="A139" s="1">
@@ -6824,6 +7928,30 @@
       <c r="F140" t="s">
         <v>209</v>
       </c>
+      <c r="G140" t="s">
+        <v>209</v>
+      </c>
+      <c r="H140" t="s">
+        <v>209</v>
+      </c>
+      <c r="I140" t="s">
+        <v>209</v>
+      </c>
+      <c r="J140" t="s">
+        <v>209</v>
+      </c>
+      <c r="K140" t="s">
+        <v>209</v>
+      </c>
+      <c r="L140" t="s">
+        <v>209</v>
+      </c>
+      <c r="M140" t="s">
+        <v>209</v>
+      </c>
+      <c r="N140" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="141" spans="1:14">
       <c r="A141" s="1">
@@ -6888,6 +8016,30 @@
       <c r="F142" t="s">
         <v>209</v>
       </c>
+      <c r="G142" t="s">
+        <v>209</v>
+      </c>
+      <c r="H142" t="s">
+        <v>209</v>
+      </c>
+      <c r="I142" t="s">
+        <v>209</v>
+      </c>
+      <c r="J142" t="s">
+        <v>209</v>
+      </c>
+      <c r="K142" t="s">
+        <v>209</v>
+      </c>
+      <c r="L142" t="s">
+        <v>209</v>
+      </c>
+      <c r="M142" t="s">
+        <v>209</v>
+      </c>
+      <c r="N142" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="143" spans="1:14">
       <c r="A143" s="1">
@@ -6908,6 +8060,30 @@
       <c r="F143" t="s">
         <v>209</v>
       </c>
+      <c r="G143" t="s">
+        <v>209</v>
+      </c>
+      <c r="H143" t="s">
+        <v>209</v>
+      </c>
+      <c r="I143" t="s">
+        <v>209</v>
+      </c>
+      <c r="J143" t="s">
+        <v>209</v>
+      </c>
+      <c r="K143" t="s">
+        <v>209</v>
+      </c>
+      <c r="L143" t="s">
+        <v>209</v>
+      </c>
+      <c r="M143" t="s">
+        <v>209</v>
+      </c>
+      <c r="N143" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="144" spans="1:14">
       <c r="A144" s="1">
@@ -6972,6 +8148,30 @@
       <c r="F145" t="s">
         <v>209</v>
       </c>
+      <c r="G145" t="s">
+        <v>209</v>
+      </c>
+      <c r="H145" t="s">
+        <v>209</v>
+      </c>
+      <c r="I145" t="s">
+        <v>209</v>
+      </c>
+      <c r="J145" t="s">
+        <v>209</v>
+      </c>
+      <c r="K145" t="s">
+        <v>209</v>
+      </c>
+      <c r="L145" t="s">
+        <v>209</v>
+      </c>
+      <c r="M145" t="s">
+        <v>209</v>
+      </c>
+      <c r="N145" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="146" spans="1:14">
       <c r="A146" s="1">
@@ -7212,6 +8412,30 @@
       <c r="F151" t="s">
         <v>209</v>
       </c>
+      <c r="G151" t="s">
+        <v>209</v>
+      </c>
+      <c r="H151" t="s">
+        <v>209</v>
+      </c>
+      <c r="I151" t="s">
+        <v>209</v>
+      </c>
+      <c r="J151" t="s">
+        <v>209</v>
+      </c>
+      <c r="K151" t="s">
+        <v>209</v>
+      </c>
+      <c r="L151" t="s">
+        <v>209</v>
+      </c>
+      <c r="M151" t="s">
+        <v>209</v>
+      </c>
+      <c r="N151" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="152" spans="1:14">
       <c r="A152" s="1">
@@ -7276,6 +8500,30 @@
       <c r="F153" t="s">
         <v>209</v>
       </c>
+      <c r="G153" t="s">
+        <v>209</v>
+      </c>
+      <c r="H153" t="s">
+        <v>209</v>
+      </c>
+      <c r="I153" t="s">
+        <v>209</v>
+      </c>
+      <c r="J153" t="s">
+        <v>209</v>
+      </c>
+      <c r="K153" t="s">
+        <v>209</v>
+      </c>
+      <c r="L153" t="s">
+        <v>209</v>
+      </c>
+      <c r="M153" t="s">
+        <v>209</v>
+      </c>
+      <c r="N153" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="154" spans="1:14">
       <c r="A154" s="1">
@@ -7296,6 +8544,30 @@
       <c r="F154" t="s">
         <v>209</v>
       </c>
+      <c r="G154" t="s">
+        <v>209</v>
+      </c>
+      <c r="H154" t="s">
+        <v>209</v>
+      </c>
+      <c r="I154" t="s">
+        <v>209</v>
+      </c>
+      <c r="J154" t="s">
+        <v>209</v>
+      </c>
+      <c r="K154" t="s">
+        <v>209</v>
+      </c>
+      <c r="L154" t="s">
+        <v>209</v>
+      </c>
+      <c r="M154" t="s">
+        <v>209</v>
+      </c>
+      <c r="N154" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="155" spans="1:14">
       <c r="A155" s="1">
@@ -7316,6 +8588,30 @@
       <c r="F155" t="s">
         <v>209</v>
       </c>
+      <c r="G155" t="s">
+        <v>209</v>
+      </c>
+      <c r="H155" t="s">
+        <v>209</v>
+      </c>
+      <c r="I155" t="s">
+        <v>209</v>
+      </c>
+      <c r="J155" t="s">
+        <v>209</v>
+      </c>
+      <c r="K155" t="s">
+        <v>209</v>
+      </c>
+      <c r="L155" t="s">
+        <v>209</v>
+      </c>
+      <c r="M155" t="s">
+        <v>209</v>
+      </c>
+      <c r="N155" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="156" spans="1:14">
       <c r="A156" s="1">
@@ -7336,6 +8632,30 @@
       <c r="F156" t="s">
         <v>209</v>
       </c>
+      <c r="G156" t="s">
+        <v>209</v>
+      </c>
+      <c r="H156" t="s">
+        <v>209</v>
+      </c>
+      <c r="I156" t="s">
+        <v>209</v>
+      </c>
+      <c r="J156" t="s">
+        <v>209</v>
+      </c>
+      <c r="K156" t="s">
+        <v>209</v>
+      </c>
+      <c r="L156" t="s">
+        <v>209</v>
+      </c>
+      <c r="M156" t="s">
+        <v>209</v>
+      </c>
+      <c r="N156" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="157" spans="1:14">
       <c r="A157" s="1">
@@ -7444,6 +8764,30 @@
       <c r="F159" t="s">
         <v>209</v>
       </c>
+      <c r="G159" t="s">
+        <v>209</v>
+      </c>
+      <c r="H159" t="s">
+        <v>209</v>
+      </c>
+      <c r="I159" t="s">
+        <v>209</v>
+      </c>
+      <c r="J159" t="s">
+        <v>209</v>
+      </c>
+      <c r="K159" t="s">
+        <v>209</v>
+      </c>
+      <c r="L159" t="s">
+        <v>209</v>
+      </c>
+      <c r="M159" t="s">
+        <v>209</v>
+      </c>
+      <c r="N159" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="160" spans="1:14">
       <c r="A160" s="1">
@@ -7596,6 +8940,30 @@
       <c r="F163" t="s">
         <v>209</v>
       </c>
+      <c r="G163" t="s">
+        <v>209</v>
+      </c>
+      <c r="H163" t="s">
+        <v>209</v>
+      </c>
+      <c r="I163" t="s">
+        <v>209</v>
+      </c>
+      <c r="J163" t="s">
+        <v>209</v>
+      </c>
+      <c r="K163" t="s">
+        <v>209</v>
+      </c>
+      <c r="L163" t="s">
+        <v>209</v>
+      </c>
+      <c r="M163" t="s">
+        <v>209</v>
+      </c>
+      <c r="N163" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="164" spans="1:14">
       <c r="A164" s="1">
@@ -7880,6 +9248,30 @@
       <c r="F170" t="s">
         <v>209</v>
       </c>
+      <c r="G170" t="s">
+        <v>209</v>
+      </c>
+      <c r="H170" t="s">
+        <v>209</v>
+      </c>
+      <c r="I170" t="s">
+        <v>209</v>
+      </c>
+      <c r="J170" t="s">
+        <v>209</v>
+      </c>
+      <c r="K170" t="s">
+        <v>209</v>
+      </c>
+      <c r="L170" t="s">
+        <v>209</v>
+      </c>
+      <c r="M170" t="s">
+        <v>209</v>
+      </c>
+      <c r="N170" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="171" spans="1:14">
       <c r="A171" s="1">
@@ -7988,6 +9380,30 @@
       <c r="F173" t="s">
         <v>209</v>
       </c>
+      <c r="G173" t="s">
+        <v>209</v>
+      </c>
+      <c r="H173" t="s">
+        <v>209</v>
+      </c>
+      <c r="I173" t="s">
+        <v>209</v>
+      </c>
+      <c r="J173" t="s">
+        <v>209</v>
+      </c>
+      <c r="K173" t="s">
+        <v>209</v>
+      </c>
+      <c r="L173" t="s">
+        <v>209</v>
+      </c>
+      <c r="M173" t="s">
+        <v>209</v>
+      </c>
+      <c r="N173" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="174" spans="1:14">
       <c r="A174" s="1">
@@ -8052,6 +9468,30 @@
       <c r="F175" t="s">
         <v>209</v>
       </c>
+      <c r="G175" t="s">
+        <v>209</v>
+      </c>
+      <c r="H175" t="s">
+        <v>209</v>
+      </c>
+      <c r="I175" t="s">
+        <v>209</v>
+      </c>
+      <c r="J175" t="s">
+        <v>209</v>
+      </c>
+      <c r="K175" t="s">
+        <v>209</v>
+      </c>
+      <c r="L175" t="s">
+        <v>209</v>
+      </c>
+      <c r="M175" t="s">
+        <v>209</v>
+      </c>
+      <c r="N175" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="176" spans="1:14">
       <c r="A176" s="1">
@@ -8248,6 +9688,30 @@
       <c r="F180" t="s">
         <v>209</v>
       </c>
+      <c r="G180" t="s">
+        <v>209</v>
+      </c>
+      <c r="H180" t="s">
+        <v>209</v>
+      </c>
+      <c r="I180" t="s">
+        <v>209</v>
+      </c>
+      <c r="J180" t="s">
+        <v>209</v>
+      </c>
+      <c r="K180" t="s">
+        <v>209</v>
+      </c>
+      <c r="L180" t="s">
+        <v>209</v>
+      </c>
+      <c r="M180" t="s">
+        <v>209</v>
+      </c>
+      <c r="N180" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="181" spans="1:14">
       <c r="A181" s="1">
@@ -8488,6 +9952,30 @@
       <c r="F186" t="s">
         <v>209</v>
       </c>
+      <c r="G186" t="s">
+        <v>209</v>
+      </c>
+      <c r="H186" t="s">
+        <v>209</v>
+      </c>
+      <c r="I186" t="s">
+        <v>209</v>
+      </c>
+      <c r="J186" t="s">
+        <v>209</v>
+      </c>
+      <c r="K186" t="s">
+        <v>209</v>
+      </c>
+      <c r="L186" t="s">
+        <v>209</v>
+      </c>
+      <c r="M186" t="s">
+        <v>209</v>
+      </c>
+      <c r="N186" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="187" spans="1:14">
       <c r="A187" s="1">
@@ -8684,6 +10172,30 @@
       <c r="F191" t="s">
         <v>209</v>
       </c>
+      <c r="G191" t="s">
+        <v>209</v>
+      </c>
+      <c r="H191" t="s">
+        <v>209</v>
+      </c>
+      <c r="I191" t="s">
+        <v>209</v>
+      </c>
+      <c r="J191" t="s">
+        <v>209</v>
+      </c>
+      <c r="K191" t="s">
+        <v>209</v>
+      </c>
+      <c r="L191" t="s">
+        <v>209</v>
+      </c>
+      <c r="M191" t="s">
+        <v>209</v>
+      </c>
+      <c r="N191" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="192" spans="1:14">
       <c r="A192" s="1">
@@ -8702,6 +10214,30 @@
         <v>1</v>
       </c>
       <c r="F192" t="s">
+        <v>209</v>
+      </c>
+      <c r="G192" t="s">
+        <v>209</v>
+      </c>
+      <c r="H192" t="s">
+        <v>209</v>
+      </c>
+      <c r="I192" t="s">
+        <v>209</v>
+      </c>
+      <c r="J192" t="s">
+        <v>209</v>
+      </c>
+      <c r="K192" t="s">
+        <v>209</v>
+      </c>
+      <c r="L192" t="s">
+        <v>209</v>
+      </c>
+      <c r="M192" t="s">
+        <v>209</v>
+      </c>
+      <c r="N192" t="s">
         <v>209</v>
       </c>
     </row>

--- a/sequences/01_retrieval_2.xlsx
+++ b/sequences/01_retrieval_2.xlsx
@@ -55,580 +55,580 @@
     <t>type4</t>
   </si>
   <si>
-    <t>tauschen</t>
-  </si>
-  <si>
-    <t>sondern</t>
+    <t>sichern</t>
+  </si>
+  <si>
+    <t>pflanzen</t>
+  </si>
+  <si>
+    <t>heben</t>
+  </si>
+  <si>
+    <t>bluten</t>
+  </si>
+  <si>
+    <t>kratzen</t>
+  </si>
+  <si>
+    <t>passen</t>
+  </si>
+  <si>
+    <t>spinnen</t>
+  </si>
+  <si>
+    <t>weichen</t>
+  </si>
+  <si>
+    <t>formen</t>
+  </si>
+  <si>
+    <t>drehen</t>
+  </si>
+  <si>
+    <t>liegen</t>
+  </si>
+  <si>
+    <t>fahren</t>
+  </si>
+  <si>
+    <t>tauchen</t>
+  </si>
+  <si>
+    <t>trennen</t>
+  </si>
+  <si>
+    <t>boxen</t>
+  </si>
+  <si>
+    <t>mögen</t>
+  </si>
+  <si>
+    <t>starten</t>
+  </si>
+  <si>
+    <t>lösen</t>
+  </si>
+  <si>
+    <t>herrschen</t>
+  </si>
+  <si>
+    <t>sinken</t>
+  </si>
+  <si>
+    <t>zögern</t>
+  </si>
+  <si>
+    <t>bellen</t>
+  </si>
+  <si>
+    <t>wüten</t>
+  </si>
+  <si>
+    <t>ehren</t>
+  </si>
+  <si>
+    <t>werfen</t>
+  </si>
+  <si>
+    <t>wählen</t>
+  </si>
+  <si>
+    <t>geben</t>
+  </si>
+  <si>
+    <t>stimmen</t>
+  </si>
+  <si>
+    <t>suchen</t>
+  </si>
+  <si>
+    <t>wundern</t>
+  </si>
+  <si>
+    <t>rauchen</t>
+  </si>
+  <si>
+    <t>schätzen</t>
+  </si>
+  <si>
+    <t>wellen</t>
+  </si>
+  <si>
+    <t>heulen</t>
+  </si>
+  <si>
+    <t>schenken</t>
+  </si>
+  <si>
+    <t>knarren</t>
+  </si>
+  <si>
+    <t>erben</t>
+  </si>
+  <si>
+    <t>schlagen</t>
+  </si>
+  <si>
+    <t>kämpfen</t>
+  </si>
+  <si>
+    <t>platzen</t>
+  </si>
+  <si>
+    <t>bergen</t>
+  </si>
+  <si>
+    <t>dienen</t>
+  </si>
+  <si>
+    <t>kranken</t>
+  </si>
+  <si>
+    <t>zielen</t>
+  </si>
+  <si>
+    <t>lassen</t>
+  </si>
+  <si>
+    <t>kehren</t>
+  </si>
+  <si>
+    <t>fallen</t>
+  </si>
+  <si>
+    <t>irren</t>
+  </si>
+  <si>
+    <t>stärken</t>
+  </si>
+  <si>
+    <t>stellen</t>
+  </si>
+  <si>
+    <t>schwingen</t>
+  </si>
+  <si>
+    <t>stehlen</t>
+  </si>
+  <si>
+    <t>altern</t>
+  </si>
+  <si>
+    <t>lenken</t>
+  </si>
+  <si>
+    <t>scheinen</t>
+  </si>
+  <si>
+    <t>lügen</t>
+  </si>
+  <si>
+    <t>runden</t>
+  </si>
+  <si>
+    <t>schwören</t>
+  </si>
+  <si>
+    <t>backen</t>
+  </si>
+  <si>
+    <t>wachsen</t>
+  </si>
+  <si>
+    <t>proben</t>
+  </si>
+  <si>
+    <t>feiern</t>
+  </si>
+  <si>
+    <t>streichen</t>
+  </si>
+  <si>
+    <t>pfeifen</t>
+  </si>
+  <si>
+    <t>lockern</t>
+  </si>
+  <si>
+    <t>stammen</t>
+  </si>
+  <si>
+    <t>kriegen</t>
+  </si>
+  <si>
+    <t>tropfen</t>
+  </si>
+  <si>
+    <t>arten</t>
+  </si>
+  <si>
+    <t>sprengen</t>
+  </si>
+  <si>
+    <t>schulden</t>
+  </si>
+  <si>
+    <t>seufzen</t>
+  </si>
+  <si>
+    <t>äußern</t>
+  </si>
+  <si>
+    <t>füttern</t>
+  </si>
+  <si>
+    <t>dringen</t>
+  </si>
+  <si>
+    <t>schlucken</t>
+  </si>
+  <si>
+    <t>fehlen</t>
+  </si>
+  <si>
+    <t>kichern</t>
+  </si>
+  <si>
+    <t>albern</t>
+  </si>
+  <si>
+    <t>spielen</t>
+  </si>
+  <si>
+    <t>werden</t>
+  </si>
+  <si>
+    <t>fällen</t>
+  </si>
+  <si>
+    <t>bieten</t>
+  </si>
+  <si>
+    <t>warnen</t>
+  </si>
+  <si>
+    <t>grüßen</t>
+  </si>
+  <si>
+    <t>gelten</t>
+  </si>
+  <si>
+    <t>heißen</t>
+  </si>
+  <si>
+    <t>husten</t>
+  </si>
+  <si>
+    <t>zünden</t>
+  </si>
+  <si>
+    <t>posten</t>
+  </si>
+  <si>
+    <t>schmecken</t>
+  </si>
+  <si>
+    <t>schultern</t>
+  </si>
+  <si>
+    <t>filmen</t>
+  </si>
+  <si>
+    <t>graben</t>
+  </si>
+  <si>
+    <t>jubeln</t>
+  </si>
+  <si>
+    <t>achten</t>
+  </si>
+  <si>
+    <t>liefern</t>
+  </si>
+  <si>
+    <t>sparen</t>
+  </si>
+  <si>
+    <t>heilen</t>
+  </si>
+  <si>
+    <t>spenden</t>
+  </si>
+  <si>
+    <t>flüchten</t>
+  </si>
+  <si>
+    <t>führen</t>
+  </si>
+  <si>
+    <t>schreiten</t>
+  </si>
+  <si>
+    <t>enden</t>
+  </si>
+  <si>
+    <t>fragen</t>
+  </si>
+  <si>
+    <t>jagen</t>
+  </si>
+  <si>
+    <t>fischen</t>
+  </si>
+  <si>
+    <t>klappen</t>
+  </si>
+  <si>
+    <t>folgen</t>
+  </si>
+  <si>
+    <t>mauern</t>
+  </si>
+  <si>
+    <t>schrecken</t>
+  </si>
+  <si>
+    <t>stecken</t>
+  </si>
+  <si>
+    <t>reizen</t>
+  </si>
+  <si>
+    <t>sammeln</t>
+  </si>
+  <si>
+    <t>warten</t>
+  </si>
+  <si>
+    <t>messen</t>
+  </si>
+  <si>
+    <t>locken</t>
+  </si>
+  <si>
+    <t>loben</t>
+  </si>
+  <si>
+    <t>decken</t>
+  </si>
+  <si>
+    <t>schließen</t>
+  </si>
+  <si>
+    <t>ahnen</t>
   </si>
   <si>
     <t>wenden</t>
   </si>
   <si>
-    <t>haken</t>
+    <t>klingen</t>
+  </si>
+  <si>
+    <t>machen</t>
+  </si>
+  <si>
+    <t>räumen</t>
+  </si>
+  <si>
+    <t>fordern</t>
+  </si>
+  <si>
+    <t>schleppen</t>
+  </si>
+  <si>
+    <t>schämen</t>
+  </si>
+  <si>
+    <t>sperren</t>
+  </si>
+  <si>
+    <t>tollen</t>
+  </si>
+  <si>
+    <t>leeren</t>
+  </si>
+  <si>
+    <t>merken</t>
+  </si>
+  <si>
+    <t>saufen</t>
+  </si>
+  <si>
+    <t>stechen</t>
+  </si>
+  <si>
+    <t>kümmern</t>
+  </si>
+  <si>
+    <t>lächeln</t>
+  </si>
+  <si>
+    <t>haben</t>
+  </si>
+  <si>
+    <t>zeigen</t>
+  </si>
+  <si>
+    <t>lohnen</t>
+  </si>
+  <si>
+    <t>fließen</t>
+  </si>
+  <si>
+    <t>öffnen</t>
+  </si>
+  <si>
+    <t>leugnen</t>
+  </si>
+  <si>
+    <t>helfen</t>
+  </si>
+  <si>
+    <t>wagen</t>
+  </si>
+  <si>
+    <t>bitten</t>
+  </si>
+  <si>
+    <t>quälen</t>
+  </si>
+  <si>
+    <t>wehtun</t>
+  </si>
+  <si>
+    <t>bauen</t>
+  </si>
+  <si>
+    <t>spüren</t>
+  </si>
+  <si>
+    <t>fühlen</t>
+  </si>
+  <si>
+    <t>lesen</t>
+  </si>
+  <si>
+    <t>dürfen</t>
+  </si>
+  <si>
+    <t>reisen</t>
+  </si>
+  <si>
+    <t>wollen</t>
+  </si>
+  <si>
+    <t>streifen</t>
+  </si>
+  <si>
+    <t>malen</t>
+  </si>
+  <si>
+    <t>siegen</t>
+  </si>
+  <si>
+    <t>beißen</t>
+  </si>
+  <si>
+    <t>biegen</t>
+  </si>
+  <si>
+    <t>brauchen</t>
+  </si>
+  <si>
+    <t>töten</t>
+  </si>
+  <si>
+    <t>löschen</t>
+  </si>
+  <si>
+    <t>gründen</t>
+  </si>
+  <si>
+    <t>planen</t>
+  </si>
+  <si>
+    <t>fangen</t>
+  </si>
+  <si>
+    <t>rasen</t>
+  </si>
+  <si>
+    <t>scheitern</t>
   </si>
   <si>
     <t>sorgen</t>
   </si>
   <si>
-    <t>mauern</t>
-  </si>
-  <si>
-    <t>stechen</t>
-  </si>
-  <si>
-    <t>tagen</t>
-  </si>
-  <si>
-    <t>starten</t>
-  </si>
-  <si>
-    <t>strahlen</t>
-  </si>
-  <si>
-    <t>danken</t>
-  </si>
-  <si>
-    <t>lassen</t>
-  </si>
-  <si>
-    <t>scheiden</t>
-  </si>
-  <si>
-    <t>kehren</t>
-  </si>
-  <si>
-    <t>spüren</t>
-  </si>
-  <si>
-    <t>antun</t>
-  </si>
-  <si>
-    <t>teilen</t>
-  </si>
-  <si>
-    <t>kämpfen</t>
-  </si>
-  <si>
-    <t>siegen</t>
-  </si>
-  <si>
-    <t>bauen</t>
-  </si>
-  <si>
-    <t>zielen</t>
-  </si>
-  <si>
-    <t>leeren</t>
-  </si>
-  <si>
-    <t>wählen</t>
-  </si>
-  <si>
-    <t>liefern</t>
-  </si>
-  <si>
-    <t>raten</t>
-  </si>
-  <si>
-    <t>schulden</t>
-  </si>
-  <si>
-    <t>pflegen</t>
-  </si>
-  <si>
-    <t>wechseln</t>
-  </si>
-  <si>
-    <t>enden</t>
+    <t>rechnen</t>
+  </si>
+  <si>
+    <t>münzen</t>
+  </si>
+  <si>
+    <t>schwächen</t>
+  </si>
+  <si>
+    <t>ziehen</t>
+  </si>
+  <si>
+    <t>betteln</t>
+  </si>
+  <si>
+    <t>fesseln</t>
+  </si>
+  <si>
+    <t>ändern</t>
+  </si>
+  <si>
+    <t>trauen</t>
+  </si>
+  <si>
+    <t>flehen</t>
+  </si>
+  <si>
+    <t>hauen</t>
+  </si>
+  <si>
+    <t>zahlen</t>
+  </si>
+  <si>
+    <t>kosten</t>
+  </si>
+  <si>
+    <t>freuen</t>
   </si>
   <si>
     <t>ärgern</t>
   </si>
   <si>
-    <t>machen</t>
-  </si>
-  <si>
-    <t>folgen</t>
-  </si>
-  <si>
-    <t>wehtun</t>
-  </si>
-  <si>
-    <t>runden</t>
-  </si>
-  <si>
-    <t>dauern</t>
-  </si>
-  <si>
-    <t>klappen</t>
-  </si>
-  <si>
-    <t>ändern</t>
-  </si>
-  <si>
-    <t>wundern</t>
-  </si>
-  <si>
-    <t>räumen</t>
-  </si>
-  <si>
-    <t>drohen</t>
-  </si>
-  <si>
-    <t>trotzen</t>
-  </si>
-  <si>
-    <t>biegen</t>
-  </si>
-  <si>
-    <t>bomben</t>
-  </si>
-  <si>
-    <t>mieten</t>
-  </si>
-  <si>
-    <t>testen</t>
-  </si>
-  <si>
-    <t>langen</t>
-  </si>
-  <si>
-    <t>fühlen</t>
-  </si>
-  <si>
-    <t>krachen</t>
-  </si>
-  <si>
-    <t>gleichen</t>
-  </si>
-  <si>
-    <t>kümmern</t>
-  </si>
-  <si>
-    <t>meinen</t>
-  </si>
-  <si>
-    <t>nehmen</t>
-  </si>
-  <si>
-    <t>narren</t>
-  </si>
-  <si>
-    <t>steuern</t>
-  </si>
-  <si>
-    <t>zögern</t>
-  </si>
-  <si>
-    <t>fesseln</t>
-  </si>
-  <si>
-    <t>stoppen</t>
-  </si>
-  <si>
-    <t>münzen</t>
-  </si>
-  <si>
-    <t>lügen</t>
-  </si>
-  <si>
-    <t>füllen</t>
-  </si>
-  <si>
-    <t>russen</t>
-  </si>
-  <si>
-    <t>hassen</t>
-  </si>
-  <si>
-    <t>heben</t>
-  </si>
-  <si>
-    <t>piepen</t>
-  </si>
-  <si>
-    <t>grenzen</t>
-  </si>
-  <si>
-    <t>laufen</t>
-  </si>
-  <si>
-    <t>gnaden</t>
-  </si>
-  <si>
-    <t>hoffen</t>
-  </si>
-  <si>
-    <t>schicken</t>
-  </si>
-  <si>
-    <t>spenden</t>
-  </si>
-  <si>
-    <t>loben</t>
-  </si>
-  <si>
-    <t>heißen</t>
-  </si>
-  <si>
-    <t>saufen</t>
-  </si>
-  <si>
-    <t>bremsen</t>
-  </si>
-  <si>
-    <t>opfern</t>
-  </si>
-  <si>
-    <t>bleiben</t>
-  </si>
-  <si>
-    <t>klingeln</t>
-  </si>
-  <si>
-    <t>holen</t>
-  </si>
-  <si>
-    <t>regeln</t>
-  </si>
-  <si>
-    <t>passen</t>
-  </si>
-  <si>
-    <t>frischen</t>
-  </si>
-  <si>
-    <t>formen</t>
+    <t>greifen</t>
+  </si>
+  <si>
+    <t>sterben</t>
+  </si>
+  <si>
+    <t>nennen</t>
   </si>
   <si>
     <t>treiben</t>
   </si>
   <si>
-    <t>dienen</t>
-  </si>
-  <si>
-    <t>tollen</t>
-  </si>
-  <si>
-    <t>binden</t>
-  </si>
-  <si>
-    <t>warten</t>
-  </si>
-  <si>
-    <t>schlagen</t>
-  </si>
-  <si>
-    <t>mögen</t>
-  </si>
-  <si>
-    <t>zittern</t>
-  </si>
-  <si>
-    <t>wiegen</t>
-  </si>
-  <si>
-    <t>morden</t>
-  </si>
-  <si>
-    <t>streifen</t>
-  </si>
-  <si>
-    <t>betteln</t>
-  </si>
-  <si>
-    <t>deuten</t>
-  </si>
-  <si>
-    <t>ehren</t>
-  </si>
-  <si>
-    <t>schmecken</t>
-  </si>
-  <si>
-    <t>leihen</t>
-  </si>
-  <si>
-    <t>atmen</t>
-  </si>
-  <si>
-    <t>sprengen</t>
-  </si>
-  <si>
-    <t>scheitern</t>
-  </si>
-  <si>
-    <t>bitten</t>
-  </si>
-  <si>
-    <t>stoßen</t>
-  </si>
-  <si>
-    <t>duschen</t>
-  </si>
-  <si>
-    <t>knurren</t>
-  </si>
-  <si>
-    <t>parken</t>
-  </si>
-  <si>
-    <t>rechnen</t>
-  </si>
-  <si>
-    <t>sichern</t>
-  </si>
-  <si>
-    <t>kennen</t>
-  </si>
-  <si>
-    <t>süßen</t>
-  </si>
-  <si>
-    <t>füttern</t>
-  </si>
-  <si>
-    <t>proben</t>
-  </si>
-  <si>
-    <t>öffnen</t>
-  </si>
-  <si>
-    <t>vögeln</t>
-  </si>
-  <si>
-    <t>werfen</t>
-  </si>
-  <si>
-    <t>sitzen</t>
-  </si>
-  <si>
-    <t>flammen</t>
-  </si>
-  <si>
-    <t>schenken</t>
-  </si>
-  <si>
-    <t>kriegen</t>
-  </si>
-  <si>
-    <t>polen</t>
-  </si>
-  <si>
-    <t>nutzen</t>
-  </si>
-  <si>
-    <t>legen</t>
-  </si>
-  <si>
-    <t>achten</t>
-  </si>
-  <si>
-    <t>rasen</t>
-  </si>
-  <si>
-    <t>hacken</t>
-  </si>
-  <si>
-    <t>merken</t>
-  </si>
-  <si>
-    <t>sterben</t>
-  </si>
-  <si>
-    <t>eignen</t>
-  </si>
-  <si>
-    <t>lernen</t>
-  </si>
-  <si>
-    <t>fliegen</t>
-  </si>
-  <si>
-    <t>wetten</t>
-  </si>
-  <si>
-    <t>seufzen</t>
-  </si>
-  <si>
-    <t>hauen</t>
-  </si>
-  <si>
-    <t>fügen</t>
-  </si>
-  <si>
-    <t>prüfen</t>
-  </si>
-  <si>
-    <t>schreiten</t>
-  </si>
-  <si>
-    <t>mühen</t>
-  </si>
-  <si>
-    <t>kaufen</t>
-  </si>
-  <si>
-    <t>rächen</t>
-  </si>
-  <si>
-    <t>regnen</t>
-  </si>
-  <si>
-    <t>reizen</t>
-  </si>
-  <si>
-    <t>lauten</t>
-  </si>
-  <si>
-    <t>husten</t>
-  </si>
-  <si>
-    <t>locken</t>
-  </si>
-  <si>
-    <t>rücken</t>
-  </si>
-  <si>
-    <t>gelten</t>
-  </si>
-  <si>
-    <t>drehen</t>
-  </si>
-  <si>
-    <t>segeln</t>
-  </si>
-  <si>
-    <t>spielen</t>
-  </si>
-  <si>
-    <t>nähern</t>
-  </si>
-  <si>
-    <t>backen</t>
-  </si>
-  <si>
-    <t>heilen</t>
-  </si>
-  <si>
-    <t>schütteln</t>
-  </si>
-  <si>
-    <t>sagen</t>
-  </si>
-  <si>
-    <t>warnen</t>
-  </si>
-  <si>
-    <t>währen</t>
-  </si>
-  <si>
-    <t>gründen</t>
-  </si>
-  <si>
-    <t>schnellen</t>
-  </si>
-  <si>
-    <t>lehnen</t>
-  </si>
-  <si>
     <t>hören</t>
   </si>
   <si>
-    <t>bergen</t>
-  </si>
-  <si>
-    <t>hängen</t>
-  </si>
-  <si>
-    <t>fließen</t>
-  </si>
-  <si>
-    <t>nullen</t>
-  </si>
-  <si>
-    <t>küssen</t>
-  </si>
-  <si>
-    <t>wachsen</t>
-  </si>
-  <si>
-    <t>sparen</t>
-  </si>
-  <si>
-    <t>angeln</t>
-  </si>
-  <si>
-    <t>drücken</t>
-  </si>
-  <si>
-    <t>wecken</t>
+    <t>klettern</t>
   </si>
   <si>
     <t>rufen</t>
   </si>
   <si>
-    <t>beißen</t>
-  </si>
-  <si>
-    <t>hupen</t>
-  </si>
-  <si>
-    <t>stehen</t>
-  </si>
-  <si>
-    <t>lächeln</t>
-  </si>
-  <si>
-    <t>herrschen</t>
-  </si>
-  <si>
-    <t>quellen</t>
-  </si>
-  <si>
-    <t>sieben</t>
-  </si>
-  <si>
-    <t>dürfen</t>
-  </si>
-  <si>
-    <t>reisen</t>
-  </si>
-  <si>
-    <t>töten</t>
-  </si>
-  <si>
-    <t>wehen</t>
-  </si>
-  <si>
-    <t>posten</t>
-  </si>
-  <si>
-    <t>kranken</t>
-  </si>
-  <si>
-    <t>lockern</t>
-  </si>
-  <si>
-    <t>schätzen</t>
-  </si>
-  <si>
-    <t>planen</t>
-  </si>
-  <si>
-    <t>fliehen</t>
-  </si>
-  <si>
-    <t>jubeln</t>
-  </si>
-  <si>
-    <t>wüten</t>
-  </si>
-  <si>
-    <t>sinken</t>
-  </si>
-  <si>
-    <t>stärken</t>
+    <t>feuern</t>
+  </si>
+  <si>
+    <t>spannen</t>
+  </si>
+  <si>
+    <t>wirken</t>
   </si>
   <si>
     <t>face/face030.jpg</t>

--- a/sequences/01_retrieval_2.xlsx
+++ b/sequences/01_retrieval_2.xlsx
@@ -1048,388 +1048,388 @@
     <t>face</t>
   </si>
   <si>
+    <t>face/face162.jpg</t>
+  </si>
+  <si>
+    <t>face/face210.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog135.jpg</t>
+  </si>
+  <si>
+    <t>house/house185.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog104.jpg</t>
+  </si>
+  <si>
+    <t>face/face258.jpg</t>
+  </si>
+  <si>
+    <t>face/face206.jpg</t>
+  </si>
+  <si>
+    <t>house/house200.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog152.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower107.jpg</t>
+  </si>
+  <si>
+    <t>house/house259.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog256.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower230.jpg</t>
+  </si>
+  <si>
+    <t>face/face101.jpg</t>
+  </si>
+  <si>
+    <t>house/house139.jpg</t>
+  </si>
+  <si>
+    <t>house/house116.jpg</t>
+  </si>
+  <si>
+    <t>face/face151.jpg</t>
+  </si>
+  <si>
+    <t>house/house158.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower205.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog110.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower237.jpg</t>
+  </si>
+  <si>
+    <t>house/house249.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog148.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower204.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog124.jpg</t>
+  </si>
+  <si>
+    <t>face/face169.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog230.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower147.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower100.jpg</t>
+  </si>
+  <si>
+    <t>house/house096.jpg</t>
+  </si>
+  <si>
+    <t>face/face164.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog201.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog217.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower239.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower194.jpg</t>
+  </si>
+  <si>
+    <t>face/face183.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog158.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog205.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower098.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog149.jpg</t>
+  </si>
+  <si>
+    <t>face/face099.jpg</t>
+  </si>
+  <si>
+    <t>face/face103.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog096.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog182.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower187.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower144.jpg</t>
+  </si>
+  <si>
+    <t>face/face260.jpg</t>
+  </si>
+  <si>
+    <t>face/face190.jpg</t>
+  </si>
+  <si>
+    <t>face/face199.jpg</t>
+  </si>
+  <si>
+    <t>house/house186.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower108.jpg</t>
+  </si>
+  <si>
+    <t>house/house208.jpg</t>
+  </si>
+  <si>
+    <t>house/house101.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog146.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog221.jpg</t>
+  </si>
+  <si>
+    <t>face/face175.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower134.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower111.jpg</t>
+  </si>
+  <si>
+    <t>house/house175.jpg</t>
+  </si>
+  <si>
+    <t>house/house128.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower165.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower259.jpg</t>
+  </si>
+  <si>
     <t>dog/dog168.jpg</t>
   </si>
   <si>
-    <t>house/house158.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower237.jpg</t>
+    <t>house/house133.jpg</t>
+  </si>
+  <si>
+    <t>house/house257.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog227.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower161.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog222.jpg</t>
+  </si>
+  <si>
+    <t>house/house225.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower244.jpg</t>
+  </si>
+  <si>
+    <t>face/face172.jpg</t>
+  </si>
+  <si>
+    <t>face/face252.jpg</t>
+  </si>
+  <si>
+    <t>face/face179.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower238.jpg</t>
+  </si>
+  <si>
+    <t>face/face138.jpg</t>
+  </si>
+  <si>
+    <t>house/house157.jpg</t>
+  </si>
+  <si>
+    <t>face/face148.jpg</t>
+  </si>
+  <si>
+    <t>house/house151.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower197.jpg</t>
+  </si>
+  <si>
+    <t>house/house120.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower099.jpg</t>
+  </si>
+  <si>
+    <t>house/house098.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower120.jpg</t>
+  </si>
+  <si>
+    <t>house/house127.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog249.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower174.jpg</t>
+  </si>
+  <si>
+    <t>face/face124.jpg</t>
+  </si>
+  <si>
+    <t>face/face129.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog266.jpg</t>
+  </si>
+  <si>
+    <t>face/face202.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog150.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower102.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog262.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower141.jpg</t>
+  </si>
+  <si>
+    <t>face/face118.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog126.jpg</t>
+  </si>
+  <si>
+    <t>house/house142.jpg</t>
+  </si>
+  <si>
+    <t>house/house222.jpg</t>
+  </si>
+  <si>
+    <t>house/house172.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower262.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog136.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog116.jpg</t>
+  </si>
+  <si>
+    <t>face/face203.jpg</t>
+  </si>
+  <si>
+    <t>house/house224.jpg</t>
+  </si>
+  <si>
+    <t>house/house156.jpg</t>
+  </si>
+  <si>
+    <t>face/face111.jpg</t>
+  </si>
+  <si>
+    <t>house/house233.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower135.jpg</t>
+  </si>
+  <si>
+    <t>face/face112.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog224.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog264.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower117.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower181.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog187.jpg</t>
+  </si>
+  <si>
+    <t>face/face120.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog248.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower116.jpg</t>
+  </si>
+  <si>
+    <t>house/house153.jpg</t>
+  </si>
+  <si>
+    <t>face/face243.jpg</t>
+  </si>
+  <si>
+    <t>house/house221.jpg</t>
+  </si>
+  <si>
+    <t>face/face244.jpg</t>
+  </si>
+  <si>
+    <t>house/house206.jpg</t>
+  </si>
+  <si>
+    <t>house/house187.jpg</t>
+  </si>
+  <si>
+    <t>face/face150.jpg</t>
+  </si>
+  <si>
+    <t>house/house262.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower109.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog196.jpg</t>
   </si>
   <si>
     <t>face/face176.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog266.jpg</t>
-  </si>
-  <si>
-    <t>house/house133.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower134.jpg</t>
-  </si>
-  <si>
-    <t>house/house096.jpg</t>
-  </si>
-  <si>
-    <t>house/house151.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower107.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower102.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog196.jpg</t>
-  </si>
-  <si>
-    <t>face/face124.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower117.jpg</t>
-  </si>
-  <si>
-    <t>house/house127.jpg</t>
-  </si>
-  <si>
-    <t>house/house116.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog227.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower204.jpg</t>
-  </si>
-  <si>
-    <t>face/face162.jpg</t>
-  </si>
-  <si>
-    <t>house/house139.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog217.jpg</t>
-  </si>
-  <si>
-    <t>house/house249.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog221.jpg</t>
-  </si>
-  <si>
-    <t>face/face150.jpg</t>
-  </si>
-  <si>
-    <t>house/house200.jpg</t>
-  </si>
-  <si>
-    <t>face/face112.jpg</t>
-  </si>
-  <si>
-    <t>face/face111.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower147.jpg</t>
-  </si>
-  <si>
-    <t>house/house120.jpg</t>
-  </si>
-  <si>
-    <t>face/face210.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower181.jpg</t>
-  </si>
-  <si>
-    <t>house/house221.jpg</t>
-  </si>
-  <si>
-    <t>face/face244.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog148.jpg</t>
-  </si>
-  <si>
-    <t>face/face101.jpg</t>
-  </si>
-  <si>
-    <t>house/house156.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower108.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower111.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog135.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog205.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog158.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower100.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower098.jpg</t>
-  </si>
-  <si>
-    <t>face/face175.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog136.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower194.jpg</t>
-  </si>
-  <si>
-    <t>house/house157.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog149.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog230.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog222.jpg</t>
-  </si>
-  <si>
-    <t>face/face138.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog182.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower262.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog124.jpg</t>
-  </si>
-  <si>
-    <t>face/face151.jpg</t>
-  </si>
-  <si>
-    <t>face/face258.jpg</t>
-  </si>
-  <si>
-    <t>house/house172.jpg</t>
-  </si>
-  <si>
-    <t>house/house257.jpg</t>
-  </si>
-  <si>
-    <t>house/house175.jpg</t>
-  </si>
-  <si>
-    <t>house/house225.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower259.jpg</t>
-  </si>
-  <si>
-    <t>house/house262.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower120.jpg</t>
-  </si>
-  <si>
-    <t>face/face099.jpg</t>
-  </si>
-  <si>
-    <t>face/face202.jpg</t>
-  </si>
-  <si>
-    <t>face/face199.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower144.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog187.jpg</t>
-  </si>
-  <si>
-    <t>house/house259.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower244.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower109.jpg</t>
-  </si>
-  <si>
-    <t>face/face252.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower165.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower230.jpg</t>
-  </si>
-  <si>
-    <t>face/face243.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower174.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog256.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog224.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower161.jpg</t>
-  </si>
-  <si>
-    <t>face/face103.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog104.jpg</t>
-  </si>
-  <si>
-    <t>house/house187.jpg</t>
-  </si>
-  <si>
-    <t>house/house142.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower205.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog249.jpg</t>
-  </si>
-  <si>
-    <t>face/face206.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog201.jpg</t>
-  </si>
-  <si>
-    <t>house/house222.jpg</t>
-  </si>
-  <si>
-    <t>face/face120.jpg</t>
-  </si>
-  <si>
-    <t>face/face260.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog152.jpg</t>
-  </si>
-  <si>
-    <t>house/house206.jpg</t>
-  </si>
-  <si>
-    <t>face/face118.jpg</t>
-  </si>
-  <si>
-    <t>house/house186.jpg</t>
-  </si>
-  <si>
-    <t>house/house208.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog126.jpg</t>
-  </si>
-  <si>
-    <t>house/house224.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog146.jpg</t>
-  </si>
-  <si>
-    <t>face/face190.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog264.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog248.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower187.jpg</t>
-  </si>
-  <si>
-    <t>face/face203.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower099.jpg</t>
-  </si>
-  <si>
-    <t>face/face129.jpg</t>
-  </si>
-  <si>
-    <t>house/house101.jpg</t>
-  </si>
-  <si>
-    <t>house/house185.jpg</t>
-  </si>
-  <si>
-    <t>house/house098.jpg</t>
-  </si>
-  <si>
-    <t>face/face179.jpg</t>
-  </si>
-  <si>
-    <t>house/house128.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog150.jpg</t>
-  </si>
-  <si>
-    <t>face/face148.jpg</t>
-  </si>
-  <si>
-    <t>face/face164.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower238.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower239.jpg</t>
-  </si>
-  <si>
-    <t>face/face172.jpg</t>
-  </si>
-  <si>
-    <t>face/face183.jpg</t>
-  </si>
-  <si>
-    <t>house/house153.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower135.jpg</t>
-  </si>
-  <si>
-    <t>face/face169.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog096.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog110.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower197.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog262.jpg</t>
-  </si>
-  <si>
-    <t>house/house233.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower116.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog116.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower141.jpg</t>
   </si>
   <si>
     <t>other/new/uncued</t>
@@ -2005,16 +2005,16 @@
         <v>212</v>
       </c>
       <c r="G4" t="s">
-        <v>259</v>
+        <v>331</v>
       </c>
       <c r="H4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I4" t="s">
         <v>344</v>
       </c>
       <c r="J4" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K4" t="s">
         <v>344</v>
@@ -2029,13 +2029,13 @@
         <v>475</v>
       </c>
       <c r="O4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="P4" t="s">
         <v>474</v>
       </c>
       <c r="Q4" t="s">
-        <v>259</v>
+        <v>331</v>
       </c>
       <c r="R4" t="s">
         <v>473</v>
@@ -2064,19 +2064,19 @@
         <v>213</v>
       </c>
       <c r="G5" t="s">
-        <v>320</v>
+        <v>224</v>
       </c>
       <c r="H5" t="s">
-        <v>312</v>
+        <v>234</v>
       </c>
       <c r="I5" t="s">
         <v>345</v>
       </c>
       <c r="J5" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K5" t="s">
-        <v>320</v>
+        <v>224</v>
       </c>
       <c r="L5" t="s">
         <v>473</v>
@@ -2088,7 +2088,7 @@
         <v>472</v>
       </c>
       <c r="O5" t="s">
-        <v>312</v>
+        <v>234</v>
       </c>
       <c r="P5" t="s">
         <v>474</v>
@@ -2126,13 +2126,13 @@
         <v>339</v>
       </c>
       <c r="H6" t="s">
-        <v>286</v>
+        <v>242</v>
       </c>
       <c r="I6" t="s">
         <v>346</v>
       </c>
       <c r="J6" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K6" t="s">
         <v>346</v>
@@ -2147,7 +2147,7 @@
         <v>473</v>
       </c>
       <c r="O6" t="s">
-        <v>286</v>
+        <v>242</v>
       </c>
       <c r="P6" t="s">
         <v>474</v>
@@ -2182,19 +2182,19 @@
         <v>215</v>
       </c>
       <c r="G7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="H7" t="s">
-        <v>232</v>
+        <v>338</v>
       </c>
       <c r="I7" t="s">
         <v>347</v>
       </c>
       <c r="J7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K7" t="s">
-        <v>232</v>
+        <v>338</v>
       </c>
       <c r="L7" t="s">
         <v>474</v>
@@ -2212,7 +2212,7 @@
         <v>475</v>
       </c>
       <c r="Q7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="R7" t="s">
         <v>473</v>
@@ -2244,7 +2244,7 @@
         <v>229</v>
       </c>
       <c r="H8" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
       <c r="I8" t="s">
         <v>348</v>
@@ -2259,7 +2259,7 @@
         <v>472</v>
       </c>
       <c r="M8" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
       <c r="N8" t="s">
         <v>474</v>
@@ -2300,16 +2300,16 @@
         <v>217</v>
       </c>
       <c r="G9" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="H9" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="I9" t="s">
         <v>349</v>
       </c>
       <c r="J9" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K9" t="s">
         <v>349</v>
@@ -2324,13 +2324,13 @@
         <v>475</v>
       </c>
       <c r="O9" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="P9" t="s">
         <v>473</v>
       </c>
       <c r="Q9" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="R9" t="s">
         <v>474</v>
@@ -2418,25 +2418,25 @@
         <v>218</v>
       </c>
       <c r="G11" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="H11" t="s">
-        <v>260</v>
+        <v>318</v>
       </c>
       <c r="I11" t="s">
         <v>350</v>
       </c>
       <c r="J11" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K11" t="s">
-        <v>260</v>
+        <v>318</v>
       </c>
       <c r="L11" t="s">
         <v>474</v>
       </c>
       <c r="M11" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="N11" t="s">
         <v>473</v>
@@ -2477,7 +2477,7 @@
         <v>219</v>
       </c>
       <c r="G12" t="s">
-        <v>247</v>
+        <v>336</v>
       </c>
       <c r="H12" t="s">
         <v>274</v>
@@ -2507,7 +2507,7 @@
         <v>474</v>
       </c>
       <c r="Q12" t="s">
-        <v>247</v>
+        <v>336</v>
       </c>
       <c r="R12" t="s">
         <v>473</v>
@@ -2536,19 +2536,19 @@
         <v>220</v>
       </c>
       <c r="G13" t="s">
-        <v>336</v>
+        <v>293</v>
       </c>
       <c r="H13" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="I13" t="s">
         <v>352</v>
       </c>
       <c r="J13" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K13" t="s">
-        <v>336</v>
+        <v>293</v>
       </c>
       <c r="L13" t="s">
         <v>473</v>
@@ -2566,7 +2566,7 @@
         <v>472</v>
       </c>
       <c r="Q13" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="R13" t="s">
         <v>474</v>
@@ -2598,7 +2598,7 @@
         <v>297</v>
       </c>
       <c r="H14" t="s">
-        <v>288</v>
+        <v>231</v>
       </c>
       <c r="I14" t="s">
         <v>353</v>
@@ -2625,7 +2625,7 @@
         <v>472</v>
       </c>
       <c r="Q14" t="s">
-        <v>288</v>
+        <v>231</v>
       </c>
       <c r="R14" t="s">
         <v>474</v>
@@ -2772,16 +2772,16 @@
         <v>222</v>
       </c>
       <c r="G17" t="s">
-        <v>275</v>
+        <v>242</v>
       </c>
       <c r="H17" t="s">
-        <v>219</v>
+        <v>256</v>
       </c>
       <c r="I17" t="s">
         <v>354</v>
       </c>
       <c r="J17" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K17" t="s">
         <v>354</v>
@@ -2796,13 +2796,13 @@
         <v>475</v>
       </c>
       <c r="O17" t="s">
-        <v>275</v>
+        <v>242</v>
       </c>
       <c r="P17" t="s">
         <v>473</v>
       </c>
       <c r="Q17" t="s">
-        <v>219</v>
+        <v>256</v>
       </c>
       <c r="R17" t="s">
         <v>474</v>
@@ -2834,7 +2834,7 @@
         <v>328</v>
       </c>
       <c r="H18" t="s">
-        <v>241</v>
+        <v>308</v>
       </c>
       <c r="I18" t="s">
         <v>355</v>
@@ -2849,7 +2849,7 @@
         <v>476</v>
       </c>
       <c r="M18" t="s">
-        <v>241</v>
+        <v>308</v>
       </c>
       <c r="N18" t="s">
         <v>474</v>
@@ -2890,25 +2890,25 @@
         <v>224</v>
       </c>
       <c r="G19" t="s">
-        <v>317</v>
+        <v>241</v>
       </c>
       <c r="H19" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="I19" t="s">
         <v>356</v>
       </c>
       <c r="J19" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K19" t="s">
-        <v>317</v>
+        <v>241</v>
       </c>
       <c r="L19" t="s">
         <v>473</v>
       </c>
       <c r="M19" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="N19" t="s">
         <v>474</v>
@@ -2952,16 +2952,16 @@
         <v>279</v>
       </c>
       <c r="H20" t="s">
-        <v>280</v>
+        <v>239</v>
       </c>
       <c r="I20" t="s">
         <v>357</v>
       </c>
       <c r="J20" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K20" t="s">
-        <v>280</v>
+        <v>239</v>
       </c>
       <c r="L20" t="s">
         <v>474</v>
@@ -3008,10 +3008,10 @@
         <v>226</v>
       </c>
       <c r="G21" t="s">
-        <v>235</v>
+        <v>334</v>
       </c>
       <c r="H21" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="I21" t="s">
         <v>358</v>
@@ -3020,7 +3020,7 @@
         <v>342</v>
       </c>
       <c r="K21" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="L21" t="s">
         <v>474</v>
@@ -3038,7 +3038,7 @@
         <v>475</v>
       </c>
       <c r="Q21" t="s">
-        <v>235</v>
+        <v>334</v>
       </c>
       <c r="R21" t="s">
         <v>473</v>
@@ -3129,7 +3129,7 @@
         <v>269</v>
       </c>
       <c r="H23" t="s">
-        <v>292</v>
+        <v>237</v>
       </c>
       <c r="I23" t="s">
         <v>359</v>
@@ -3138,7 +3138,7 @@
         <v>342</v>
       </c>
       <c r="K23" t="s">
-        <v>292</v>
+        <v>237</v>
       </c>
       <c r="L23" t="s">
         <v>474</v>
@@ -3188,13 +3188,13 @@
         <v>298</v>
       </c>
       <c r="H24" t="s">
-        <v>242</v>
+        <v>329</v>
       </c>
       <c r="I24" t="s">
         <v>360</v>
       </c>
       <c r="J24" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K24" t="s">
         <v>228</v>
@@ -3215,7 +3215,7 @@
         <v>473</v>
       </c>
       <c r="Q24" t="s">
-        <v>242</v>
+        <v>329</v>
       </c>
       <c r="R24" t="s">
         <v>474</v>
@@ -3365,13 +3365,13 @@
         <v>322</v>
       </c>
       <c r="H27" t="s">
-        <v>333</v>
+        <v>223</v>
       </c>
       <c r="I27" t="s">
         <v>361</v>
       </c>
       <c r="J27" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K27" t="s">
         <v>361</v>
@@ -3392,7 +3392,7 @@
         <v>475</v>
       </c>
       <c r="Q27" t="s">
-        <v>333</v>
+        <v>223</v>
       </c>
       <c r="R27" t="s">
         <v>474</v>
@@ -3424,13 +3424,13 @@
         <v>323</v>
       </c>
       <c r="H28" t="s">
-        <v>315</v>
+        <v>336</v>
       </c>
       <c r="I28" t="s">
         <v>362</v>
       </c>
       <c r="J28" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K28" t="s">
         <v>230</v>
@@ -3451,7 +3451,7 @@
         <v>472</v>
       </c>
       <c r="Q28" t="s">
-        <v>315</v>
+        <v>336</v>
       </c>
       <c r="R28" t="s">
         <v>474</v>
@@ -3539,16 +3539,16 @@
         <v>231</v>
       </c>
       <c r="G30" t="s">
-        <v>238</v>
+        <v>304</v>
       </c>
       <c r="H30" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="I30" t="s">
         <v>363</v>
       </c>
       <c r="J30" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K30" t="s">
         <v>231</v>
@@ -3563,13 +3563,13 @@
         <v>472</v>
       </c>
       <c r="O30" t="s">
-        <v>238</v>
+        <v>304</v>
       </c>
       <c r="P30" t="s">
         <v>473</v>
       </c>
       <c r="Q30" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="R30" t="s">
         <v>474</v>
@@ -3601,16 +3601,16 @@
         <v>216</v>
       </c>
       <c r="H31" t="s">
-        <v>305</v>
+        <v>219</v>
       </c>
       <c r="I31" t="s">
         <v>364</v>
       </c>
       <c r="J31" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K31" t="s">
-        <v>305</v>
+        <v>219</v>
       </c>
       <c r="L31" t="s">
         <v>474</v>
@@ -3657,10 +3657,10 @@
         <v>233</v>
       </c>
       <c r="G32" t="s">
-        <v>330</v>
+        <v>235</v>
       </c>
       <c r="H32" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="I32" t="s">
         <v>365</v>
@@ -3675,7 +3675,7 @@
         <v>475</v>
       </c>
       <c r="M32" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="N32" t="s">
         <v>474</v>
@@ -3687,7 +3687,7 @@
         <v>472</v>
       </c>
       <c r="Q32" t="s">
-        <v>330</v>
+        <v>235</v>
       </c>
       <c r="R32" t="s">
         <v>473</v>
@@ -3719,7 +3719,7 @@
         <v>329</v>
       </c>
       <c r="H33" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="I33" t="s">
         <v>366</v>
@@ -3728,7 +3728,7 @@
         <v>341</v>
       </c>
       <c r="K33" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="L33" t="s">
         <v>474</v>
@@ -3834,19 +3834,19 @@
         <v>235</v>
       </c>
       <c r="G35" t="s">
-        <v>218</v>
+        <v>295</v>
       </c>
       <c r="H35" t="s">
-        <v>234</v>
+        <v>293</v>
       </c>
       <c r="I35" t="s">
         <v>367</v>
       </c>
       <c r="J35" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K35" t="s">
-        <v>218</v>
+        <v>295</v>
       </c>
       <c r="L35" t="s">
         <v>473</v>
@@ -3864,7 +3864,7 @@
         <v>475</v>
       </c>
       <c r="Q35" t="s">
-        <v>234</v>
+        <v>293</v>
       </c>
       <c r="R35" t="s">
         <v>474</v>
@@ -3896,13 +3896,13 @@
         <v>307</v>
       </c>
       <c r="H36" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="I36" t="s">
         <v>368</v>
       </c>
       <c r="J36" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K36" t="s">
         <v>307</v>
@@ -3923,7 +3923,7 @@
         <v>476</v>
       </c>
       <c r="Q36" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="R36" t="s">
         <v>474</v>
@@ -3955,7 +3955,7 @@
         <v>221</v>
       </c>
       <c r="H37" t="s">
-        <v>321</v>
+        <v>229</v>
       </c>
       <c r="I37" t="s">
         <v>369</v>
@@ -3964,7 +3964,7 @@
         <v>343</v>
       </c>
       <c r="K37" t="s">
-        <v>321</v>
+        <v>229</v>
       </c>
       <c r="L37" t="s">
         <v>474</v>
@@ -4070,19 +4070,19 @@
         <v>238</v>
       </c>
       <c r="G39" t="s">
-        <v>296</v>
+        <v>316</v>
       </c>
       <c r="H39" t="s">
-        <v>265</v>
+        <v>334</v>
       </c>
       <c r="I39" t="s">
         <v>370</v>
       </c>
       <c r="J39" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K39" t="s">
-        <v>296</v>
+        <v>316</v>
       </c>
       <c r="L39" t="s">
         <v>473</v>
@@ -4094,7 +4094,7 @@
         <v>475</v>
       </c>
       <c r="O39" t="s">
-        <v>265</v>
+        <v>334</v>
       </c>
       <c r="P39" t="s">
         <v>474</v>
@@ -4132,7 +4132,7 @@
         <v>313</v>
       </c>
       <c r="H40" t="s">
-        <v>302</v>
+        <v>332</v>
       </c>
       <c r="I40" t="s">
         <v>371</v>
@@ -4147,7 +4147,7 @@
         <v>475</v>
       </c>
       <c r="M40" t="s">
-        <v>302</v>
+        <v>332</v>
       </c>
       <c r="N40" t="s">
         <v>474</v>
@@ -4191,13 +4191,13 @@
         <v>254</v>
       </c>
       <c r="H41" t="s">
-        <v>251</v>
+        <v>212</v>
       </c>
       <c r="I41" t="s">
         <v>372</v>
       </c>
       <c r="J41" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K41" t="s">
         <v>372</v>
@@ -4212,7 +4212,7 @@
         <v>473</v>
       </c>
       <c r="O41" t="s">
-        <v>251</v>
+        <v>212</v>
       </c>
       <c r="P41" t="s">
         <v>474</v>
@@ -4247,16 +4247,16 @@
         <v>241</v>
       </c>
       <c r="G42" t="s">
-        <v>257</v>
+        <v>306</v>
       </c>
       <c r="H42" t="s">
-        <v>250</v>
+        <v>311</v>
       </c>
       <c r="I42" t="s">
         <v>373</v>
       </c>
       <c r="J42" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K42" t="s">
         <v>373</v>
@@ -4265,7 +4265,7 @@
         <v>472</v>
       </c>
       <c r="M42" t="s">
-        <v>257</v>
+        <v>306</v>
       </c>
       <c r="N42" t="s">
         <v>473</v>
@@ -4277,7 +4277,7 @@
         <v>475</v>
       </c>
       <c r="Q42" t="s">
-        <v>250</v>
+        <v>311</v>
       </c>
       <c r="R42" t="s">
         <v>474</v>
@@ -4306,25 +4306,25 @@
         <v>242</v>
       </c>
       <c r="G43" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="H43" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="I43" t="s">
         <v>374</v>
       </c>
       <c r="J43" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K43" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="L43" t="s">
         <v>474</v>
       </c>
       <c r="M43" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="N43" t="s">
         <v>473</v>
@@ -4365,16 +4365,16 @@
         <v>243</v>
       </c>
       <c r="G44" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="H44" t="s">
-        <v>323</v>
+        <v>241</v>
       </c>
       <c r="I44" t="s">
         <v>375</v>
       </c>
       <c r="J44" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K44" t="s">
         <v>375</v>
@@ -4389,13 +4389,13 @@
         <v>475</v>
       </c>
       <c r="O44" t="s">
-        <v>323</v>
+        <v>241</v>
       </c>
       <c r="P44" t="s">
         <v>474</v>
       </c>
       <c r="Q44" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="R44" t="s">
         <v>473</v>
@@ -4483,16 +4483,16 @@
         <v>244</v>
       </c>
       <c r="G46" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H46" t="s">
-        <v>325</v>
+        <v>275</v>
       </c>
       <c r="I46" t="s">
         <v>376</v>
       </c>
       <c r="J46" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K46" t="s">
         <v>244</v>
@@ -4501,7 +4501,7 @@
         <v>475</v>
       </c>
       <c r="M46" t="s">
-        <v>325</v>
+        <v>275</v>
       </c>
       <c r="N46" t="s">
         <v>474</v>
@@ -4513,7 +4513,7 @@
         <v>472</v>
       </c>
       <c r="Q46" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="R46" t="s">
         <v>473</v>
@@ -4545,13 +4545,13 @@
         <v>290</v>
       </c>
       <c r="H47" t="s">
-        <v>306</v>
+        <v>333</v>
       </c>
       <c r="I47" t="s">
         <v>377</v>
       </c>
       <c r="J47" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K47" t="s">
         <v>377</v>
@@ -4566,7 +4566,7 @@
         <v>473</v>
       </c>
       <c r="O47" t="s">
-        <v>306</v>
+        <v>333</v>
       </c>
       <c r="P47" t="s">
         <v>474</v>
@@ -4601,25 +4601,25 @@
         <v>246</v>
       </c>
       <c r="G48" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
       <c r="H48" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="I48" t="s">
         <v>378</v>
       </c>
       <c r="J48" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K48" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
       <c r="L48" t="s">
         <v>473</v>
       </c>
       <c r="M48" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="N48" t="s">
         <v>474</v>
@@ -4719,19 +4719,19 @@
         <v>247</v>
       </c>
       <c r="G50" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="H50" t="s">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="I50" t="s">
         <v>379</v>
       </c>
       <c r="J50" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K50" t="s">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="L50" t="s">
         <v>474</v>
@@ -4743,7 +4743,7 @@
         <v>472</v>
       </c>
       <c r="O50" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="P50" t="s">
         <v>473</v>
@@ -4840,13 +4840,13 @@
         <v>249</v>
       </c>
       <c r="H52" t="s">
-        <v>238</v>
+        <v>330</v>
       </c>
       <c r="I52" t="s">
         <v>380</v>
       </c>
       <c r="J52" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K52" t="s">
         <v>380</v>
@@ -4867,7 +4867,7 @@
         <v>473</v>
       </c>
       <c r="Q52" t="s">
-        <v>238</v>
+        <v>330</v>
       </c>
       <c r="R52" t="s">
         <v>474</v>
@@ -4899,13 +4899,13 @@
         <v>338</v>
       </c>
       <c r="H53" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="I53" t="s">
         <v>381</v>
       </c>
       <c r="J53" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K53" t="s">
         <v>249</v>
@@ -4920,7 +4920,7 @@
         <v>472</v>
       </c>
       <c r="O53" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="P53" t="s">
         <v>474</v>
@@ -5076,13 +5076,13 @@
         <v>261</v>
       </c>
       <c r="H56" t="s">
-        <v>218</v>
+        <v>260</v>
       </c>
       <c r="I56" t="s">
         <v>382</v>
       </c>
       <c r="J56" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K56" t="s">
         <v>250</v>
@@ -5097,7 +5097,7 @@
         <v>472</v>
       </c>
       <c r="O56" t="s">
-        <v>218</v>
+        <v>260</v>
       </c>
       <c r="P56" t="s">
         <v>474</v>
@@ -5309,16 +5309,16 @@
         <v>252</v>
       </c>
       <c r="G60" t="s">
-        <v>267</v>
+        <v>299</v>
       </c>
       <c r="H60" t="s">
-        <v>258</v>
+        <v>281</v>
       </c>
       <c r="I60" t="s">
         <v>384</v>
       </c>
       <c r="J60" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K60" t="s">
         <v>384</v>
@@ -5333,13 +5333,13 @@
         <v>475</v>
       </c>
       <c r="O60" t="s">
-        <v>258</v>
+        <v>281</v>
       </c>
       <c r="P60" t="s">
         <v>474</v>
       </c>
       <c r="Q60" t="s">
-        <v>267</v>
+        <v>299</v>
       </c>
       <c r="R60" t="s">
         <v>473</v>
@@ -5368,16 +5368,16 @@
         <v>253</v>
       </c>
       <c r="G61" t="s">
-        <v>306</v>
+        <v>226</v>
       </c>
       <c r="H61" t="s">
-        <v>276</v>
+        <v>232</v>
       </c>
       <c r="I61" t="s">
         <v>385</v>
       </c>
       <c r="J61" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K61" t="s">
         <v>253</v>
@@ -5386,13 +5386,13 @@
         <v>475</v>
       </c>
       <c r="M61" t="s">
-        <v>306</v>
+        <v>226</v>
       </c>
       <c r="N61" t="s">
         <v>473</v>
       </c>
       <c r="O61" t="s">
-        <v>276</v>
+        <v>232</v>
       </c>
       <c r="P61" t="s">
         <v>474</v>
@@ -5430,13 +5430,13 @@
         <v>318</v>
       </c>
       <c r="H62" t="s">
-        <v>255</v>
+        <v>320</v>
       </c>
       <c r="I62" t="s">
         <v>386</v>
       </c>
       <c r="J62" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K62" t="s">
         <v>386</v>
@@ -5457,7 +5457,7 @@
         <v>476</v>
       </c>
       <c r="Q62" t="s">
-        <v>255</v>
+        <v>320</v>
       </c>
       <c r="R62" t="s">
         <v>474</v>
@@ -5604,25 +5604,25 @@
         <v>255</v>
       </c>
       <c r="G65" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="H65" t="s">
-        <v>271</v>
+        <v>306</v>
       </c>
       <c r="I65" t="s">
         <v>387</v>
       </c>
       <c r="J65" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K65" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="L65" t="s">
         <v>473</v>
       </c>
       <c r="M65" t="s">
-        <v>271</v>
+        <v>306</v>
       </c>
       <c r="N65" t="s">
         <v>474</v>
@@ -5666,13 +5666,13 @@
         <v>228</v>
       </c>
       <c r="H66" t="s">
-        <v>224</v>
+        <v>286</v>
       </c>
       <c r="I66" t="s">
         <v>388</v>
       </c>
       <c r="J66" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K66" t="s">
         <v>256</v>
@@ -5681,7 +5681,7 @@
         <v>475</v>
       </c>
       <c r="M66" t="s">
-        <v>224</v>
+        <v>286</v>
       </c>
       <c r="N66" t="s">
         <v>474</v>
@@ -5722,10 +5722,10 @@
         <v>257</v>
       </c>
       <c r="G67" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="H67" t="s">
-        <v>309</v>
+        <v>217</v>
       </c>
       <c r="I67" t="s">
         <v>389</v>
@@ -5740,13 +5740,13 @@
         <v>472</v>
       </c>
       <c r="M67" t="s">
-        <v>309</v>
+        <v>217</v>
       </c>
       <c r="N67" t="s">
         <v>474</v>
       </c>
       <c r="O67" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="P67" t="s">
         <v>473</v>
@@ -5781,16 +5781,16 @@
         <v>258</v>
       </c>
       <c r="G68" t="s">
-        <v>337</v>
+        <v>246</v>
       </c>
       <c r="H68" t="s">
-        <v>248</v>
+        <v>285</v>
       </c>
       <c r="I68" t="s">
         <v>390</v>
       </c>
       <c r="J68" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K68" t="s">
         <v>390</v>
@@ -5805,13 +5805,13 @@
         <v>475</v>
       </c>
       <c r="O68" t="s">
-        <v>248</v>
+        <v>285</v>
       </c>
       <c r="P68" t="s">
         <v>474</v>
       </c>
       <c r="Q68" t="s">
-        <v>337</v>
+        <v>246</v>
       </c>
       <c r="R68" t="s">
         <v>473</v>
@@ -5899,16 +5899,16 @@
         <v>259</v>
       </c>
       <c r="G70" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="H70" t="s">
-        <v>334</v>
+        <v>269</v>
       </c>
       <c r="I70" t="s">
         <v>391</v>
       </c>
       <c r="J70" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K70" t="s">
         <v>391</v>
@@ -5923,13 +5923,13 @@
         <v>475</v>
       </c>
       <c r="O70" t="s">
-        <v>334</v>
+        <v>269</v>
       </c>
       <c r="P70" t="s">
         <v>474</v>
       </c>
       <c r="Q70" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="R70" t="s">
         <v>473</v>
@@ -6017,16 +6017,16 @@
         <v>260</v>
       </c>
       <c r="G72" t="s">
-        <v>266</v>
+        <v>314</v>
       </c>
       <c r="H72" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="I72" t="s">
         <v>392</v>
       </c>
       <c r="J72" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K72" t="s">
         <v>392</v>
@@ -6035,7 +6035,7 @@
         <v>472</v>
       </c>
       <c r="M72" t="s">
-        <v>266</v>
+        <v>314</v>
       </c>
       <c r="N72" t="s">
         <v>473</v>
@@ -6047,7 +6047,7 @@
         <v>475</v>
       </c>
       <c r="Q72" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="R72" t="s">
         <v>474</v>
@@ -6138,13 +6138,13 @@
         <v>263</v>
       </c>
       <c r="H74" t="s">
-        <v>294</v>
+        <v>335</v>
       </c>
       <c r="I74" t="s">
         <v>393</v>
       </c>
       <c r="J74" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K74" t="s">
         <v>393</v>
@@ -6159,7 +6159,7 @@
         <v>475</v>
       </c>
       <c r="O74" t="s">
-        <v>294</v>
+        <v>335</v>
       </c>
       <c r="P74" t="s">
         <v>474</v>
@@ -6197,16 +6197,16 @@
         <v>327</v>
       </c>
       <c r="H75" t="s">
-        <v>236</v>
+        <v>331</v>
       </c>
       <c r="I75" t="s">
         <v>394</v>
       </c>
       <c r="J75" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K75" t="s">
-        <v>236</v>
+        <v>331</v>
       </c>
       <c r="L75" t="s">
         <v>474</v>
@@ -6256,16 +6256,16 @@
         <v>236</v>
       </c>
       <c r="H76" t="s">
-        <v>253</v>
+        <v>225</v>
       </c>
       <c r="I76" t="s">
         <v>395</v>
       </c>
       <c r="J76" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K76" t="s">
-        <v>253</v>
+        <v>225</v>
       </c>
       <c r="L76" t="s">
         <v>474</v>
@@ -6312,19 +6312,19 @@
         <v>264</v>
       </c>
       <c r="G77" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="H77" t="s">
-        <v>243</v>
+        <v>327</v>
       </c>
       <c r="I77" t="s">
         <v>396</v>
       </c>
       <c r="J77" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K77" t="s">
-        <v>243</v>
+        <v>327</v>
       </c>
       <c r="L77" t="s">
         <v>474</v>
@@ -6336,7 +6336,7 @@
         <v>472</v>
       </c>
       <c r="O77" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="P77" t="s">
         <v>473</v>
@@ -6374,7 +6374,7 @@
         <v>232</v>
       </c>
       <c r="H78" t="s">
-        <v>246</v>
+        <v>337</v>
       </c>
       <c r="I78" t="s">
         <v>397</v>
@@ -6395,7 +6395,7 @@
         <v>476</v>
       </c>
       <c r="O78" t="s">
-        <v>246</v>
+        <v>337</v>
       </c>
       <c r="P78" t="s">
         <v>474</v>
@@ -6430,16 +6430,16 @@
         <v>266</v>
       </c>
       <c r="G79" t="s">
-        <v>302</v>
+        <v>243</v>
       </c>
       <c r="H79" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="I79" t="s">
         <v>398</v>
       </c>
       <c r="J79" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K79" t="s">
         <v>398</v>
@@ -6454,13 +6454,13 @@
         <v>475</v>
       </c>
       <c r="O79" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="P79" t="s">
         <v>474</v>
       </c>
       <c r="Q79" t="s">
-        <v>302</v>
+        <v>243</v>
       </c>
       <c r="R79" t="s">
         <v>473</v>
@@ -6548,10 +6548,10 @@
         <v>267</v>
       </c>
       <c r="G81" t="s">
-        <v>286</v>
+        <v>212</v>
       </c>
       <c r="H81" t="s">
-        <v>290</v>
+        <v>245</v>
       </c>
       <c r="I81" t="s">
         <v>399</v>
@@ -6560,7 +6560,7 @@
         <v>343</v>
       </c>
       <c r="K81" t="s">
-        <v>290</v>
+        <v>245</v>
       </c>
       <c r="L81" t="s">
         <v>474</v>
@@ -6578,7 +6578,7 @@
         <v>472</v>
       </c>
       <c r="Q81" t="s">
-        <v>286</v>
+        <v>212</v>
       </c>
       <c r="R81" t="s">
         <v>473</v>
@@ -6607,16 +6607,16 @@
         <v>268</v>
       </c>
       <c r="G82" t="s">
-        <v>310</v>
+        <v>253</v>
       </c>
       <c r="H82" t="s">
-        <v>297</v>
+        <v>215</v>
       </c>
       <c r="I82" t="s">
         <v>400</v>
       </c>
       <c r="J82" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K82" t="s">
         <v>400</v>
@@ -6625,13 +6625,13 @@
         <v>472</v>
       </c>
       <c r="M82" t="s">
-        <v>310</v>
+        <v>253</v>
       </c>
       <c r="N82" t="s">
         <v>473</v>
       </c>
       <c r="O82" t="s">
-        <v>297</v>
+        <v>215</v>
       </c>
       <c r="P82" t="s">
         <v>474</v>
@@ -6728,13 +6728,13 @@
         <v>270</v>
       </c>
       <c r="H84" t="s">
-        <v>335</v>
+        <v>259</v>
       </c>
       <c r="I84" t="s">
         <v>401</v>
       </c>
       <c r="J84" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K84" t="s">
         <v>401</v>
@@ -6755,7 +6755,7 @@
         <v>475</v>
       </c>
       <c r="Q84" t="s">
-        <v>335</v>
+        <v>259</v>
       </c>
       <c r="R84" t="s">
         <v>474</v>
@@ -6787,7 +6787,7 @@
         <v>245</v>
       </c>
       <c r="H85" t="s">
-        <v>230</v>
+        <v>277</v>
       </c>
       <c r="I85" t="s">
         <v>402</v>
@@ -6808,7 +6808,7 @@
         <v>472</v>
       </c>
       <c r="O85" t="s">
-        <v>230</v>
+        <v>277</v>
       </c>
       <c r="P85" t="s">
         <v>474</v>
@@ -7023,7 +7023,7 @@
         <v>287</v>
       </c>
       <c r="H89" t="s">
-        <v>304</v>
+        <v>243</v>
       </c>
       <c r="I89" t="s">
         <v>404</v>
@@ -7038,7 +7038,7 @@
         <v>472</v>
       </c>
       <c r="M89" t="s">
-        <v>304</v>
+        <v>243</v>
       </c>
       <c r="N89" t="s">
         <v>474</v>
@@ -7079,16 +7079,16 @@
         <v>273</v>
       </c>
       <c r="G90" t="s">
-        <v>226</v>
+        <v>305</v>
       </c>
       <c r="H90" t="s">
-        <v>237</v>
+        <v>302</v>
       </c>
       <c r="I90" t="s">
         <v>405</v>
       </c>
       <c r="J90" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K90" t="s">
         <v>405</v>
@@ -7103,13 +7103,13 @@
         <v>475</v>
       </c>
       <c r="O90" t="s">
-        <v>237</v>
+        <v>302</v>
       </c>
       <c r="P90" t="s">
         <v>474</v>
       </c>
       <c r="Q90" t="s">
-        <v>226</v>
+        <v>305</v>
       </c>
       <c r="R90" t="s">
         <v>473</v>
@@ -7200,13 +7200,13 @@
         <v>311</v>
       </c>
       <c r="H92" t="s">
-        <v>314</v>
+        <v>291</v>
       </c>
       <c r="I92" t="s">
         <v>406</v>
       </c>
       <c r="J92" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K92" t="s">
         <v>274</v>
@@ -7215,7 +7215,7 @@
         <v>475</v>
       </c>
       <c r="M92" t="s">
-        <v>314</v>
+        <v>291</v>
       </c>
       <c r="N92" t="s">
         <v>474</v>
@@ -7315,25 +7315,25 @@
         <v>275</v>
       </c>
       <c r="G94" t="s">
-        <v>242</v>
+        <v>310</v>
       </c>
       <c r="H94" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="I94" t="s">
         <v>407</v>
       </c>
       <c r="J94" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K94" t="s">
-        <v>242</v>
+        <v>310</v>
       </c>
       <c r="L94" t="s">
         <v>473</v>
       </c>
       <c r="M94" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="N94" t="s">
         <v>474</v>
@@ -7374,19 +7374,19 @@
         <v>276</v>
       </c>
       <c r="G95" t="s">
-        <v>220</v>
+        <v>288</v>
       </c>
       <c r="H95" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="I95" t="s">
         <v>408</v>
       </c>
       <c r="J95" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K95" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="L95" t="s">
         <v>474</v>
@@ -7404,7 +7404,7 @@
         <v>472</v>
       </c>
       <c r="Q95" t="s">
-        <v>220</v>
+        <v>288</v>
       </c>
       <c r="R95" t="s">
         <v>473</v>
@@ -7436,13 +7436,13 @@
         <v>312</v>
       </c>
       <c r="H96" t="s">
-        <v>313</v>
+        <v>226</v>
       </c>
       <c r="I96" t="s">
         <v>409</v>
       </c>
       <c r="J96" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K96" t="s">
         <v>312</v>
@@ -7457,7 +7457,7 @@
         <v>476</v>
       </c>
       <c r="O96" t="s">
-        <v>313</v>
+        <v>226</v>
       </c>
       <c r="P96" t="s">
         <v>474</v>
@@ -7495,7 +7495,7 @@
         <v>292</v>
       </c>
       <c r="H97" t="s">
-        <v>215</v>
+        <v>247</v>
       </c>
       <c r="I97" t="s">
         <v>410</v>
@@ -7516,7 +7516,7 @@
         <v>472</v>
       </c>
       <c r="O97" t="s">
-        <v>215</v>
+        <v>247</v>
       </c>
       <c r="P97" t="s">
         <v>474</v>
@@ -7554,7 +7554,7 @@
         <v>284</v>
       </c>
       <c r="H98" t="s">
-        <v>295</v>
+        <v>246</v>
       </c>
       <c r="I98" t="s">
         <v>411</v>
@@ -7581,7 +7581,7 @@
         <v>473</v>
       </c>
       <c r="Q98" t="s">
-        <v>295</v>
+        <v>246</v>
       </c>
       <c r="R98" t="s">
         <v>474</v>
@@ -7669,7 +7669,7 @@
         <v>280</v>
       </c>
       <c r="G100" t="s">
-        <v>299</v>
+        <v>252</v>
       </c>
       <c r="H100" t="s">
         <v>278</v>
@@ -7693,7 +7693,7 @@
         <v>474</v>
       </c>
       <c r="O100" t="s">
-        <v>299</v>
+        <v>252</v>
       </c>
       <c r="P100" t="s">
         <v>473</v>
@@ -7731,7 +7731,7 @@
         <v>272</v>
       </c>
       <c r="H101" t="s">
-        <v>259</v>
+        <v>296</v>
       </c>
       <c r="I101" t="s">
         <v>413</v>
@@ -7752,7 +7752,7 @@
         <v>476</v>
       </c>
       <c r="O101" t="s">
-        <v>259</v>
+        <v>296</v>
       </c>
       <c r="P101" t="s">
         <v>474</v>
@@ -7790,13 +7790,13 @@
         <v>278</v>
       </c>
       <c r="H102" t="s">
-        <v>336</v>
+        <v>272</v>
       </c>
       <c r="I102" t="s">
         <v>414</v>
       </c>
       <c r="J102" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K102" t="s">
         <v>282</v>
@@ -7805,7 +7805,7 @@
         <v>476</v>
       </c>
       <c r="M102" t="s">
-        <v>336</v>
+        <v>272</v>
       </c>
       <c r="N102" t="s">
         <v>474</v>
@@ -7846,10 +7846,10 @@
         <v>283</v>
       </c>
       <c r="G103" t="s">
-        <v>246</v>
+        <v>308</v>
       </c>
       <c r="H103" t="s">
-        <v>229</v>
+        <v>287</v>
       </c>
       <c r="I103" t="s">
         <v>415</v>
@@ -7864,13 +7864,13 @@
         <v>475</v>
       </c>
       <c r="M103" t="s">
-        <v>229</v>
+        <v>287</v>
       </c>
       <c r="N103" t="s">
         <v>474</v>
       </c>
       <c r="O103" t="s">
-        <v>246</v>
+        <v>308</v>
       </c>
       <c r="P103" t="s">
         <v>473</v>
@@ -7967,13 +7967,13 @@
         <v>237</v>
       </c>
       <c r="H105" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="I105" t="s">
         <v>416</v>
       </c>
       <c r="J105" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K105" t="s">
         <v>416</v>
@@ -7982,7 +7982,7 @@
         <v>472</v>
       </c>
       <c r="M105" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="N105" t="s">
         <v>474</v>
@@ -8200,10 +8200,10 @@
         <v>286</v>
       </c>
       <c r="G109" t="s">
-        <v>244</v>
+        <v>309</v>
       </c>
       <c r="H109" t="s">
-        <v>285</v>
+        <v>216</v>
       </c>
       <c r="I109" t="s">
         <v>418</v>
@@ -8212,7 +8212,7 @@
         <v>343</v>
       </c>
       <c r="K109" t="s">
-        <v>285</v>
+        <v>216</v>
       </c>
       <c r="L109" t="s">
         <v>474</v>
@@ -8224,7 +8224,7 @@
         <v>472</v>
       </c>
       <c r="O109" t="s">
-        <v>244</v>
+        <v>309</v>
       </c>
       <c r="P109" t="s">
         <v>473</v>
@@ -8380,16 +8380,16 @@
         <v>285</v>
       </c>
       <c r="H112" t="s">
-        <v>212</v>
+        <v>328</v>
       </c>
       <c r="I112" t="s">
         <v>419</v>
       </c>
       <c r="J112" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K112" t="s">
-        <v>212</v>
+        <v>328</v>
       </c>
       <c r="L112" t="s">
         <v>474</v>
@@ -8495,16 +8495,16 @@
         <v>288</v>
       </c>
       <c r="G114" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H114" t="s">
-        <v>273</v>
+        <v>313</v>
       </c>
       <c r="I114" t="s">
         <v>420</v>
       </c>
       <c r="J114" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K114" t="s">
         <v>420</v>
@@ -8513,13 +8513,13 @@
         <v>472</v>
       </c>
       <c r="M114" t="s">
-        <v>273</v>
+        <v>313</v>
       </c>
       <c r="N114" t="s">
         <v>474</v>
       </c>
       <c r="O114" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="P114" t="s">
         <v>473</v>
@@ -8557,16 +8557,16 @@
         <v>271</v>
       </c>
       <c r="H115" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="I115" t="s">
         <v>421</v>
       </c>
       <c r="J115" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K115" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="L115" t="s">
         <v>474</v>
@@ -8616,7 +8616,7 @@
         <v>325</v>
       </c>
       <c r="H116" t="s">
-        <v>293</v>
+        <v>238</v>
       </c>
       <c r="I116" t="s">
         <v>422</v>
@@ -8625,7 +8625,7 @@
         <v>340</v>
       </c>
       <c r="K116" t="s">
-        <v>293</v>
+        <v>238</v>
       </c>
       <c r="L116" t="s">
         <v>474</v>
@@ -8672,16 +8672,16 @@
         <v>291</v>
       </c>
       <c r="G117" t="s">
-        <v>258</v>
+        <v>213</v>
       </c>
       <c r="H117" t="s">
-        <v>329</v>
+        <v>298</v>
       </c>
       <c r="I117" t="s">
         <v>423</v>
       </c>
       <c r="J117" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K117" t="s">
         <v>423</v>
@@ -8690,7 +8690,7 @@
         <v>472</v>
       </c>
       <c r="M117" t="s">
-        <v>329</v>
+        <v>298</v>
       </c>
       <c r="N117" t="s">
         <v>474</v>
@@ -8702,7 +8702,7 @@
         <v>475</v>
       </c>
       <c r="Q117" t="s">
-        <v>258</v>
+        <v>213</v>
       </c>
       <c r="R117" t="s">
         <v>473</v>
@@ -8734,13 +8734,13 @@
         <v>214</v>
       </c>
       <c r="H118" t="s">
-        <v>275</v>
+        <v>220</v>
       </c>
       <c r="I118" t="s">
         <v>424</v>
       </c>
       <c r="J118" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K118" t="s">
         <v>292</v>
@@ -8755,7 +8755,7 @@
         <v>473</v>
       </c>
       <c r="O118" t="s">
-        <v>275</v>
+        <v>220</v>
       </c>
       <c r="P118" t="s">
         <v>474</v>
@@ -9026,10 +9026,10 @@
         <v>293</v>
       </c>
       <c r="G123" t="s">
-        <v>331</v>
+        <v>247</v>
       </c>
       <c r="H123" t="s">
-        <v>284</v>
+        <v>339</v>
       </c>
       <c r="I123" t="s">
         <v>425</v>
@@ -9050,13 +9050,13 @@
         <v>475</v>
       </c>
       <c r="O123" t="s">
-        <v>331</v>
+        <v>247</v>
       </c>
       <c r="P123" t="s">
         <v>473</v>
       </c>
       <c r="Q123" t="s">
-        <v>284</v>
+        <v>339</v>
       </c>
       <c r="R123" t="s">
         <v>474</v>
@@ -9085,16 +9085,16 @@
         <v>294</v>
       </c>
       <c r="G124" t="s">
-        <v>224</v>
+        <v>291</v>
       </c>
       <c r="H124" t="s">
-        <v>327</v>
+        <v>266</v>
       </c>
       <c r="I124" t="s">
         <v>426</v>
       </c>
       <c r="J124" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K124" t="s">
         <v>294</v>
@@ -9109,13 +9109,13 @@
         <v>472</v>
       </c>
       <c r="O124" t="s">
-        <v>327</v>
+        <v>266</v>
       </c>
       <c r="P124" t="s">
         <v>474</v>
       </c>
       <c r="Q124" t="s">
-        <v>224</v>
+        <v>291</v>
       </c>
       <c r="R124" t="s">
         <v>473</v>
@@ -9262,19 +9262,19 @@
         <v>295</v>
       </c>
       <c r="G127" t="s">
-        <v>334</v>
+        <v>273</v>
       </c>
       <c r="H127" t="s">
-        <v>331</v>
+        <v>230</v>
       </c>
       <c r="I127" t="s">
         <v>427</v>
       </c>
       <c r="J127" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K127" t="s">
-        <v>334</v>
+        <v>273</v>
       </c>
       <c r="L127" t="s">
         <v>473</v>
@@ -9286,7 +9286,7 @@
         <v>475</v>
       </c>
       <c r="O127" t="s">
-        <v>331</v>
+        <v>230</v>
       </c>
       <c r="P127" t="s">
         <v>474</v>
@@ -9439,10 +9439,10 @@
         <v>296</v>
       </c>
       <c r="G130" t="s">
-        <v>219</v>
+        <v>260</v>
       </c>
       <c r="H130" t="s">
-        <v>291</v>
+        <v>233</v>
       </c>
       <c r="I130" t="s">
         <v>428</v>
@@ -9463,13 +9463,13 @@
         <v>472</v>
       </c>
       <c r="O130" t="s">
-        <v>291</v>
+        <v>233</v>
       </c>
       <c r="P130" t="s">
         <v>474</v>
       </c>
       <c r="Q130" t="s">
-        <v>219</v>
+        <v>260</v>
       </c>
       <c r="R130" t="s">
         <v>473</v>
@@ -9501,13 +9501,13 @@
         <v>256</v>
       </c>
       <c r="H131" t="s">
-        <v>319</v>
+        <v>280</v>
       </c>
       <c r="I131" t="s">
         <v>429</v>
       </c>
       <c r="J131" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K131" t="s">
         <v>429</v>
@@ -9516,7 +9516,7 @@
         <v>472</v>
       </c>
       <c r="M131" t="s">
-        <v>319</v>
+        <v>280</v>
       </c>
       <c r="N131" t="s">
         <v>474</v>
@@ -9619,13 +9619,13 @@
         <v>324</v>
       </c>
       <c r="H133" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="I133" t="s">
         <v>430</v>
       </c>
       <c r="J133" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K133" t="s">
         <v>324</v>
@@ -9640,7 +9640,7 @@
         <v>472</v>
       </c>
       <c r="O133" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="P133" t="s">
         <v>474</v>
@@ -9675,19 +9675,19 @@
         <v>299</v>
       </c>
       <c r="G134" t="s">
-        <v>212</v>
+        <v>332</v>
       </c>
       <c r="H134" t="s">
-        <v>324</v>
+        <v>263</v>
       </c>
       <c r="I134" t="s">
         <v>431</v>
       </c>
       <c r="J134" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K134" t="s">
-        <v>212</v>
+        <v>332</v>
       </c>
       <c r="L134" t="s">
         <v>473</v>
@@ -9699,7 +9699,7 @@
         <v>472</v>
       </c>
       <c r="O134" t="s">
-        <v>324</v>
+        <v>263</v>
       </c>
       <c r="P134" t="s">
         <v>474</v>
@@ -9737,13 +9737,13 @@
         <v>251</v>
       </c>
       <c r="H135" t="s">
-        <v>216</v>
+        <v>317</v>
       </c>
       <c r="I135" t="s">
         <v>432</v>
       </c>
       <c r="J135" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K135" t="s">
         <v>251</v>
@@ -9764,7 +9764,7 @@
         <v>472</v>
       </c>
       <c r="Q135" t="s">
-        <v>216</v>
+        <v>317</v>
       </c>
       <c r="R135" t="s">
         <v>474</v>
@@ -9852,10 +9852,10 @@
         <v>301</v>
       </c>
       <c r="G137" t="s">
-        <v>283</v>
+        <v>320</v>
       </c>
       <c r="H137" t="s">
-        <v>318</v>
+        <v>265</v>
       </c>
       <c r="I137" t="s">
         <v>433</v>
@@ -9864,7 +9864,7 @@
         <v>343</v>
       </c>
       <c r="K137" t="s">
-        <v>283</v>
+        <v>320</v>
       </c>
       <c r="L137" t="s">
         <v>473</v>
@@ -9882,7 +9882,7 @@
         <v>472</v>
       </c>
       <c r="Q137" t="s">
-        <v>318</v>
+        <v>265</v>
       </c>
       <c r="R137" t="s">
         <v>474</v>
@@ -9911,10 +9911,10 @@
         <v>302</v>
       </c>
       <c r="G138" t="s">
-        <v>309</v>
+        <v>215</v>
       </c>
       <c r="H138" t="s">
-        <v>268</v>
+        <v>301</v>
       </c>
       <c r="I138" t="s">
         <v>434</v>
@@ -9923,7 +9923,7 @@
         <v>341</v>
       </c>
       <c r="K138" t="s">
-        <v>309</v>
+        <v>215</v>
       </c>
       <c r="L138" t="s">
         <v>473</v>
@@ -9935,7 +9935,7 @@
         <v>475</v>
       </c>
       <c r="O138" t="s">
-        <v>268</v>
+        <v>301</v>
       </c>
       <c r="P138" t="s">
         <v>474</v>
@@ -10029,16 +10029,16 @@
         <v>303</v>
       </c>
       <c r="G140" t="s">
-        <v>273</v>
+        <v>317</v>
       </c>
       <c r="H140" t="s">
-        <v>225</v>
+        <v>267</v>
       </c>
       <c r="I140" t="s">
         <v>435</v>
       </c>
       <c r="J140" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K140" t="s">
         <v>303</v>
@@ -10047,7 +10047,7 @@
         <v>475</v>
       </c>
       <c r="M140" t="s">
-        <v>273</v>
+        <v>317</v>
       </c>
       <c r="N140" t="s">
         <v>473</v>
@@ -10059,7 +10059,7 @@
         <v>472</v>
       </c>
       <c r="Q140" t="s">
-        <v>225</v>
+        <v>267</v>
       </c>
       <c r="R140" t="s">
         <v>474</v>
@@ -10088,16 +10088,16 @@
         <v>304</v>
       </c>
       <c r="G141" t="s">
-        <v>314</v>
+        <v>255</v>
       </c>
       <c r="H141" t="s">
-        <v>261</v>
+        <v>218</v>
       </c>
       <c r="I141" t="s">
         <v>436</v>
       </c>
       <c r="J141" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K141" t="s">
         <v>304</v>
@@ -10106,7 +10106,7 @@
         <v>475</v>
       </c>
       <c r="M141" t="s">
-        <v>261</v>
+        <v>218</v>
       </c>
       <c r="N141" t="s">
         <v>474</v>
@@ -10118,7 +10118,7 @@
         <v>472</v>
       </c>
       <c r="Q141" t="s">
-        <v>314</v>
+        <v>255</v>
       </c>
       <c r="R141" t="s">
         <v>473</v>
@@ -10147,19 +10147,19 @@
         <v>305</v>
       </c>
       <c r="G142" t="s">
-        <v>303</v>
+        <v>264</v>
       </c>
       <c r="H142" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="I142" t="s">
         <v>437</v>
       </c>
       <c r="J142" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K142" t="s">
-        <v>303</v>
+        <v>264</v>
       </c>
       <c r="L142" t="s">
         <v>473</v>
@@ -10171,7 +10171,7 @@
         <v>475</v>
       </c>
       <c r="O142" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="P142" t="s">
         <v>474</v>
@@ -10206,25 +10206,25 @@
         <v>306</v>
       </c>
       <c r="G143" t="s">
-        <v>213</v>
+        <v>283</v>
       </c>
       <c r="H143" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="I143" t="s">
         <v>438</v>
       </c>
       <c r="J143" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K143" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="L143" t="s">
         <v>474</v>
       </c>
       <c r="M143" t="s">
-        <v>213</v>
+        <v>283</v>
       </c>
       <c r="N143" t="s">
         <v>473</v>
@@ -10268,7 +10268,7 @@
         <v>239</v>
       </c>
       <c r="H144" t="s">
-        <v>308</v>
+        <v>264</v>
       </c>
       <c r="I144" t="s">
         <v>439</v>
@@ -10277,7 +10277,7 @@
         <v>341</v>
       </c>
       <c r="K144" t="s">
-        <v>308</v>
+        <v>264</v>
       </c>
       <c r="L144" t="s">
         <v>474</v>
@@ -10383,10 +10383,10 @@
         <v>308</v>
       </c>
       <c r="G146" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="H146" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="I146" t="s">
         <v>440</v>
@@ -10395,13 +10395,13 @@
         <v>342</v>
       </c>
       <c r="K146" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="L146" t="s">
         <v>474</v>
       </c>
       <c r="M146" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="N146" t="s">
         <v>473</v>
@@ -10442,19 +10442,19 @@
         <v>309</v>
       </c>
       <c r="G147" t="s">
-        <v>288</v>
+        <v>219</v>
       </c>
       <c r="H147" t="s">
-        <v>337</v>
+        <v>284</v>
       </c>
       <c r="I147" t="s">
         <v>441</v>
       </c>
       <c r="J147" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K147" t="s">
-        <v>288</v>
+        <v>219</v>
       </c>
       <c r="L147" t="s">
         <v>473</v>
@@ -10466,7 +10466,7 @@
         <v>475</v>
       </c>
       <c r="O147" t="s">
-        <v>337</v>
+        <v>284</v>
       </c>
       <c r="P147" t="s">
         <v>474</v>
@@ -10560,16 +10560,16 @@
         <v>310</v>
       </c>
       <c r="G149" t="s">
-        <v>294</v>
+        <v>258</v>
       </c>
       <c r="H149" t="s">
-        <v>227</v>
+        <v>300</v>
       </c>
       <c r="I149" t="s">
         <v>442</v>
       </c>
       <c r="J149" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K149" t="s">
         <v>310</v>
@@ -10578,7 +10578,7 @@
         <v>475</v>
       </c>
       <c r="M149" t="s">
-        <v>294</v>
+        <v>258</v>
       </c>
       <c r="N149" t="s">
         <v>473</v>
@@ -10590,7 +10590,7 @@
         <v>472</v>
       </c>
       <c r="Q149" t="s">
-        <v>227</v>
+        <v>300</v>
       </c>
       <c r="R149" t="s">
         <v>474</v>
@@ -10622,16 +10622,16 @@
         <v>326</v>
       </c>
       <c r="H150" t="s">
-        <v>330</v>
+        <v>304</v>
       </c>
       <c r="I150" t="s">
         <v>443</v>
       </c>
       <c r="J150" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K150" t="s">
-        <v>330</v>
+        <v>304</v>
       </c>
       <c r="L150" t="s">
         <v>474</v>
@@ -10799,7 +10799,7 @@
         <v>225</v>
       </c>
       <c r="H153" t="s">
-        <v>213</v>
+        <v>253</v>
       </c>
       <c r="I153" t="s">
         <v>444</v>
@@ -10820,7 +10820,7 @@
         <v>472</v>
       </c>
       <c r="O153" t="s">
-        <v>213</v>
+        <v>253</v>
       </c>
       <c r="P153" t="s">
         <v>474</v>
@@ -10858,13 +10858,13 @@
         <v>321</v>
       </c>
       <c r="H154" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="I154" t="s">
         <v>445</v>
       </c>
       <c r="J154" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K154" t="s">
         <v>445</v>
@@ -10885,7 +10885,7 @@
         <v>475</v>
       </c>
       <c r="Q154" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="R154" t="s">
         <v>474</v>
@@ -10914,10 +10914,10 @@
         <v>314</v>
       </c>
       <c r="G155" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="H155" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="I155" t="s">
         <v>446</v>
@@ -10932,13 +10932,13 @@
         <v>472</v>
       </c>
       <c r="M155" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N155" t="s">
         <v>474</v>
       </c>
       <c r="O155" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="P155" t="s">
         <v>473</v>
@@ -11035,13 +11035,13 @@
         <v>227</v>
       </c>
       <c r="H157" t="s">
-        <v>296</v>
+        <v>228</v>
       </c>
       <c r="I157" t="s">
         <v>447</v>
       </c>
       <c r="J157" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K157" t="s">
         <v>227</v>
@@ -11062,7 +11062,7 @@
         <v>472</v>
       </c>
       <c r="Q157" t="s">
-        <v>296</v>
+        <v>228</v>
       </c>
       <c r="R157" t="s">
         <v>474</v>
@@ -11091,16 +11091,16 @@
         <v>316</v>
       </c>
       <c r="G158" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="H158" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="I158" t="s">
         <v>448</v>
       </c>
       <c r="J158" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K158" t="s">
         <v>448</v>
@@ -11109,13 +11109,13 @@
         <v>472</v>
       </c>
       <c r="M158" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="N158" t="s">
         <v>473</v>
       </c>
       <c r="O158" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="P158" t="s">
         <v>474</v>
@@ -11268,16 +11268,16 @@
         <v>317</v>
       </c>
       <c r="G161" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="H161" t="s">
-        <v>249</v>
+        <v>319</v>
       </c>
       <c r="I161" t="s">
         <v>449</v>
       </c>
       <c r="J161" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K161" t="s">
         <v>317</v>
@@ -11286,13 +11286,13 @@
         <v>475</v>
       </c>
       <c r="M161" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="N161" t="s">
         <v>473</v>
       </c>
       <c r="O161" t="s">
-        <v>249</v>
+        <v>319</v>
       </c>
       <c r="P161" t="s">
         <v>474</v>
@@ -11330,7 +11330,7 @@
         <v>289</v>
       </c>
       <c r="H162" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="I162" t="s">
         <v>450</v>
@@ -11351,7 +11351,7 @@
         <v>473</v>
       </c>
       <c r="O162" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="P162" t="s">
         <v>474</v>
@@ -11389,16 +11389,16 @@
         <v>234</v>
       </c>
       <c r="H163" t="s">
-        <v>228</v>
+        <v>309</v>
       </c>
       <c r="I163" t="s">
         <v>451</v>
       </c>
       <c r="J163" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K163" t="s">
-        <v>228</v>
+        <v>309</v>
       </c>
       <c r="L163" t="s">
         <v>474</v>
@@ -11445,10 +11445,10 @@
         <v>320</v>
       </c>
       <c r="G164" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H164" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I164" t="s">
         <v>452</v>
@@ -11457,7 +11457,7 @@
         <v>343</v>
       </c>
       <c r="K164" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L164" t="s">
         <v>474</v>
@@ -11475,7 +11475,7 @@
         <v>475</v>
       </c>
       <c r="Q164" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="R164" t="s">
         <v>473</v>
@@ -11507,13 +11507,13 @@
         <v>250</v>
       </c>
       <c r="H165" t="s">
-        <v>262</v>
+        <v>222</v>
       </c>
       <c r="I165" t="s">
         <v>453</v>
       </c>
       <c r="J165" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K165" t="s">
         <v>250</v>
@@ -11534,7 +11534,7 @@
         <v>472</v>
       </c>
       <c r="Q165" t="s">
-        <v>262</v>
+        <v>222</v>
       </c>
       <c r="R165" t="s">
         <v>474</v>
@@ -11684,7 +11684,7 @@
         <v>281</v>
       </c>
       <c r="H168" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="I168" t="s">
         <v>454</v>
@@ -11699,7 +11699,7 @@
         <v>473</v>
       </c>
       <c r="M168" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="N168" t="s">
         <v>474</v>
@@ -11802,13 +11802,13 @@
         <v>274</v>
       </c>
       <c r="H170" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="I170" t="s">
         <v>455</v>
       </c>
       <c r="J170" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K170" t="s">
         <v>274</v>
@@ -11823,7 +11823,7 @@
         <v>472</v>
       </c>
       <c r="O170" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="P170" t="s">
         <v>474</v>
@@ -11861,13 +11861,13 @@
         <v>230</v>
       </c>
       <c r="H171" t="s">
-        <v>240</v>
+        <v>316</v>
       </c>
       <c r="I171" t="s">
         <v>456</v>
       </c>
       <c r="J171" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K171" t="s">
         <v>456</v>
@@ -11882,7 +11882,7 @@
         <v>475</v>
       </c>
       <c r="O171" t="s">
-        <v>240</v>
+        <v>316</v>
       </c>
       <c r="P171" t="s">
         <v>474</v>
@@ -11920,13 +11920,13 @@
         <v>315</v>
       </c>
       <c r="H172" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="I172" t="s">
         <v>457</v>
       </c>
       <c r="J172" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K172" t="s">
         <v>315</v>
@@ -11941,7 +11941,7 @@
         <v>475</v>
       </c>
       <c r="O172" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="P172" t="s">
         <v>474</v>
@@ -11979,13 +11979,13 @@
         <v>277</v>
       </c>
       <c r="H173" t="s">
-        <v>299</v>
+        <v>236</v>
       </c>
       <c r="I173" t="s">
         <v>458</v>
       </c>
       <c r="J173" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K173" t="s">
         <v>458</v>
@@ -12000,7 +12000,7 @@
         <v>475</v>
       </c>
       <c r="O173" t="s">
-        <v>299</v>
+        <v>236</v>
       </c>
       <c r="P173" t="s">
         <v>474</v>
@@ -12038,13 +12038,13 @@
         <v>223</v>
       </c>
       <c r="H174" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="I174" t="s">
         <v>459</v>
       </c>
       <c r="J174" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K174" t="s">
         <v>223</v>
@@ -12053,7 +12053,7 @@
         <v>473</v>
       </c>
       <c r="M174" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="N174" t="s">
         <v>474</v>
@@ -12215,13 +12215,13 @@
         <v>282</v>
       </c>
       <c r="H177" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="I177" t="s">
         <v>460</v>
       </c>
       <c r="J177" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K177" t="s">
         <v>328</v>
@@ -12230,7 +12230,7 @@
         <v>476</v>
       </c>
       <c r="M177" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="N177" t="s">
         <v>474</v>
@@ -12448,16 +12448,16 @@
         <v>330</v>
       </c>
       <c r="G181" t="s">
-        <v>264</v>
+        <v>301</v>
       </c>
       <c r="H181" t="s">
-        <v>217</v>
+        <v>325</v>
       </c>
       <c r="I181" t="s">
         <v>462</v>
       </c>
       <c r="J181" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K181" t="s">
         <v>462</v>
@@ -12466,7 +12466,7 @@
         <v>472</v>
       </c>
       <c r="M181" t="s">
-        <v>264</v>
+        <v>301</v>
       </c>
       <c r="N181" t="s">
         <v>473</v>
@@ -12478,7 +12478,7 @@
         <v>475</v>
       </c>
       <c r="Q181" t="s">
-        <v>217</v>
+        <v>325</v>
       </c>
       <c r="R181" t="s">
         <v>474</v>
@@ -12507,16 +12507,16 @@
         <v>331</v>
       </c>
       <c r="G182" t="s">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="H182" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="I182" t="s">
         <v>463</v>
       </c>
       <c r="J182" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K182" t="s">
         <v>463</v>
@@ -12525,7 +12525,7 @@
         <v>472</v>
       </c>
       <c r="M182" t="s">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="N182" t="s">
         <v>473</v>
@@ -12537,7 +12537,7 @@
         <v>475</v>
       </c>
       <c r="Q182" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="R182" t="s">
         <v>474</v>
@@ -12566,19 +12566,19 @@
         <v>332</v>
       </c>
       <c r="G183" t="s">
-        <v>217</v>
+        <v>267</v>
       </c>
       <c r="H183" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="I183" t="s">
         <v>464</v>
       </c>
       <c r="J183" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K183" t="s">
-        <v>217</v>
+        <v>267</v>
       </c>
       <c r="L183" t="s">
         <v>473</v>
@@ -12590,7 +12590,7 @@
         <v>472</v>
       </c>
       <c r="O183" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="P183" t="s">
         <v>474</v>
@@ -12743,19 +12743,19 @@
         <v>333</v>
       </c>
       <c r="G186" t="s">
-        <v>316</v>
+        <v>217</v>
       </c>
       <c r="H186" t="s">
-        <v>226</v>
+        <v>282</v>
       </c>
       <c r="I186" t="s">
         <v>465</v>
       </c>
       <c r="J186" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K186" t="s">
-        <v>316</v>
+        <v>217</v>
       </c>
       <c r="L186" t="s">
         <v>473</v>
@@ -12767,7 +12767,7 @@
         <v>475</v>
       </c>
       <c r="O186" t="s">
-        <v>226</v>
+        <v>282</v>
       </c>
       <c r="P186" t="s">
         <v>474</v>
@@ -12802,25 +12802,25 @@
         <v>334</v>
       </c>
       <c r="G187" t="s">
-        <v>233</v>
+        <v>330</v>
       </c>
       <c r="H187" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="I187" t="s">
         <v>466</v>
       </c>
       <c r="J187" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K187" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="L187" t="s">
         <v>474</v>
       </c>
       <c r="M187" t="s">
-        <v>233</v>
+        <v>330</v>
       </c>
       <c r="N187" t="s">
         <v>473</v>
@@ -12864,13 +12864,13 @@
         <v>300</v>
       </c>
       <c r="H188" t="s">
-        <v>222</v>
+        <v>261</v>
       </c>
       <c r="I188" t="s">
         <v>467</v>
       </c>
       <c r="J188" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K188" t="s">
         <v>300</v>
@@ -12885,7 +12885,7 @@
         <v>472</v>
       </c>
       <c r="O188" t="s">
-        <v>222</v>
+        <v>261</v>
       </c>
       <c r="P188" t="s">
         <v>474</v>
@@ -12920,10 +12920,10 @@
         <v>336</v>
       </c>
       <c r="G189" t="s">
-        <v>333</v>
+        <v>244</v>
       </c>
       <c r="H189" t="s">
-        <v>339</v>
+        <v>262</v>
       </c>
       <c r="I189" t="s">
         <v>468</v>
@@ -12932,7 +12932,7 @@
         <v>342</v>
       </c>
       <c r="K189" t="s">
-        <v>333</v>
+        <v>244</v>
       </c>
       <c r="L189" t="s">
         <v>473</v>
@@ -12944,7 +12944,7 @@
         <v>475</v>
       </c>
       <c r="O189" t="s">
-        <v>339</v>
+        <v>262</v>
       </c>
       <c r="P189" t="s">
         <v>474</v>
@@ -13038,10 +13038,10 @@
         <v>337</v>
       </c>
       <c r="G191" t="s">
-        <v>301</v>
+        <v>257</v>
       </c>
       <c r="H191" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="I191" t="s">
         <v>469</v>
@@ -13056,7 +13056,7 @@
         <v>472</v>
       </c>
       <c r="M191" t="s">
-        <v>301</v>
+        <v>257</v>
       </c>
       <c r="N191" t="s">
         <v>473</v>
@@ -13068,7 +13068,7 @@
         <v>475</v>
       </c>
       <c r="Q191" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="R191" t="s">
         <v>474</v>
@@ -13100,7 +13100,7 @@
         <v>335</v>
       </c>
       <c r="H192" t="s">
-        <v>235</v>
+        <v>283</v>
       </c>
       <c r="I192" t="s">
         <v>470</v>
@@ -13127,7 +13127,7 @@
         <v>472</v>
       </c>
       <c r="Q192" t="s">
-        <v>235</v>
+        <v>283</v>
       </c>
       <c r="R192" t="s">
         <v>474</v>
@@ -13159,13 +13159,13 @@
         <v>248</v>
       </c>
       <c r="H193" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="I193" t="s">
         <v>471</v>
       </c>
       <c r="J193" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K193" t="s">
         <v>471</v>
@@ -13180,7 +13180,7 @@
         <v>473</v>
       </c>
       <c r="O193" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="P193" t="s">
         <v>474</v>

--- a/sequences/01_retrieval_2.xlsx
+++ b/sequences/01_retrieval_2.xlsx
@@ -1048,390 +1048,390 @@
     <t>flower</t>
   </si>
   <si>
+    <t>face/face197.jpg</t>
+  </si>
+  <si>
+    <t>house/house187.jpg</t>
+  </si>
+  <si>
+    <t>house/house218.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower173.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower215.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower175.jpg</t>
+  </si>
+  <si>
+    <t>face/face251.jpg</t>
+  </si>
+  <si>
+    <t>face/face234.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog118.jpg</t>
+  </si>
+  <si>
+    <t>face/face141.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower151.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower157.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog227.jpg</t>
+  </si>
+  <si>
+    <t>face/face184.jpg</t>
+  </si>
+  <si>
+    <t>face/face252.jpg</t>
+  </si>
+  <si>
+    <t>face/face118.jpg</t>
+  </si>
+  <si>
+    <t>face/face171.jpg</t>
+  </si>
+  <si>
+    <t>house/house184.jpg</t>
+  </si>
+  <si>
+    <t>house/house106.jpg</t>
+  </si>
+  <si>
+    <t>face/face240.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog251.jpg</t>
+  </si>
+  <si>
+    <t>house/house118.jpg</t>
+  </si>
+  <si>
+    <t>house/house117.jpg</t>
+  </si>
+  <si>
+    <t>house/house147.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower246.jpg</t>
+  </si>
+  <si>
+    <t>face/face199.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog123.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower123.jpg</t>
+  </si>
+  <si>
+    <t>house/house182.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower105.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog129.jpg</t>
+  </si>
+  <si>
+    <t>face/face135.jpg</t>
+  </si>
+  <si>
+    <t>face/face132.jpg</t>
+  </si>
+  <si>
+    <t>house/house225.jpg</t>
+  </si>
+  <si>
+    <t>face/face256.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower145.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower229.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog134.jpg</t>
+  </si>
+  <si>
+    <t>house/house242.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog117.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower213.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog108.jpg</t>
+  </si>
+  <si>
+    <t>house/house113.jpg</t>
+  </si>
+  <si>
+    <t>face/face254.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower116.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower138.jpg</t>
+  </si>
+  <si>
+    <t>house/house139.jpg</t>
+  </si>
+  <si>
+    <t>house/house103.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower257.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog236.jpg</t>
+  </si>
+  <si>
+    <t>face/face176.jpg</t>
+  </si>
+  <si>
+    <t>house/house144.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog266.jpg</t>
+  </si>
+  <si>
+    <t>face/face152.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower119.jpg</t>
+  </si>
+  <si>
+    <t>face/face236.jpg</t>
+  </si>
+  <si>
+    <t>face/face179.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower181.jpg</t>
+  </si>
+  <si>
+    <t>face/face107.jpg</t>
+  </si>
+  <si>
+    <t>face/face165.jpg</t>
+  </si>
+  <si>
+    <t>house/house165.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower136.jpg</t>
+  </si>
+  <si>
+    <t>house/house191.jpg</t>
+  </si>
+  <si>
+    <t>face/face161.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog148.jpg</t>
+  </si>
+  <si>
+    <t>house/house166.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower188.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog194.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower205.jpg</t>
+  </si>
+  <si>
+    <t>face/face257.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog173.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog248.jpg</t>
+  </si>
+  <si>
+    <t>house/house098.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog204.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower225.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog246.jpg</t>
+  </si>
+  <si>
+    <t>face/face159.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog167.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog235.jpg</t>
+  </si>
+  <si>
+    <t>house/house246.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower115.jpg</t>
+  </si>
+  <si>
+    <t>house/house134.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog250.jpg</t>
+  </si>
+  <si>
+    <t>face/face239.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower222.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog201.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog162.jpg</t>
+  </si>
+  <si>
+    <t>house/house159.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog116.jpg</t>
+  </si>
+  <si>
+    <t>house/house196.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower189.jpg</t>
+  </si>
+  <si>
+    <t>house/house185.jpg</t>
+  </si>
+  <si>
+    <t>face/face150.jpg</t>
+  </si>
+  <si>
+    <t>face/face221.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower104.jpg</t>
+  </si>
+  <si>
+    <t>house/house204.jpg</t>
+  </si>
+  <si>
+    <t>house/house096.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower121.jpg</t>
+  </si>
+  <si>
+    <t>face/face133.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog140.jpg</t>
+  </si>
+  <si>
+    <t>face/face097.jpg</t>
+  </si>
+  <si>
+    <t>house/house260.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower160.jpg</t>
+  </si>
+  <si>
+    <t>house/house136.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog230.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog193.jpg</t>
+  </si>
+  <si>
     <t>flower/flower262.jpg</t>
   </si>
   <si>
-    <t>flower/flower246.jpg</t>
+    <t>face/face222.jpg</t>
+  </si>
+  <si>
+    <t>house/house206.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog105.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog170.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog216.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower100.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog133.jpg</t>
+  </si>
+  <si>
+    <t>house/house197.jpg</t>
+  </si>
+  <si>
+    <t>house/house162.jpg</t>
+  </si>
+  <si>
+    <t>face/face173.jpg</t>
   </si>
   <si>
     <t>flower/flower198.jpg</t>
   </si>
   <si>
-    <t>house/house147.jpg</t>
-  </si>
-  <si>
-    <t>house/house182.jpg</t>
-  </si>
-  <si>
-    <t>face/face254.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog108.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower257.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog123.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower123.jpg</t>
-  </si>
-  <si>
-    <t>house/house117.jpg</t>
-  </si>
-  <si>
-    <t>face/face132.jpg</t>
-  </si>
-  <si>
-    <t>face/face173.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog193.jpg</t>
-  </si>
-  <si>
-    <t>face/face234.jpg</t>
-  </si>
-  <si>
-    <t>house/house106.jpg</t>
+    <t>dog/dog146.jpg</t>
   </si>
   <si>
     <t>dog/dog205.jpg</t>
   </si>
   <si>
-    <t>flower/flower215.jpg</t>
-  </si>
-  <si>
-    <t>face/face097.jpg</t>
-  </si>
-  <si>
-    <t>house/house225.jpg</t>
-  </si>
-  <si>
-    <t>face/face239.jpg</t>
-  </si>
-  <si>
-    <t>face/face159.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog146.jpg</t>
-  </si>
-  <si>
-    <t>house/house242.jpg</t>
-  </si>
-  <si>
-    <t>house/house144.jpg</t>
-  </si>
-  <si>
-    <t>house/house204.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog162.jpg</t>
-  </si>
-  <si>
-    <t>face/face141.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog246.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower229.jpg</t>
-  </si>
-  <si>
-    <t>face/face152.jpg</t>
-  </si>
-  <si>
-    <t>face/face176.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower151.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower160.jpg</t>
-  </si>
-  <si>
-    <t>face/face257.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog105.jpg</t>
+    <t>dog/dog171.jpg</t>
+  </si>
+  <si>
+    <t>house/house145.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower242.jpg</t>
   </si>
   <si>
     <t>flower/flower249.jpg</t>
   </si>
   <si>
-    <t>house/house185.jpg</t>
-  </si>
-  <si>
-    <t>face/face184.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower105.jpg</t>
-  </si>
-  <si>
-    <t>house/house184.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog266.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower188.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower136.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog134.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog236.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower242.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower157.jpg</t>
-  </si>
-  <si>
-    <t>house/house113.jpg</t>
-  </si>
-  <si>
-    <t>house/house246.jpg</t>
+    <t>house/house247.jpg</t>
   </si>
   <si>
     <t>face/face111.jpg</t>
   </si>
   <si>
-    <t>dog/dog227.jpg</t>
-  </si>
-  <si>
-    <t>house/house096.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower175.jpg</t>
-  </si>
-  <si>
-    <t>house/house260.jpg</t>
-  </si>
-  <si>
-    <t>face/face161.jpg</t>
-  </si>
-  <si>
-    <t>face/face252.jpg</t>
-  </si>
-  <si>
-    <t>face/face221.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog250.jpg</t>
-  </si>
-  <si>
-    <t>house/house118.jpg</t>
-  </si>
-  <si>
-    <t>house/house159.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog251.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower119.jpg</t>
-  </si>
-  <si>
-    <t>house/house134.jpg</t>
-  </si>
-  <si>
     <t>flower/flower144.jpg</t>
   </si>
   <si>
-    <t>flower/flower115.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog194.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog173.jpg</t>
-  </si>
-  <si>
-    <t>house/house197.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower138.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog248.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog140.jpg</t>
-  </si>
-  <si>
-    <t>house/house196.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower173.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower189.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower121.jpg</t>
-  </si>
-  <si>
-    <t>face/face107.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog235.jpg</t>
-  </si>
-  <si>
-    <t>house/house103.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog201.jpg</t>
-  </si>
-  <si>
-    <t>face/face165.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower213.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower104.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog118.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower222.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog230.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog116.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog129.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower225.jpg</t>
-  </si>
-  <si>
-    <t>house/house191.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower181.jpg</t>
-  </si>
-  <si>
-    <t>face/face133.jpg</t>
-  </si>
-  <si>
-    <t>face/face199.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog167.jpg</t>
-  </si>
-  <si>
     <t>face/face116.jpg</t>
   </si>
   <si>
-    <t>face/face150.jpg</t>
-  </si>
-  <si>
-    <t>face/face118.jpg</t>
-  </si>
-  <si>
-    <t>house/house218.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower116.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower205.jpg</t>
-  </si>
-  <si>
-    <t>face/face236.jpg</t>
-  </si>
-  <si>
-    <t>face/face135.jpg</t>
-  </si>
-  <si>
-    <t>house/house165.jpg</t>
-  </si>
-  <si>
-    <t>house/house136.jpg</t>
-  </si>
-  <si>
-    <t>face/face179.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog133.jpg</t>
-  </si>
-  <si>
-    <t>face/face251.jpg</t>
-  </si>
-  <si>
-    <t>house/house166.jpg</t>
-  </si>
-  <si>
-    <t>house/house206.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower145.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog170.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog216.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog148.jpg</t>
-  </si>
-  <si>
-    <t>face/face222.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog117.jpg</t>
-  </si>
-  <si>
-    <t>house/house162.jpg</t>
-  </si>
-  <si>
-    <t>house/house187.jpg</t>
-  </si>
-  <si>
-    <t>house/house139.jpg</t>
-  </si>
-  <si>
-    <t>house/house098.jpg</t>
-  </si>
-  <si>
-    <t>face/face240.jpg</t>
-  </si>
-  <si>
-    <t>face/face197.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog171.jpg</t>
-  </si>
-  <si>
-    <t>face/face171.jpg</t>
-  </si>
-  <si>
-    <t>house/house247.jpg</t>
-  </si>
-  <si>
-    <t>face/face256.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower100.jpg</t>
-  </si>
-  <si>
-    <t>house/house145.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog204.jpg</t>
-  </si>
-  <si>
     <t>same/old/uncued</t>
   </si>
   <si>
@@ -1441,10 +1441,10 @@
     <t>other/old/uncued</t>
   </si>
   <si>
+    <t>correct/old/uncued</t>
+  </si>
+  <si>
     <t>correct/old/cued</t>
-  </si>
-  <si>
-    <t>correct/old/uncued</t>
   </si>
 </sst>
 </file>
@@ -1881,25 +1881,25 @@
         <v>0</v>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
         <v>211</v>
       </c>
       <c r="G2" t="s">
-        <v>332</v>
+        <v>221</v>
       </c>
       <c r="H2" t="s">
-        <v>240</v>
+        <v>299</v>
       </c>
       <c r="I2" t="s">
         <v>344</v>
       </c>
       <c r="J2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K2" t="s">
-        <v>332</v>
+        <v>221</v>
       </c>
       <c r="L2" t="s">
         <v>472</v>
@@ -1917,7 +1917,7 @@
         <v>475</v>
       </c>
       <c r="Q2" t="s">
-        <v>240</v>
+        <v>299</v>
       </c>
       <c r="R2" t="s">
         <v>474</v>
@@ -1999,22 +1999,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
         <v>213</v>
       </c>
       <c r="G4" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="H4" t="s">
-        <v>316</v>
+        <v>217</v>
       </c>
       <c r="I4" t="s">
         <v>345</v>
       </c>
       <c r="J4" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K4" t="s">
         <v>345</v>
@@ -2023,7 +2023,7 @@
         <v>473</v>
       </c>
       <c r="M4" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="N4" t="s">
         <v>472</v>
@@ -2035,7 +2035,7 @@
         <v>475</v>
       </c>
       <c r="Q4" t="s">
-        <v>316</v>
+        <v>217</v>
       </c>
       <c r="R4" t="s">
         <v>474</v>
@@ -2067,16 +2067,16 @@
         <v>293</v>
       </c>
       <c r="H5" t="s">
-        <v>227</v>
+        <v>322</v>
       </c>
       <c r="I5" t="s">
         <v>346</v>
       </c>
       <c r="J5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K5" t="s">
-        <v>227</v>
+        <v>322</v>
       </c>
       <c r="L5" t="s">
         <v>474</v>
@@ -2091,7 +2091,7 @@
         <v>214</v>
       </c>
       <c r="P5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Q5" t="s">
         <v>293</v>
@@ -2126,13 +2126,13 @@
         <v>245</v>
       </c>
       <c r="H6" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="I6" t="s">
         <v>347</v>
       </c>
       <c r="J6" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K6" t="s">
         <v>245</v>
@@ -2144,7 +2144,7 @@
         <v>215</v>
       </c>
       <c r="N6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="O6" t="s">
         <v>347</v>
@@ -2153,7 +2153,7 @@
         <v>473</v>
       </c>
       <c r="Q6" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="R6" t="s">
         <v>474</v>
@@ -2244,16 +2244,16 @@
         <v>266</v>
       </c>
       <c r="H8" t="s">
-        <v>297</v>
+        <v>228</v>
       </c>
       <c r="I8" t="s">
         <v>348</v>
       </c>
       <c r="J8" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K8" t="s">
-        <v>297</v>
+        <v>228</v>
       </c>
       <c r="L8" t="s">
         <v>474</v>
@@ -2268,7 +2268,7 @@
         <v>216</v>
       </c>
       <c r="P8" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Q8" t="s">
         <v>348</v>
@@ -2294,22 +2294,22 @@
         <v>0</v>
       </c>
       <c r="E9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="s">
         <v>217</v>
       </c>
       <c r="G9" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="H9" t="s">
-        <v>323</v>
+        <v>243</v>
       </c>
       <c r="I9" t="s">
         <v>349</v>
       </c>
       <c r="J9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K9" t="s">
         <v>349</v>
@@ -2318,7 +2318,7 @@
         <v>473</v>
       </c>
       <c r="M9" t="s">
-        <v>323</v>
+        <v>243</v>
       </c>
       <c r="N9" t="s">
         <v>474</v>
@@ -2330,7 +2330,7 @@
         <v>476</v>
       </c>
       <c r="Q9" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="R9" t="s">
         <v>472</v>
@@ -2362,13 +2362,13 @@
         <v>253</v>
       </c>
       <c r="H10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I10" t="s">
         <v>350</v>
       </c>
       <c r="J10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K10" t="s">
         <v>253</v>
@@ -2383,7 +2383,7 @@
         <v>473</v>
       </c>
       <c r="O10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="P10" t="s">
         <v>474</v>
@@ -2392,7 +2392,7 @@
         <v>218</v>
       </c>
       <c r="R10" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="S10">
         <v>1.14770895234534</v>
@@ -2421,13 +2421,13 @@
         <v>265</v>
       </c>
       <c r="H11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I11" t="s">
         <v>351</v>
       </c>
       <c r="J11" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K11" t="s">
         <v>265</v>
@@ -2436,7 +2436,7 @@
         <v>472</v>
       </c>
       <c r="M11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="N11" t="s">
         <v>474</v>
@@ -2451,7 +2451,7 @@
         <v>219</v>
       </c>
       <c r="R11" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="S11">
         <v>1.016202642199892</v>
@@ -2471,16 +2471,16 @@
         <v>0</v>
       </c>
       <c r="E12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="s">
         <v>220</v>
       </c>
       <c r="G12" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="H12" t="s">
-        <v>293</v>
+        <v>313</v>
       </c>
       <c r="I12" t="s">
         <v>352</v>
@@ -2495,13 +2495,13 @@
         <v>475</v>
       </c>
       <c r="M12" t="s">
-        <v>293</v>
+        <v>313</v>
       </c>
       <c r="N12" t="s">
         <v>474</v>
       </c>
       <c r="O12" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="P12" t="s">
         <v>472</v>
@@ -2595,25 +2595,25 @@
         <v>221</v>
       </c>
       <c r="G14" t="s">
-        <v>285</v>
+        <v>305</v>
       </c>
       <c r="H14" t="s">
-        <v>243</v>
+        <v>298</v>
       </c>
       <c r="I14" t="s">
         <v>353</v>
       </c>
       <c r="J14" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K14" t="s">
-        <v>285</v>
+        <v>305</v>
       </c>
       <c r="L14" t="s">
         <v>472</v>
       </c>
       <c r="M14" t="s">
-        <v>243</v>
+        <v>298</v>
       </c>
       <c r="N14" t="s">
         <v>474</v>
@@ -2622,7 +2622,7 @@
         <v>221</v>
       </c>
       <c r="P14" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Q14" t="s">
         <v>353</v>
@@ -2648,22 +2648,22 @@
         <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="s">
         <v>222</v>
       </c>
       <c r="G15" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="H15" t="s">
-        <v>295</v>
+        <v>315</v>
       </c>
       <c r="I15" t="s">
         <v>354</v>
       </c>
       <c r="J15" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K15" t="s">
         <v>222</v>
@@ -2672,7 +2672,7 @@
         <v>476</v>
       </c>
       <c r="M15" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="N15" t="s">
         <v>472</v>
@@ -2684,7 +2684,7 @@
         <v>473</v>
       </c>
       <c r="Q15" t="s">
-        <v>295</v>
+        <v>315</v>
       </c>
       <c r="R15" t="s">
         <v>474</v>
@@ -2716,16 +2716,16 @@
         <v>260</v>
       </c>
       <c r="H16" t="s">
-        <v>272</v>
+        <v>320</v>
       </c>
       <c r="I16" t="s">
         <v>355</v>
       </c>
       <c r="J16" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K16" t="s">
-        <v>272</v>
+        <v>320</v>
       </c>
       <c r="L16" t="s">
         <v>474</v>
@@ -2734,7 +2734,7 @@
         <v>223</v>
       </c>
       <c r="N16" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="O16" t="s">
         <v>260</v>
@@ -2949,16 +2949,16 @@
         <v>224</v>
       </c>
       <c r="G20" t="s">
-        <v>325</v>
+        <v>295</v>
       </c>
       <c r="H20" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="I20" t="s">
         <v>356</v>
       </c>
       <c r="J20" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K20" t="s">
         <v>356</v>
@@ -2970,16 +2970,16 @@
         <v>224</v>
       </c>
       <c r="N20" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="O20" t="s">
-        <v>325</v>
+        <v>295</v>
       </c>
       <c r="P20" t="s">
         <v>472</v>
       </c>
       <c r="Q20" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R20" t="s">
         <v>474</v>
@@ -3061,25 +3061,25 @@
         <v>0</v>
       </c>
       <c r="E22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="s">
         <v>225</v>
       </c>
       <c r="G22" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="H22" t="s">
-        <v>337</v>
+        <v>311</v>
       </c>
       <c r="I22" t="s">
         <v>357</v>
       </c>
       <c r="J22" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K22" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="L22" t="s">
         <v>472</v>
@@ -3091,7 +3091,7 @@
         <v>473</v>
       </c>
       <c r="O22" t="s">
-        <v>337</v>
+        <v>311</v>
       </c>
       <c r="P22" t="s">
         <v>474</v>
@@ -3129,7 +3129,7 @@
         <v>335</v>
       </c>
       <c r="H23" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="I23" t="s">
         <v>358</v>
@@ -3144,7 +3144,7 @@
         <v>472</v>
       </c>
       <c r="M23" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="N23" t="s">
         <v>474</v>
@@ -3153,7 +3153,7 @@
         <v>226</v>
       </c>
       <c r="P23" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Q23" t="s">
         <v>358</v>
@@ -3188,13 +3188,13 @@
         <v>315</v>
       </c>
       <c r="H24" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="I24" t="s">
         <v>359</v>
       </c>
       <c r="J24" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K24" t="s">
         <v>359</v>
@@ -3203,7 +3203,7 @@
         <v>473</v>
       </c>
       <c r="M24" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="N24" t="s">
         <v>474</v>
@@ -3212,7 +3212,7 @@
         <v>227</v>
       </c>
       <c r="P24" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Q24" t="s">
         <v>315</v>
@@ -3247,13 +3247,13 @@
         <v>235</v>
       </c>
       <c r="H25" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="I25" t="s">
         <v>360</v>
       </c>
       <c r="J25" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K25" t="s">
         <v>235</v>
@@ -3265,10 +3265,10 @@
         <v>228</v>
       </c>
       <c r="N25" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="O25" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="P25" t="s">
         <v>474</v>
@@ -3356,22 +3356,22 @@
         <v>0</v>
       </c>
       <c r="E27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" t="s">
         <v>229</v>
       </c>
       <c r="G27" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="H27" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="I27" t="s">
         <v>361</v>
       </c>
       <c r="J27" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K27" t="s">
         <v>361</v>
@@ -3386,13 +3386,13 @@
         <v>475</v>
       </c>
       <c r="O27" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="P27" t="s">
         <v>472</v>
       </c>
       <c r="Q27" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="R27" t="s">
         <v>474</v>
@@ -3424,16 +3424,16 @@
         <v>280</v>
       </c>
       <c r="H28" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="I28" t="s">
         <v>362</v>
       </c>
       <c r="J28" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K28" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="L28" t="s">
         <v>474</v>
@@ -3454,7 +3454,7 @@
         <v>230</v>
       </c>
       <c r="R28" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="S28">
         <v>1.174281477039552</v>
@@ -3483,16 +3483,16 @@
         <v>284</v>
       </c>
       <c r="H29" t="s">
-        <v>256</v>
+        <v>330</v>
       </c>
       <c r="I29" t="s">
         <v>363</v>
       </c>
       <c r="J29" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K29" t="s">
-        <v>256</v>
+        <v>330</v>
       </c>
       <c r="L29" t="s">
         <v>474</v>
@@ -3507,7 +3507,7 @@
         <v>231</v>
       </c>
       <c r="P29" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Q29" t="s">
         <v>284</v>
@@ -3660,13 +3660,13 @@
         <v>317</v>
       </c>
       <c r="H32" t="s">
-        <v>222</v>
+        <v>266</v>
       </c>
       <c r="I32" t="s">
         <v>364</v>
       </c>
       <c r="J32" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K32" t="s">
         <v>317</v>
@@ -3684,10 +3684,10 @@
         <v>232</v>
       </c>
       <c r="P32" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Q32" t="s">
-        <v>222</v>
+        <v>266</v>
       </c>
       <c r="R32" t="s">
         <v>474</v>
@@ -3837,16 +3837,16 @@
         <v>255</v>
       </c>
       <c r="H35" t="s">
-        <v>234</v>
+        <v>325</v>
       </c>
       <c r="I35" t="s">
         <v>365</v>
       </c>
       <c r="J35" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K35" t="s">
-        <v>234</v>
+        <v>325</v>
       </c>
       <c r="L35" t="s">
         <v>474</v>
@@ -3861,7 +3861,7 @@
         <v>233</v>
       </c>
       <c r="P35" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Q35" t="s">
         <v>365</v>
@@ -3887,31 +3887,31 @@
         <v>0</v>
       </c>
       <c r="E36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" t="s">
         <v>234</v>
       </c>
       <c r="G36" t="s">
-        <v>241</v>
+        <v>299</v>
       </c>
       <c r="H36" t="s">
-        <v>274</v>
+        <v>295</v>
       </c>
       <c r="I36" t="s">
         <v>366</v>
       </c>
       <c r="J36" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K36" t="s">
-        <v>274</v>
+        <v>295</v>
       </c>
       <c r="L36" t="s">
         <v>474</v>
       </c>
       <c r="M36" t="s">
-        <v>241</v>
+        <v>299</v>
       </c>
       <c r="N36" t="s">
         <v>472</v>
@@ -3955,7 +3955,7 @@
         <v>327</v>
       </c>
       <c r="H37" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="I37" t="s">
         <v>367</v>
@@ -3970,7 +3970,7 @@
         <v>472</v>
       </c>
       <c r="M37" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="N37" t="s">
         <v>474</v>
@@ -3985,7 +3985,7 @@
         <v>235</v>
       </c>
       <c r="R37" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="S37">
         <v>1.002511505009002</v>
@@ -4070,19 +4070,19 @@
         <v>236</v>
       </c>
       <c r="G39" t="s">
-        <v>300</v>
+        <v>277</v>
       </c>
       <c r="H39" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="I39" t="s">
         <v>368</v>
       </c>
       <c r="J39" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K39" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="L39" t="s">
         <v>474</v>
@@ -4091,10 +4091,10 @@
         <v>236</v>
       </c>
       <c r="N39" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="O39" t="s">
-        <v>300</v>
+        <v>277</v>
       </c>
       <c r="P39" t="s">
         <v>472</v>
@@ -4132,13 +4132,13 @@
         <v>214</v>
       </c>
       <c r="H40" t="s">
-        <v>322</v>
+        <v>287</v>
       </c>
       <c r="I40" t="s">
         <v>369</v>
       </c>
       <c r="J40" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K40" t="s">
         <v>214</v>
@@ -4153,7 +4153,7 @@
         <v>473</v>
       </c>
       <c r="O40" t="s">
-        <v>322</v>
+        <v>287</v>
       </c>
       <c r="P40" t="s">
         <v>474</v>
@@ -4162,7 +4162,7 @@
         <v>237</v>
       </c>
       <c r="R40" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="S40">
         <v>1.030933490740088</v>
@@ -4191,7 +4191,7 @@
         <v>331</v>
       </c>
       <c r="H41" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="I41" t="s">
         <v>370</v>
@@ -4200,7 +4200,7 @@
         <v>342</v>
       </c>
       <c r="K41" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="L41" t="s">
         <v>474</v>
@@ -4209,7 +4209,7 @@
         <v>238</v>
       </c>
       <c r="N41" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="O41" t="s">
         <v>370</v>
@@ -4309,19 +4309,19 @@
         <v>337</v>
       </c>
       <c r="H43" t="s">
-        <v>259</v>
+        <v>328</v>
       </c>
       <c r="I43" t="s">
         <v>371</v>
       </c>
       <c r="J43" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K43" t="s">
         <v>239</v>
       </c>
       <c r="L43" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="M43" t="s">
         <v>337</v>
@@ -4330,7 +4330,7 @@
         <v>472</v>
       </c>
       <c r="O43" t="s">
-        <v>259</v>
+        <v>328</v>
       </c>
       <c r="P43" t="s">
         <v>474</v>
@@ -4368,16 +4368,16 @@
         <v>261</v>
       </c>
       <c r="H44" t="s">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="I44" t="s">
         <v>372</v>
       </c>
       <c r="J44" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K44" t="s">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="L44" t="s">
         <v>474</v>
@@ -4386,7 +4386,7 @@
         <v>240</v>
       </c>
       <c r="N44" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="O44" t="s">
         <v>372</v>
@@ -4477,16 +4477,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" t="s">
         <v>241</v>
       </c>
       <c r="G46" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="H46" t="s">
-        <v>301</v>
+        <v>238</v>
       </c>
       <c r="I46" t="s">
         <v>373</v>
@@ -4501,7 +4501,7 @@
         <v>473</v>
       </c>
       <c r="M46" t="s">
-        <v>301</v>
+        <v>238</v>
       </c>
       <c r="N46" t="s">
         <v>474</v>
@@ -4513,7 +4513,7 @@
         <v>476</v>
       </c>
       <c r="Q46" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="R46" t="s">
         <v>472</v>
@@ -4536,22 +4536,22 @@
         <v>0</v>
       </c>
       <c r="E47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="s">
         <v>242</v>
       </c>
       <c r="G47" t="s">
-        <v>251</v>
+        <v>318</v>
       </c>
       <c r="H47" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="I47" t="s">
         <v>374</v>
       </c>
       <c r="J47" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K47" t="s">
         <v>242</v>
@@ -4560,13 +4560,13 @@
         <v>475</v>
       </c>
       <c r="M47" t="s">
-        <v>251</v>
+        <v>318</v>
       </c>
       <c r="N47" t="s">
         <v>472</v>
       </c>
       <c r="O47" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="P47" t="s">
         <v>474</v>
@@ -4604,7 +4604,7 @@
         <v>267</v>
       </c>
       <c r="H48" t="s">
-        <v>263</v>
+        <v>329</v>
       </c>
       <c r="I48" t="s">
         <v>375</v>
@@ -4622,10 +4622,10 @@
         <v>243</v>
       </c>
       <c r="N48" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="O48" t="s">
-        <v>263</v>
+        <v>329</v>
       </c>
       <c r="P48" t="s">
         <v>474</v>
@@ -4781,13 +4781,13 @@
         <v>219</v>
       </c>
       <c r="H51" t="s">
-        <v>336</v>
+        <v>236</v>
       </c>
       <c r="I51" t="s">
         <v>376</v>
       </c>
       <c r="J51" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K51" t="s">
         <v>376</v>
@@ -4796,7 +4796,7 @@
         <v>473</v>
       </c>
       <c r="M51" t="s">
-        <v>336</v>
+        <v>236</v>
       </c>
       <c r="N51" t="s">
         <v>474</v>
@@ -4805,7 +4805,7 @@
         <v>244</v>
       </c>
       <c r="P51" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Q51" t="s">
         <v>219</v>
@@ -4840,13 +4840,13 @@
         <v>271</v>
       </c>
       <c r="H52" t="s">
-        <v>317</v>
+        <v>256</v>
       </c>
       <c r="I52" t="s">
         <v>377</v>
       </c>
       <c r="J52" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K52" t="s">
         <v>271</v>
@@ -4864,10 +4864,10 @@
         <v>245</v>
       </c>
       <c r="P52" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Q52" t="s">
-        <v>317</v>
+        <v>256</v>
       </c>
       <c r="R52" t="s">
         <v>474</v>
@@ -5017,7 +5017,7 @@
         <v>231</v>
       </c>
       <c r="H55" t="s">
-        <v>338</v>
+        <v>258</v>
       </c>
       <c r="I55" t="s">
         <v>378</v>
@@ -5035,10 +5035,10 @@
         <v>246</v>
       </c>
       <c r="N55" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="O55" t="s">
-        <v>338</v>
+        <v>258</v>
       </c>
       <c r="P55" t="s">
         <v>474</v>
@@ -5073,19 +5073,19 @@
         <v>247</v>
       </c>
       <c r="G56" t="s">
-        <v>287</v>
+        <v>229</v>
       </c>
       <c r="H56" t="s">
-        <v>255</v>
+        <v>316</v>
       </c>
       <c r="I56" t="s">
         <v>379</v>
       </c>
       <c r="J56" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K56" t="s">
-        <v>287</v>
+        <v>229</v>
       </c>
       <c r="L56" t="s">
         <v>472</v>
@@ -5094,10 +5094,10 @@
         <v>247</v>
       </c>
       <c r="N56" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="O56" t="s">
-        <v>255</v>
+        <v>316</v>
       </c>
       <c r="P56" t="s">
         <v>474</v>
@@ -5135,7 +5135,7 @@
         <v>274</v>
       </c>
       <c r="H57" t="s">
-        <v>328</v>
+        <v>227</v>
       </c>
       <c r="I57" t="s">
         <v>380</v>
@@ -5144,7 +5144,7 @@
         <v>343</v>
       </c>
       <c r="K57" t="s">
-        <v>328</v>
+        <v>227</v>
       </c>
       <c r="L57" t="s">
         <v>474</v>
@@ -5159,7 +5159,7 @@
         <v>248</v>
       </c>
       <c r="P57" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Q57" t="s">
         <v>380</v>
@@ -5185,25 +5185,25 @@
         <v>0</v>
       </c>
       <c r="E58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" t="s">
         <v>249</v>
       </c>
       <c r="G58" t="s">
-        <v>254</v>
+        <v>329</v>
       </c>
       <c r="H58" t="s">
-        <v>321</v>
+        <v>244</v>
       </c>
       <c r="I58" t="s">
         <v>381</v>
       </c>
       <c r="J58" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K58" t="s">
-        <v>254</v>
+        <v>329</v>
       </c>
       <c r="L58" t="s">
         <v>472</v>
@@ -5215,7 +5215,7 @@
         <v>473</v>
       </c>
       <c r="O58" t="s">
-        <v>321</v>
+        <v>244</v>
       </c>
       <c r="P58" t="s">
         <v>474</v>
@@ -5253,19 +5253,19 @@
         <v>228</v>
       </c>
       <c r="H59" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="I59" t="s">
         <v>382</v>
       </c>
       <c r="J59" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K59" t="s">
         <v>250</v>
       </c>
       <c r="L59" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="M59" t="s">
         <v>382</v>
@@ -5280,7 +5280,7 @@
         <v>472</v>
       </c>
       <c r="Q59" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="R59" t="s">
         <v>474</v>
@@ -5303,25 +5303,25 @@
         <v>0</v>
       </c>
       <c r="E60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" t="s">
         <v>251</v>
       </c>
       <c r="G60" t="s">
-        <v>281</v>
+        <v>332</v>
       </c>
       <c r="H60" t="s">
-        <v>304</v>
+        <v>245</v>
       </c>
       <c r="I60" t="s">
         <v>383</v>
       </c>
       <c r="J60" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K60" t="s">
-        <v>304</v>
+        <v>245</v>
       </c>
       <c r="L60" t="s">
         <v>474</v>
@@ -5333,7 +5333,7 @@
         <v>473</v>
       </c>
       <c r="O60" t="s">
-        <v>281</v>
+        <v>332</v>
       </c>
       <c r="P60" t="s">
         <v>472</v>
@@ -5421,22 +5421,22 @@
         <v>0</v>
       </c>
       <c r="E62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62" t="s">
         <v>252</v>
       </c>
       <c r="G62" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="H62" t="s">
-        <v>325</v>
+        <v>290</v>
       </c>
       <c r="I62" t="s">
         <v>384</v>
       </c>
       <c r="J62" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K62" t="s">
         <v>384</v>
@@ -5451,13 +5451,13 @@
         <v>476</v>
       </c>
       <c r="O62" t="s">
-        <v>325</v>
+        <v>290</v>
       </c>
       <c r="P62" t="s">
         <v>474</v>
       </c>
       <c r="Q62" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="R62" t="s">
         <v>472</v>
@@ -5548,7 +5548,7 @@
         <v>238</v>
       </c>
       <c r="H64" t="s">
-        <v>230</v>
+        <v>280</v>
       </c>
       <c r="I64" t="s">
         <v>385</v>
@@ -5566,7 +5566,7 @@
         <v>253</v>
       </c>
       <c r="N64" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="O64" t="s">
         <v>385</v>
@@ -5575,7 +5575,7 @@
         <v>473</v>
       </c>
       <c r="Q64" t="s">
-        <v>230</v>
+        <v>280</v>
       </c>
       <c r="R64" t="s">
         <v>474</v>
@@ -5598,22 +5598,22 @@
         <v>0</v>
       </c>
       <c r="E65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65" t="s">
         <v>254</v>
       </c>
       <c r="G65" t="s">
-        <v>298</v>
+        <v>249</v>
       </c>
       <c r="H65" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="I65" t="s">
         <v>386</v>
       </c>
       <c r="J65" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K65" t="s">
         <v>386</v>
@@ -5622,13 +5622,13 @@
         <v>473</v>
       </c>
       <c r="M65" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="N65" t="s">
         <v>474</v>
       </c>
       <c r="O65" t="s">
-        <v>298</v>
+        <v>249</v>
       </c>
       <c r="P65" t="s">
         <v>472</v>
@@ -5725,22 +5725,22 @@
         <v>226</v>
       </c>
       <c r="H67" t="s">
-        <v>250</v>
+        <v>213</v>
       </c>
       <c r="I67" t="s">
         <v>387</v>
       </c>
       <c r="J67" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K67" t="s">
         <v>255</v>
       </c>
       <c r="L67" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="M67" t="s">
-        <v>250</v>
+        <v>213</v>
       </c>
       <c r="N67" t="s">
         <v>474</v>
@@ -5781,19 +5781,19 @@
         <v>256</v>
       </c>
       <c r="G68" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="H68" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="I68" t="s">
         <v>388</v>
       </c>
       <c r="J68" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K68" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="L68" t="s">
         <v>474</v>
@@ -5802,7 +5802,7 @@
         <v>256</v>
       </c>
       <c r="N68" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="O68" t="s">
         <v>388</v>
@@ -5811,7 +5811,7 @@
         <v>473</v>
       </c>
       <c r="Q68" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="R68" t="s">
         <v>472</v>
@@ -5893,25 +5893,25 @@
         <v>0</v>
       </c>
       <c r="E70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70" t="s">
         <v>257</v>
       </c>
       <c r="G70" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="H70" t="s">
-        <v>335</v>
+        <v>267</v>
       </c>
       <c r="I70" t="s">
         <v>389</v>
       </c>
       <c r="J70" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K70" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="L70" t="s">
         <v>472</v>
@@ -5929,7 +5929,7 @@
         <v>475</v>
       </c>
       <c r="Q70" t="s">
-        <v>335</v>
+        <v>267</v>
       </c>
       <c r="R70" t="s">
         <v>474</v>
@@ -5952,25 +5952,25 @@
         <v>0</v>
       </c>
       <c r="E71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71" t="s">
         <v>258</v>
       </c>
       <c r="G71" t="s">
-        <v>324</v>
+        <v>263</v>
       </c>
       <c r="H71" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="I71" t="s">
         <v>390</v>
       </c>
       <c r="J71" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K71" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="L71" t="s">
         <v>474</v>
@@ -5988,7 +5988,7 @@
         <v>476</v>
       </c>
       <c r="Q71" t="s">
-        <v>324</v>
+        <v>263</v>
       </c>
       <c r="R71" t="s">
         <v>472</v>
@@ -6011,25 +6011,25 @@
         <v>0</v>
       </c>
       <c r="E72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72" t="s">
         <v>259</v>
       </c>
       <c r="G72" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="H72" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="I72" t="s">
         <v>391</v>
       </c>
       <c r="J72" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K72" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="L72" t="s">
         <v>474</v>
@@ -6047,7 +6047,7 @@
         <v>475</v>
       </c>
       <c r="Q72" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="R72" t="s">
         <v>472</v>
@@ -6079,13 +6079,13 @@
         <v>313</v>
       </c>
       <c r="H73" t="s">
-        <v>224</v>
+        <v>261</v>
       </c>
       <c r="I73" t="s">
         <v>392</v>
       </c>
       <c r="J73" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K73" t="s">
         <v>313</v>
@@ -6097,7 +6097,7 @@
         <v>260</v>
       </c>
       <c r="N73" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="O73" t="s">
         <v>392</v>
@@ -6106,7 +6106,7 @@
         <v>473</v>
       </c>
       <c r="Q73" t="s">
-        <v>224</v>
+        <v>261</v>
       </c>
       <c r="R73" t="s">
         <v>474</v>
@@ -6197,13 +6197,13 @@
         <v>336</v>
       </c>
       <c r="H75" t="s">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="I75" t="s">
         <v>393</v>
       </c>
       <c r="J75" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K75" t="s">
         <v>393</v>
@@ -6218,7 +6218,7 @@
         <v>472</v>
       </c>
       <c r="O75" t="s">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="P75" t="s">
         <v>474</v>
@@ -6227,7 +6227,7 @@
         <v>261</v>
       </c>
       <c r="R75" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="S75">
         <v>1.153782983813304</v>
@@ -6315,7 +6315,7 @@
         <v>304</v>
       </c>
       <c r="H77" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="I77" t="s">
         <v>394</v>
@@ -6327,10 +6327,10 @@
         <v>262</v>
       </c>
       <c r="L77" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="M77" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="N77" t="s">
         <v>474</v>
@@ -6365,25 +6365,25 @@
         <v>0</v>
       </c>
       <c r="E78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78" t="s">
         <v>263</v>
       </c>
       <c r="G78" t="s">
-        <v>311</v>
+        <v>252</v>
       </c>
       <c r="H78" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I78" t="s">
         <v>395</v>
       </c>
       <c r="J78" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K78" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="L78" t="s">
         <v>474</v>
@@ -6395,7 +6395,7 @@
         <v>473</v>
       </c>
       <c r="O78" t="s">
-        <v>311</v>
+        <v>252</v>
       </c>
       <c r="P78" t="s">
         <v>472</v>
@@ -6433,16 +6433,16 @@
         <v>290</v>
       </c>
       <c r="H79" t="s">
-        <v>257</v>
+        <v>335</v>
       </c>
       <c r="I79" t="s">
         <v>396</v>
       </c>
       <c r="J79" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K79" t="s">
-        <v>257</v>
+        <v>335</v>
       </c>
       <c r="L79" t="s">
         <v>474</v>
@@ -6457,7 +6457,7 @@
         <v>264</v>
       </c>
       <c r="P79" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Q79" t="s">
         <v>396</v>
@@ -6492,22 +6492,22 @@
         <v>223</v>
       </c>
       <c r="H80" t="s">
-        <v>315</v>
+        <v>252</v>
       </c>
       <c r="I80" t="s">
         <v>397</v>
       </c>
       <c r="J80" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K80" t="s">
         <v>265</v>
       </c>
       <c r="L80" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="M80" t="s">
-        <v>315</v>
+        <v>252</v>
       </c>
       <c r="N80" t="s">
         <v>474</v>
@@ -6610,22 +6610,22 @@
         <v>230</v>
       </c>
       <c r="H82" t="s">
-        <v>292</v>
+        <v>333</v>
       </c>
       <c r="I82" t="s">
         <v>398</v>
       </c>
       <c r="J82" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K82" t="s">
         <v>266</v>
       </c>
       <c r="L82" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="M82" t="s">
-        <v>292</v>
+        <v>333</v>
       </c>
       <c r="N82" t="s">
         <v>474</v>
@@ -6669,7 +6669,7 @@
         <v>319</v>
       </c>
       <c r="H83" t="s">
-        <v>299</v>
+        <v>249</v>
       </c>
       <c r="I83" t="s">
         <v>399</v>
@@ -6678,7 +6678,7 @@
         <v>341</v>
       </c>
       <c r="K83" t="s">
-        <v>299</v>
+        <v>249</v>
       </c>
       <c r="L83" t="s">
         <v>474</v>
@@ -6687,7 +6687,7 @@
         <v>267</v>
       </c>
       <c r="N83" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="O83" t="s">
         <v>319</v>
@@ -6728,7 +6728,7 @@
         <v>233</v>
       </c>
       <c r="H84" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="I84" t="s">
         <v>400</v>
@@ -6737,7 +6737,7 @@
         <v>341</v>
       </c>
       <c r="K84" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="L84" t="s">
         <v>474</v>
@@ -6752,7 +6752,7 @@
         <v>268</v>
       </c>
       <c r="P84" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Q84" t="s">
         <v>400</v>
@@ -6843,16 +6843,16 @@
         <v>269</v>
       </c>
       <c r="G86" t="s">
-        <v>339</v>
+        <v>281</v>
       </c>
       <c r="H86" t="s">
-        <v>254</v>
+        <v>327</v>
       </c>
       <c r="I86" t="s">
         <v>401</v>
       </c>
       <c r="J86" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K86" t="s">
         <v>401</v>
@@ -6861,7 +6861,7 @@
         <v>473</v>
       </c>
       <c r="M86" t="s">
-        <v>254</v>
+        <v>327</v>
       </c>
       <c r="N86" t="s">
         <v>474</v>
@@ -6870,10 +6870,10 @@
         <v>269</v>
       </c>
       <c r="P86" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Q86" t="s">
-        <v>339</v>
+        <v>281</v>
       </c>
       <c r="R86" t="s">
         <v>472</v>
@@ -6964,16 +6964,16 @@
         <v>218</v>
       </c>
       <c r="H88" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="I88" t="s">
         <v>402</v>
       </c>
       <c r="J88" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K88" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="L88" t="s">
         <v>474</v>
@@ -6988,7 +6988,7 @@
         <v>270</v>
       </c>
       <c r="P88" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Q88" t="s">
         <v>402</v>
@@ -7023,13 +7023,13 @@
         <v>248</v>
       </c>
       <c r="H89" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="I89" t="s">
         <v>403</v>
       </c>
       <c r="J89" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K89" t="s">
         <v>248</v>
@@ -7041,7 +7041,7 @@
         <v>271</v>
       </c>
       <c r="N89" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="O89" t="s">
         <v>403</v>
@@ -7050,7 +7050,7 @@
         <v>473</v>
       </c>
       <c r="Q89" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="R89" t="s">
         <v>474</v>
@@ -7250,16 +7250,16 @@
         <v>0</v>
       </c>
       <c r="E93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93" t="s">
         <v>272</v>
       </c>
       <c r="G93" t="s">
-        <v>299</v>
+        <v>234</v>
       </c>
       <c r="H93" t="s">
-        <v>286</v>
+        <v>339</v>
       </c>
       <c r="I93" t="s">
         <v>404</v>
@@ -7268,13 +7268,13 @@
         <v>340</v>
       </c>
       <c r="K93" t="s">
-        <v>299</v>
+        <v>234</v>
       </c>
       <c r="L93" t="s">
         <v>472</v>
       </c>
       <c r="M93" t="s">
-        <v>286</v>
+        <v>339</v>
       </c>
       <c r="N93" t="s">
         <v>474</v>
@@ -7427,22 +7427,22 @@
         <v>0</v>
       </c>
       <c r="E96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96" t="s">
         <v>273</v>
       </c>
       <c r="G96" t="s">
-        <v>321</v>
+        <v>224</v>
       </c>
       <c r="H96" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="I96" t="s">
         <v>405</v>
       </c>
       <c r="J96" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K96" t="s">
         <v>405</v>
@@ -7451,13 +7451,13 @@
         <v>473</v>
       </c>
       <c r="M96" t="s">
-        <v>321</v>
+        <v>224</v>
       </c>
       <c r="N96" t="s">
         <v>472</v>
       </c>
       <c r="O96" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="P96" t="s">
         <v>474</v>
@@ -7495,19 +7495,19 @@
         <v>239</v>
       </c>
       <c r="H97" t="s">
-        <v>308</v>
+        <v>251</v>
       </c>
       <c r="I97" t="s">
         <v>406</v>
       </c>
       <c r="J97" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K97" t="s">
         <v>274</v>
       </c>
       <c r="L97" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="M97" t="s">
         <v>406</v>
@@ -7522,7 +7522,7 @@
         <v>472</v>
       </c>
       <c r="Q97" t="s">
-        <v>308</v>
+        <v>251</v>
       </c>
       <c r="R97" t="s">
         <v>474</v>
@@ -7554,13 +7554,13 @@
         <v>316</v>
       </c>
       <c r="H98" t="s">
-        <v>225</v>
+        <v>323</v>
       </c>
       <c r="I98" t="s">
         <v>407</v>
       </c>
       <c r="J98" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K98" t="s">
         <v>407</v>
@@ -7572,7 +7572,7 @@
         <v>275</v>
       </c>
       <c r="N98" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="O98" t="s">
         <v>316</v>
@@ -7581,7 +7581,7 @@
         <v>472</v>
       </c>
       <c r="Q98" t="s">
-        <v>225</v>
+        <v>323</v>
       </c>
       <c r="R98" t="s">
         <v>474</v>
@@ -7604,22 +7604,22 @@
         <v>0</v>
       </c>
       <c r="E99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F99" t="s">
         <v>276</v>
       </c>
       <c r="G99" t="s">
-        <v>277</v>
+        <v>220</v>
       </c>
       <c r="H99" t="s">
-        <v>275</v>
+        <v>219</v>
       </c>
       <c r="I99" t="s">
         <v>408</v>
       </c>
       <c r="J99" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K99" t="s">
         <v>408</v>
@@ -7628,13 +7628,13 @@
         <v>473</v>
       </c>
       <c r="M99" t="s">
-        <v>277</v>
+        <v>220</v>
       </c>
       <c r="N99" t="s">
         <v>472</v>
       </c>
       <c r="O99" t="s">
-        <v>275</v>
+        <v>219</v>
       </c>
       <c r="P99" t="s">
         <v>474</v>
@@ -7722,22 +7722,22 @@
         <v>0</v>
       </c>
       <c r="E101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101" t="s">
         <v>277</v>
       </c>
       <c r="G101" t="s">
-        <v>338</v>
+        <v>309</v>
       </c>
       <c r="H101" t="s">
-        <v>218</v>
+        <v>321</v>
       </c>
       <c r="I101" t="s">
         <v>409</v>
       </c>
       <c r="J101" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K101" t="s">
         <v>409</v>
@@ -7746,13 +7746,13 @@
         <v>473</v>
       </c>
       <c r="M101" t="s">
-        <v>218</v>
+        <v>321</v>
       </c>
       <c r="N101" t="s">
         <v>474</v>
       </c>
       <c r="O101" t="s">
-        <v>338</v>
+        <v>309</v>
       </c>
       <c r="P101" t="s">
         <v>472</v>
@@ -7781,22 +7781,22 @@
         <v>0</v>
       </c>
       <c r="E102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102" t="s">
         <v>278</v>
       </c>
       <c r="G102" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="H102" t="s">
-        <v>303</v>
+        <v>235</v>
       </c>
       <c r="I102" t="s">
         <v>410</v>
       </c>
       <c r="J102" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K102" t="s">
         <v>410</v>
@@ -7811,13 +7811,13 @@
         <v>475</v>
       </c>
       <c r="O102" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="P102" t="s">
         <v>472</v>
       </c>
       <c r="Q102" t="s">
-        <v>303</v>
+        <v>235</v>
       </c>
       <c r="R102" t="s">
         <v>474</v>
@@ -7840,16 +7840,16 @@
         <v>0</v>
       </c>
       <c r="E103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103" t="s">
         <v>279</v>
       </c>
       <c r="G103" t="s">
-        <v>221</v>
+        <v>273</v>
       </c>
       <c r="H103" t="s">
-        <v>265</v>
+        <v>306</v>
       </c>
       <c r="I103" t="s">
         <v>411</v>
@@ -7858,7 +7858,7 @@
         <v>342</v>
       </c>
       <c r="K103" t="s">
-        <v>221</v>
+        <v>273</v>
       </c>
       <c r="L103" t="s">
         <v>472</v>
@@ -7876,7 +7876,7 @@
         <v>473</v>
       </c>
       <c r="Q103" t="s">
-        <v>265</v>
+        <v>306</v>
       </c>
       <c r="R103" t="s">
         <v>474</v>
@@ -7908,13 +7908,13 @@
         <v>244</v>
       </c>
       <c r="H104" t="s">
-        <v>217</v>
+        <v>319</v>
       </c>
       <c r="I104" t="s">
         <v>412</v>
       </c>
       <c r="J104" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K104" t="s">
         <v>244</v>
@@ -7926,7 +7926,7 @@
         <v>280</v>
       </c>
       <c r="N104" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="O104" t="s">
         <v>412</v>
@@ -7935,7 +7935,7 @@
         <v>473</v>
       </c>
       <c r="Q104" t="s">
-        <v>217</v>
+        <v>319</v>
       </c>
       <c r="R104" t="s">
         <v>474</v>
@@ -7958,31 +7958,31 @@
         <v>0</v>
       </c>
       <c r="E105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F105" t="s">
         <v>281</v>
       </c>
       <c r="G105" t="s">
-        <v>305</v>
+        <v>251</v>
       </c>
       <c r="H105" t="s">
-        <v>261</v>
+        <v>296</v>
       </c>
       <c r="I105" t="s">
         <v>413</v>
       </c>
       <c r="J105" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K105" t="s">
-        <v>305</v>
+        <v>251</v>
       </c>
       <c r="L105" t="s">
         <v>472</v>
       </c>
       <c r="M105" t="s">
-        <v>261</v>
+        <v>296</v>
       </c>
       <c r="N105" t="s">
         <v>474</v>
@@ -8026,7 +8026,7 @@
         <v>328</v>
       </c>
       <c r="H106" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="I106" t="s">
         <v>414</v>
@@ -8038,10 +8038,10 @@
         <v>282</v>
       </c>
       <c r="L106" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="M106" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="N106" t="s">
         <v>474</v>
@@ -8253,16 +8253,16 @@
         <v>0</v>
       </c>
       <c r="E110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F110" t="s">
         <v>283</v>
       </c>
       <c r="G110" t="s">
-        <v>329</v>
+        <v>222</v>
       </c>
       <c r="H110" t="s">
-        <v>306</v>
+        <v>216</v>
       </c>
       <c r="I110" t="s">
         <v>415</v>
@@ -8271,7 +8271,7 @@
         <v>342</v>
       </c>
       <c r="K110" t="s">
-        <v>329</v>
+        <v>222</v>
       </c>
       <c r="L110" t="s">
         <v>472</v>
@@ -8283,7 +8283,7 @@
         <v>473</v>
       </c>
       <c r="O110" t="s">
-        <v>306</v>
+        <v>216</v>
       </c>
       <c r="P110" t="s">
         <v>474</v>
@@ -8321,7 +8321,7 @@
         <v>307</v>
       </c>
       <c r="H111" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="I111" t="s">
         <v>416</v>
@@ -8330,7 +8330,7 @@
         <v>340</v>
       </c>
       <c r="K111" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="L111" t="s">
         <v>474</v>
@@ -8339,7 +8339,7 @@
         <v>284</v>
       </c>
       <c r="N111" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="O111" t="s">
         <v>416</v>
@@ -8371,22 +8371,22 @@
         <v>0</v>
       </c>
       <c r="E112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F112" t="s">
         <v>285</v>
       </c>
       <c r="G112" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="H112" t="s">
-        <v>326</v>
+        <v>260</v>
       </c>
       <c r="I112" t="s">
         <v>417</v>
       </c>
       <c r="J112" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K112" t="s">
         <v>285</v>
@@ -8395,13 +8395,13 @@
         <v>475</v>
       </c>
       <c r="M112" t="s">
-        <v>326</v>
+        <v>260</v>
       </c>
       <c r="N112" t="s">
         <v>474</v>
       </c>
       <c r="O112" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="P112" t="s">
         <v>472</v>
@@ -8430,16 +8430,16 @@
         <v>0</v>
       </c>
       <c r="E113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F113" t="s">
         <v>286</v>
       </c>
       <c r="G113" t="s">
-        <v>318</v>
+        <v>242</v>
       </c>
       <c r="H113" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="I113" t="s">
         <v>418</v>
@@ -8448,13 +8448,13 @@
         <v>343</v>
       </c>
       <c r="K113" t="s">
-        <v>318</v>
+        <v>242</v>
       </c>
       <c r="L113" t="s">
         <v>472</v>
       </c>
       <c r="M113" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="N113" t="s">
         <v>474</v>
@@ -8554,25 +8554,25 @@
         <v>287</v>
       </c>
       <c r="G115" t="s">
-        <v>249</v>
+        <v>300</v>
       </c>
       <c r="H115" t="s">
-        <v>331</v>
+        <v>215</v>
       </c>
       <c r="I115" t="s">
         <v>419</v>
       </c>
       <c r="J115" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K115" t="s">
-        <v>331</v>
+        <v>215</v>
       </c>
       <c r="L115" t="s">
         <v>474</v>
       </c>
       <c r="M115" t="s">
-        <v>249</v>
+        <v>300</v>
       </c>
       <c r="N115" t="s">
         <v>472</v>
@@ -8581,7 +8581,7 @@
         <v>287</v>
       </c>
       <c r="P115" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Q115" t="s">
         <v>419</v>
@@ -8607,16 +8607,16 @@
         <v>0</v>
       </c>
       <c r="E116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F116" t="s">
         <v>288</v>
       </c>
       <c r="G116" t="s">
-        <v>256</v>
+        <v>322</v>
       </c>
       <c r="H116" t="s">
-        <v>298</v>
+        <v>338</v>
       </c>
       <c r="I116" t="s">
         <v>420</v>
@@ -8625,7 +8625,7 @@
         <v>341</v>
       </c>
       <c r="K116" t="s">
-        <v>298</v>
+        <v>338</v>
       </c>
       <c r="L116" t="s">
         <v>474</v>
@@ -8643,7 +8643,7 @@
         <v>473</v>
       </c>
       <c r="Q116" t="s">
-        <v>256</v>
+        <v>322</v>
       </c>
       <c r="R116" t="s">
         <v>472</v>
@@ -8666,16 +8666,16 @@
         <v>0</v>
       </c>
       <c r="E117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F117" t="s">
         <v>289</v>
       </c>
       <c r="G117" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="H117" t="s">
-        <v>284</v>
+        <v>233</v>
       </c>
       <c r="I117" t="s">
         <v>421</v>
@@ -8690,13 +8690,13 @@
         <v>475</v>
       </c>
       <c r="M117" t="s">
-        <v>284</v>
+        <v>233</v>
       </c>
       <c r="N117" t="s">
         <v>474</v>
       </c>
       <c r="O117" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="P117" t="s">
         <v>472</v>
@@ -8793,16 +8793,16 @@
         <v>320</v>
       </c>
       <c r="H119" t="s">
-        <v>273</v>
+        <v>230</v>
       </c>
       <c r="I119" t="s">
         <v>422</v>
       </c>
       <c r="J119" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K119" t="s">
-        <v>273</v>
+        <v>230</v>
       </c>
       <c r="L119" t="s">
         <v>474</v>
@@ -8823,7 +8823,7 @@
         <v>290</v>
       </c>
       <c r="R119" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="S119">
         <v>1.061890769086855</v>
@@ -8961,25 +8961,25 @@
         <v>0</v>
       </c>
       <c r="E122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F122" t="s">
         <v>291</v>
       </c>
       <c r="G122" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="H122" t="s">
-        <v>313</v>
+        <v>269</v>
       </c>
       <c r="I122" t="s">
         <v>423</v>
       </c>
       <c r="J122" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K122" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="L122" t="s">
         <v>472</v>
@@ -8997,7 +8997,7 @@
         <v>476</v>
       </c>
       <c r="Q122" t="s">
-        <v>313</v>
+        <v>269</v>
       </c>
       <c r="R122" t="s">
         <v>474</v>
@@ -9020,22 +9020,22 @@
         <v>0</v>
       </c>
       <c r="E123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F123" t="s">
         <v>292</v>
       </c>
       <c r="G123" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="H123" t="s">
-        <v>329</v>
+        <v>218</v>
       </c>
       <c r="I123" t="s">
         <v>424</v>
       </c>
       <c r="J123" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K123" t="s">
         <v>424</v>
@@ -9044,7 +9044,7 @@
         <v>473</v>
       </c>
       <c r="M123" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="N123" t="s">
         <v>472</v>
@@ -9056,7 +9056,7 @@
         <v>475</v>
       </c>
       <c r="Q123" t="s">
-        <v>329</v>
+        <v>218</v>
       </c>
       <c r="R123" t="s">
         <v>474</v>
@@ -9147,16 +9147,16 @@
         <v>303</v>
       </c>
       <c r="H125" t="s">
-        <v>228</v>
+        <v>278</v>
       </c>
       <c r="I125" t="s">
         <v>425</v>
       </c>
       <c r="J125" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K125" t="s">
-        <v>228</v>
+        <v>278</v>
       </c>
       <c r="L125" t="s">
         <v>474</v>
@@ -9171,7 +9171,7 @@
         <v>293</v>
       </c>
       <c r="P125" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Q125" t="s">
         <v>425</v>
@@ -9256,25 +9256,25 @@
         <v>0</v>
       </c>
       <c r="E127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127" t="s">
         <v>294</v>
       </c>
       <c r="G127" t="s">
-        <v>217</v>
+        <v>292</v>
       </c>
       <c r="H127" t="s">
-        <v>262</v>
+        <v>237</v>
       </c>
       <c r="I127" t="s">
         <v>426</v>
       </c>
       <c r="J127" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K127" t="s">
-        <v>262</v>
+        <v>237</v>
       </c>
       <c r="L127" t="s">
         <v>474</v>
@@ -9286,7 +9286,7 @@
         <v>475</v>
       </c>
       <c r="O127" t="s">
-        <v>217</v>
+        <v>292</v>
       </c>
       <c r="P127" t="s">
         <v>472</v>
@@ -9492,22 +9492,22 @@
         <v>0</v>
       </c>
       <c r="E131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F131" t="s">
         <v>295</v>
       </c>
       <c r="G131" t="s">
-        <v>269</v>
+        <v>211</v>
       </c>
       <c r="H131" t="s">
-        <v>216</v>
+        <v>283</v>
       </c>
       <c r="I131" t="s">
         <v>427</v>
       </c>
       <c r="J131" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K131" t="s">
         <v>427</v>
@@ -9516,13 +9516,13 @@
         <v>473</v>
       </c>
       <c r="M131" t="s">
-        <v>216</v>
+        <v>283</v>
       </c>
       <c r="N131" t="s">
         <v>474</v>
       </c>
       <c r="O131" t="s">
-        <v>269</v>
+        <v>211</v>
       </c>
       <c r="P131" t="s">
         <v>472</v>
@@ -9551,16 +9551,16 @@
         <v>0</v>
       </c>
       <c r="E132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132" t="s">
         <v>296</v>
       </c>
       <c r="G132" t="s">
-        <v>309</v>
+        <v>241</v>
       </c>
       <c r="H132" t="s">
-        <v>333</v>
+        <v>275</v>
       </c>
       <c r="I132" t="s">
         <v>428</v>
@@ -9569,7 +9569,7 @@
         <v>343</v>
       </c>
       <c r="K132" t="s">
-        <v>333</v>
+        <v>275</v>
       </c>
       <c r="L132" t="s">
         <v>474</v>
@@ -9587,7 +9587,7 @@
         <v>473</v>
       </c>
       <c r="Q132" t="s">
-        <v>309</v>
+        <v>241</v>
       </c>
       <c r="R132" t="s">
         <v>472</v>
@@ -9610,16 +9610,16 @@
         <v>0</v>
       </c>
       <c r="E133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F133" t="s">
         <v>297</v>
       </c>
       <c r="G133" t="s">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="H133" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="I133" t="s">
         <v>429</v>
@@ -9628,7 +9628,7 @@
         <v>342</v>
       </c>
       <c r="K133" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="L133" t="s">
         <v>474</v>
@@ -9640,7 +9640,7 @@
         <v>473</v>
       </c>
       <c r="O133" t="s">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="P133" t="s">
         <v>472</v>
@@ -9669,16 +9669,16 @@
         <v>0</v>
       </c>
       <c r="E134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F134" t="s">
         <v>298</v>
       </c>
       <c r="G134" t="s">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="H134" t="s">
-        <v>280</v>
+        <v>214</v>
       </c>
       <c r="I134" t="s">
         <v>430</v>
@@ -9687,13 +9687,13 @@
         <v>342</v>
       </c>
       <c r="K134" t="s">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="L134" t="s">
         <v>472</v>
       </c>
       <c r="M134" t="s">
-        <v>280</v>
+        <v>214</v>
       </c>
       <c r="N134" t="s">
         <v>474</v>
@@ -9728,25 +9728,25 @@
         <v>0</v>
       </c>
       <c r="E135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F135" t="s">
         <v>299</v>
       </c>
       <c r="G135" t="s">
-        <v>220</v>
+        <v>259</v>
       </c>
       <c r="H135" t="s">
-        <v>231</v>
+        <v>294</v>
       </c>
       <c r="I135" t="s">
         <v>431</v>
       </c>
       <c r="J135" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K135" t="s">
-        <v>220</v>
+        <v>259</v>
       </c>
       <c r="L135" t="s">
         <v>472</v>
@@ -9764,7 +9764,7 @@
         <v>475</v>
       </c>
       <c r="Q135" t="s">
-        <v>231</v>
+        <v>294</v>
       </c>
       <c r="R135" t="s">
         <v>474</v>
@@ -9787,22 +9787,22 @@
         <v>0</v>
       </c>
       <c r="E136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F136" t="s">
         <v>300</v>
       </c>
       <c r="G136" t="s">
-        <v>229</v>
+        <v>314</v>
       </c>
       <c r="H136" t="s">
-        <v>319</v>
+        <v>239</v>
       </c>
       <c r="I136" t="s">
         <v>432</v>
       </c>
       <c r="J136" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K136" t="s">
         <v>432</v>
@@ -9811,13 +9811,13 @@
         <v>473</v>
       </c>
       <c r="M136" t="s">
-        <v>319</v>
+        <v>239</v>
       </c>
       <c r="N136" t="s">
         <v>474</v>
       </c>
       <c r="O136" t="s">
-        <v>229</v>
+        <v>314</v>
       </c>
       <c r="P136" t="s">
         <v>472</v>
@@ -9914,7 +9914,7 @@
         <v>227</v>
       </c>
       <c r="H138" t="s">
-        <v>289</v>
+        <v>221</v>
       </c>
       <c r="I138" t="s">
         <v>433</v>
@@ -9929,7 +9929,7 @@
         <v>473</v>
       </c>
       <c r="M138" t="s">
-        <v>289</v>
+        <v>221</v>
       </c>
       <c r="N138" t="s">
         <v>474</v>
@@ -9944,7 +9944,7 @@
         <v>301</v>
       </c>
       <c r="R138" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="S138">
         <v>1.178743582927277</v>
@@ -9964,16 +9964,16 @@
         <v>0</v>
       </c>
       <c r="E139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F139" t="s">
         <v>302</v>
       </c>
       <c r="G139" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="H139" t="s">
-        <v>235</v>
+        <v>308</v>
       </c>
       <c r="I139" t="s">
         <v>434</v>
@@ -9994,13 +9994,13 @@
         <v>473</v>
       </c>
       <c r="O139" t="s">
-        <v>235</v>
+        <v>308</v>
       </c>
       <c r="P139" t="s">
         <v>474</v>
       </c>
       <c r="Q139" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="R139" t="s">
         <v>472</v>
@@ -10091,22 +10091,22 @@
         <v>215</v>
       </c>
       <c r="H141" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="I141" t="s">
         <v>435</v>
       </c>
       <c r="J141" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K141" t="s">
         <v>303</v>
       </c>
       <c r="L141" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="M141" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="N141" t="s">
         <v>474</v>
@@ -10150,7 +10150,7 @@
         <v>240</v>
       </c>
       <c r="H142" t="s">
-        <v>277</v>
+        <v>324</v>
       </c>
       <c r="I142" t="s">
         <v>436</v>
@@ -10162,7 +10162,7 @@
         <v>304</v>
       </c>
       <c r="L142" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="M142" t="s">
         <v>436</v>
@@ -10171,7 +10171,7 @@
         <v>473</v>
       </c>
       <c r="O142" t="s">
-        <v>277</v>
+        <v>324</v>
       </c>
       <c r="P142" t="s">
         <v>474</v>
@@ -10200,25 +10200,25 @@
         <v>0</v>
       </c>
       <c r="E143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F143" t="s">
         <v>305</v>
       </c>
       <c r="G143" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="H143" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="I143" t="s">
         <v>437</v>
       </c>
       <c r="J143" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K143" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="L143" t="s">
         <v>472</v>
@@ -10236,7 +10236,7 @@
         <v>476</v>
       </c>
       <c r="Q143" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="R143" t="s">
         <v>474</v>
@@ -10268,19 +10268,19 @@
         <v>334</v>
       </c>
       <c r="H144" t="s">
-        <v>296</v>
+        <v>317</v>
       </c>
       <c r="I144" t="s">
         <v>438</v>
       </c>
       <c r="J144" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K144" t="s">
         <v>306</v>
       </c>
       <c r="L144" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="M144" t="s">
         <v>438</v>
@@ -10295,7 +10295,7 @@
         <v>472</v>
       </c>
       <c r="Q144" t="s">
-        <v>296</v>
+        <v>317</v>
       </c>
       <c r="R144" t="s">
         <v>474</v>
@@ -10327,16 +10327,16 @@
         <v>268</v>
       </c>
       <c r="H145" t="s">
-        <v>229</v>
+        <v>289</v>
       </c>
       <c r="I145" t="s">
         <v>439</v>
       </c>
       <c r="J145" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K145" t="s">
-        <v>229</v>
+        <v>289</v>
       </c>
       <c r="L145" t="s">
         <v>474</v>
@@ -10351,7 +10351,7 @@
         <v>307</v>
       </c>
       <c r="P145" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Q145" t="s">
         <v>439</v>
@@ -10386,22 +10386,22 @@
         <v>250</v>
       </c>
       <c r="H146" t="s">
-        <v>220</v>
+        <v>281</v>
       </c>
       <c r="I146" t="s">
         <v>440</v>
       </c>
       <c r="J146" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K146" t="s">
         <v>308</v>
       </c>
       <c r="L146" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="M146" t="s">
-        <v>220</v>
+        <v>281</v>
       </c>
       <c r="N146" t="s">
         <v>474</v>
@@ -10501,19 +10501,19 @@
         <v>309</v>
       </c>
       <c r="G148" t="s">
-        <v>213</v>
+        <v>287</v>
       </c>
       <c r="H148" t="s">
-        <v>251</v>
+        <v>304</v>
       </c>
       <c r="I148" t="s">
         <v>441</v>
       </c>
       <c r="J148" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K148" t="s">
-        <v>251</v>
+        <v>304</v>
       </c>
       <c r="L148" t="s">
         <v>474</v>
@@ -10522,7 +10522,7 @@
         <v>309</v>
       </c>
       <c r="N148" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="O148" t="s">
         <v>441</v>
@@ -10531,7 +10531,7 @@
         <v>473</v>
       </c>
       <c r="Q148" t="s">
-        <v>213</v>
+        <v>287</v>
       </c>
       <c r="R148" t="s">
         <v>472</v>
@@ -10554,31 +10554,31 @@
         <v>0</v>
       </c>
       <c r="E149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F149" t="s">
         <v>310</v>
       </c>
       <c r="G149" t="s">
-        <v>211</v>
+        <v>288</v>
       </c>
       <c r="H149" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="I149" t="s">
         <v>442</v>
       </c>
       <c r="J149" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K149" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="L149" t="s">
         <v>474</v>
       </c>
       <c r="M149" t="s">
-        <v>211</v>
+        <v>288</v>
       </c>
       <c r="N149" t="s">
         <v>472</v>
@@ -10613,22 +10613,22 @@
         <v>0</v>
       </c>
       <c r="E150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F150" t="s">
         <v>311</v>
       </c>
       <c r="G150" t="s">
-        <v>259</v>
+        <v>213</v>
       </c>
       <c r="H150" t="s">
-        <v>290</v>
+        <v>226</v>
       </c>
       <c r="I150" t="s">
         <v>443</v>
       </c>
       <c r="J150" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K150" t="s">
         <v>443</v>
@@ -10637,7 +10637,7 @@
         <v>473</v>
       </c>
       <c r="M150" t="s">
-        <v>259</v>
+        <v>213</v>
       </c>
       <c r="N150" t="s">
         <v>472</v>
@@ -10649,7 +10649,7 @@
         <v>476</v>
       </c>
       <c r="Q150" t="s">
-        <v>290</v>
+        <v>226</v>
       </c>
       <c r="R150" t="s">
         <v>474</v>
@@ -10731,16 +10731,16 @@
         <v>0</v>
       </c>
       <c r="E152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F152" t="s">
         <v>312</v>
       </c>
       <c r="G152" t="s">
-        <v>297</v>
+        <v>225</v>
       </c>
       <c r="H152" t="s">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="I152" t="s">
         <v>444</v>
@@ -10749,7 +10749,7 @@
         <v>341</v>
       </c>
       <c r="K152" t="s">
-        <v>297</v>
+        <v>225</v>
       </c>
       <c r="L152" t="s">
         <v>472</v>
@@ -10761,7 +10761,7 @@
         <v>476</v>
       </c>
       <c r="O152" t="s">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="P152" t="s">
         <v>474</v>
@@ -10976,13 +10976,13 @@
         <v>216</v>
       </c>
       <c r="H156" t="s">
-        <v>241</v>
+        <v>312</v>
       </c>
       <c r="I156" t="s">
         <v>445</v>
       </c>
       <c r="J156" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K156" t="s">
         <v>445</v>
@@ -10994,10 +10994,10 @@
         <v>313</v>
       </c>
       <c r="N156" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="O156" t="s">
-        <v>241</v>
+        <v>312</v>
       </c>
       <c r="P156" t="s">
         <v>474</v>
@@ -11085,25 +11085,25 @@
         <v>0</v>
       </c>
       <c r="E158" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F158" t="s">
         <v>314</v>
       </c>
       <c r="G158" t="s">
-        <v>252</v>
+        <v>296</v>
       </c>
       <c r="H158" t="s">
-        <v>221</v>
+        <v>270</v>
       </c>
       <c r="I158" t="s">
         <v>446</v>
       </c>
       <c r="J158" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K158" t="s">
-        <v>221</v>
+        <v>270</v>
       </c>
       <c r="L158" t="s">
         <v>474</v>
@@ -11115,7 +11115,7 @@
         <v>473</v>
       </c>
       <c r="O158" t="s">
-        <v>252</v>
+        <v>296</v>
       </c>
       <c r="P158" t="s">
         <v>472</v>
@@ -11153,7 +11153,7 @@
         <v>262</v>
       </c>
       <c r="H159" t="s">
-        <v>281</v>
+        <v>211</v>
       </c>
       <c r="I159" t="s">
         <v>447</v>
@@ -11165,7 +11165,7 @@
         <v>315</v>
       </c>
       <c r="L159" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="M159" t="s">
         <v>262</v>
@@ -11180,7 +11180,7 @@
         <v>473</v>
       </c>
       <c r="Q159" t="s">
-        <v>281</v>
+        <v>211</v>
       </c>
       <c r="R159" t="s">
         <v>474</v>
@@ -11212,13 +11212,13 @@
         <v>232</v>
       </c>
       <c r="H160" t="s">
-        <v>314</v>
+        <v>248</v>
       </c>
       <c r="I160" t="s">
         <v>448</v>
       </c>
       <c r="J160" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K160" t="s">
         <v>232</v>
@@ -11227,7 +11227,7 @@
         <v>472</v>
       </c>
       <c r="M160" t="s">
-        <v>314</v>
+        <v>248</v>
       </c>
       <c r="N160" t="s">
         <v>474</v>
@@ -11236,7 +11236,7 @@
         <v>316</v>
       </c>
       <c r="P160" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Q160" t="s">
         <v>448</v>
@@ -11271,7 +11271,7 @@
         <v>243</v>
       </c>
       <c r="H161" t="s">
-        <v>214</v>
+        <v>268</v>
       </c>
       <c r="I161" t="s">
         <v>449</v>
@@ -11286,7 +11286,7 @@
         <v>472</v>
       </c>
       <c r="M161" t="s">
-        <v>214</v>
+        <v>268</v>
       </c>
       <c r="N161" t="s">
         <v>474</v>
@@ -11301,7 +11301,7 @@
         <v>317</v>
       </c>
       <c r="R161" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="S161">
         <v>1.11048782727385</v>
@@ -11380,25 +11380,25 @@
         <v>0</v>
       </c>
       <c r="E163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F163" t="s">
         <v>318</v>
       </c>
       <c r="G163" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="H163" t="s">
-        <v>252</v>
+        <v>336</v>
       </c>
       <c r="I163" t="s">
         <v>450</v>
       </c>
       <c r="J163" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K163" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="L163" t="s">
         <v>472</v>
@@ -11416,7 +11416,7 @@
         <v>476</v>
       </c>
       <c r="Q163" t="s">
-        <v>252</v>
+        <v>336</v>
       </c>
       <c r="R163" t="s">
         <v>474</v>
@@ -11448,16 +11448,16 @@
         <v>275</v>
       </c>
       <c r="H164" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="I164" t="s">
         <v>451</v>
       </c>
       <c r="J164" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K164" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="L164" t="s">
         <v>474</v>
@@ -11466,7 +11466,7 @@
         <v>319</v>
       </c>
       <c r="N164" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="O164" t="s">
         <v>275</v>
@@ -11507,7 +11507,7 @@
         <v>301</v>
       </c>
       <c r="H165" t="s">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="I165" t="s">
         <v>452</v>
@@ -11525,7 +11525,7 @@
         <v>320</v>
       </c>
       <c r="N165" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="O165" t="s">
         <v>452</v>
@@ -11534,7 +11534,7 @@
         <v>473</v>
       </c>
       <c r="Q165" t="s">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="R165" t="s">
         <v>474</v>
@@ -11616,22 +11616,22 @@
         <v>0</v>
       </c>
       <c r="E167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F167" t="s">
         <v>321</v>
       </c>
       <c r="G167" t="s">
-        <v>257</v>
+        <v>217</v>
       </c>
       <c r="H167" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="I167" t="s">
         <v>453</v>
       </c>
       <c r="J167" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K167" t="s">
         <v>321</v>
@@ -11640,13 +11640,13 @@
         <v>476</v>
       </c>
       <c r="M167" t="s">
-        <v>257</v>
+        <v>217</v>
       </c>
       <c r="N167" t="s">
         <v>472</v>
       </c>
       <c r="O167" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="P167" t="s">
         <v>474</v>
@@ -11734,16 +11734,16 @@
         <v>0</v>
       </c>
       <c r="E169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F169" t="s">
         <v>322</v>
       </c>
       <c r="G169" t="s">
-        <v>224</v>
+        <v>269</v>
       </c>
       <c r="H169" t="s">
-        <v>239</v>
+        <v>334</v>
       </c>
       <c r="I169" t="s">
         <v>454</v>
@@ -11764,13 +11764,13 @@
         <v>475</v>
       </c>
       <c r="O169" t="s">
-        <v>224</v>
+        <v>269</v>
       </c>
       <c r="P169" t="s">
         <v>472</v>
       </c>
       <c r="Q169" t="s">
-        <v>239</v>
+        <v>334</v>
       </c>
       <c r="R169" t="s">
         <v>474</v>
@@ -11793,16 +11793,16 @@
         <v>0</v>
       </c>
       <c r="E170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F170" t="s">
         <v>323</v>
       </c>
       <c r="G170" t="s">
-        <v>234</v>
+        <v>276</v>
       </c>
       <c r="H170" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="I170" t="s">
         <v>455</v>
@@ -11817,7 +11817,7 @@
         <v>473</v>
       </c>
       <c r="M170" t="s">
-        <v>234</v>
+        <v>276</v>
       </c>
       <c r="N170" t="s">
         <v>472</v>
@@ -11829,7 +11829,7 @@
         <v>476</v>
       </c>
       <c r="Q170" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="R170" t="s">
         <v>474</v>
@@ -11852,31 +11852,31 @@
         <v>0</v>
       </c>
       <c r="E171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F171" t="s">
         <v>324</v>
       </c>
       <c r="G171" t="s">
-        <v>263</v>
+        <v>330</v>
       </c>
       <c r="H171" t="s">
-        <v>266</v>
+        <v>232</v>
       </c>
       <c r="I171" t="s">
         <v>456</v>
       </c>
       <c r="J171" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K171" t="s">
-        <v>263</v>
+        <v>330</v>
       </c>
       <c r="L171" t="s">
         <v>472</v>
       </c>
       <c r="M171" t="s">
-        <v>266</v>
+        <v>232</v>
       </c>
       <c r="N171" t="s">
         <v>474</v>
@@ -11911,25 +11911,25 @@
         <v>0</v>
       </c>
       <c r="E172" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F172" t="s">
         <v>325</v>
       </c>
       <c r="G172" t="s">
-        <v>312</v>
+        <v>339</v>
       </c>
       <c r="H172" t="s">
-        <v>309</v>
+        <v>284</v>
       </c>
       <c r="I172" t="s">
         <v>457</v>
       </c>
       <c r="J172" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K172" t="s">
-        <v>312</v>
+        <v>339</v>
       </c>
       <c r="L172" t="s">
         <v>472</v>
@@ -11941,7 +11941,7 @@
         <v>473</v>
       </c>
       <c r="O172" t="s">
-        <v>309</v>
+        <v>284</v>
       </c>
       <c r="P172" t="s">
         <v>474</v>
@@ -12038,13 +12038,13 @@
         <v>308</v>
       </c>
       <c r="H174" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="I174" t="s">
         <v>458</v>
       </c>
       <c r="J174" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K174" t="s">
         <v>308</v>
@@ -12059,7 +12059,7 @@
         <v>473</v>
       </c>
       <c r="O174" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="P174" t="s">
         <v>474</v>
@@ -12068,7 +12068,7 @@
         <v>326</v>
       </c>
       <c r="R174" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="S174">
         <v>1.012471207062796</v>
@@ -12097,7 +12097,7 @@
         <v>333</v>
       </c>
       <c r="H175" t="s">
-        <v>242</v>
+        <v>332</v>
       </c>
       <c r="I175" t="s">
         <v>459</v>
@@ -12106,7 +12106,7 @@
         <v>340</v>
       </c>
       <c r="K175" t="s">
-        <v>242</v>
+        <v>332</v>
       </c>
       <c r="L175" t="s">
         <v>474</v>
@@ -12127,7 +12127,7 @@
         <v>327</v>
       </c>
       <c r="R175" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="S175">
         <v>1.070275579326337</v>
@@ -12215,19 +12215,19 @@
         <v>264</v>
       </c>
       <c r="H177" t="s">
-        <v>310</v>
+        <v>241</v>
       </c>
       <c r="I177" t="s">
         <v>460</v>
       </c>
       <c r="J177" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K177" t="s">
         <v>328</v>
       </c>
       <c r="L177" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="M177" t="s">
         <v>264</v>
@@ -12236,7 +12236,7 @@
         <v>472</v>
       </c>
       <c r="O177" t="s">
-        <v>310</v>
+        <v>241</v>
       </c>
       <c r="P177" t="s">
         <v>474</v>
@@ -12265,25 +12265,25 @@
         <v>0</v>
       </c>
       <c r="E178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F178" t="s">
         <v>329</v>
       </c>
       <c r="G178" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="H178" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="I178" t="s">
         <v>461</v>
       </c>
       <c r="J178" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K178" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="L178" t="s">
         <v>472</v>
@@ -12295,7 +12295,7 @@
         <v>475</v>
       </c>
       <c r="O178" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="P178" t="s">
         <v>474</v>
@@ -12442,22 +12442,22 @@
         <v>0</v>
       </c>
       <c r="E181" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F181" t="s">
         <v>330</v>
       </c>
       <c r="G181" t="s">
-        <v>258</v>
+        <v>291</v>
       </c>
       <c r="H181" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="I181" t="s">
         <v>462</v>
       </c>
       <c r="J181" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K181" t="s">
         <v>330</v>
@@ -12466,7 +12466,7 @@
         <v>475</v>
       </c>
       <c r="M181" t="s">
-        <v>258</v>
+        <v>291</v>
       </c>
       <c r="N181" t="s">
         <v>472</v>
@@ -12478,7 +12478,7 @@
         <v>473</v>
       </c>
       <c r="Q181" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="R181" t="s">
         <v>474</v>
@@ -12628,13 +12628,13 @@
         <v>270</v>
       </c>
       <c r="H184" t="s">
-        <v>324</v>
+        <v>223</v>
       </c>
       <c r="I184" t="s">
         <v>463</v>
       </c>
       <c r="J184" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K184" t="s">
         <v>463</v>
@@ -12652,10 +12652,10 @@
         <v>331</v>
       </c>
       <c r="P184" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Q184" t="s">
-        <v>324</v>
+        <v>223</v>
       </c>
       <c r="R184" t="s">
         <v>474</v>
@@ -12678,22 +12678,22 @@
         <v>0</v>
       </c>
       <c r="E185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F185" t="s">
         <v>332</v>
       </c>
       <c r="G185" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="H185" t="s">
-        <v>213</v>
+        <v>337</v>
       </c>
       <c r="I185" t="s">
         <v>464</v>
       </c>
       <c r="J185" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K185" t="s">
         <v>464</v>
@@ -12702,7 +12702,7 @@
         <v>473</v>
       </c>
       <c r="M185" t="s">
-        <v>213</v>
+        <v>337</v>
       </c>
       <c r="N185" t="s">
         <v>474</v>
@@ -12714,7 +12714,7 @@
         <v>476</v>
       </c>
       <c r="Q185" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="R185" t="s">
         <v>472</v>
@@ -12746,13 +12746,13 @@
         <v>282</v>
       </c>
       <c r="H186" t="s">
-        <v>215</v>
+        <v>285</v>
       </c>
       <c r="I186" t="s">
         <v>465</v>
       </c>
       <c r="J186" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K186" t="s">
         <v>465</v>
@@ -12767,7 +12767,7 @@
         <v>472</v>
       </c>
       <c r="O186" t="s">
-        <v>215</v>
+        <v>285</v>
       </c>
       <c r="P186" t="s">
         <v>474</v>
@@ -12776,7 +12776,7 @@
         <v>333</v>
       </c>
       <c r="R186" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="S186">
         <v>1.160194792207978</v>
@@ -12864,16 +12864,16 @@
         <v>246</v>
       </c>
       <c r="H188" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="I188" t="s">
         <v>466</v>
       </c>
       <c r="J188" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K188" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="L188" t="s">
         <v>474</v>
@@ -12894,7 +12894,7 @@
         <v>334</v>
       </c>
       <c r="R188" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="S188">
         <v>1.255508846991557</v>
@@ -12923,16 +12923,16 @@
         <v>237</v>
       </c>
       <c r="H189" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="I189" t="s">
         <v>467</v>
       </c>
       <c r="J189" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K189" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="L189" t="s">
         <v>474</v>
@@ -12953,7 +12953,7 @@
         <v>335</v>
       </c>
       <c r="R189" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="S189">
         <v>1.100374991704749</v>
@@ -12982,22 +12982,22 @@
         <v>326</v>
       </c>
       <c r="H190" t="s">
-        <v>249</v>
+        <v>318</v>
       </c>
       <c r="I190" t="s">
         <v>468</v>
       </c>
       <c r="J190" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K190" t="s">
         <v>336</v>
       </c>
       <c r="L190" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="M190" t="s">
-        <v>249</v>
+        <v>318</v>
       </c>
       <c r="N190" t="s">
         <v>474</v>
@@ -13041,16 +13041,16 @@
         <v>306</v>
       </c>
       <c r="H191" t="s">
-        <v>267</v>
+        <v>314</v>
       </c>
       <c r="I191" t="s">
         <v>469</v>
       </c>
       <c r="J191" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K191" t="s">
-        <v>267</v>
+        <v>314</v>
       </c>
       <c r="L191" t="s">
         <v>474</v>
@@ -13059,7 +13059,7 @@
         <v>337</v>
       </c>
       <c r="N191" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="O191" t="s">
         <v>306</v>
@@ -13091,22 +13091,22 @@
         <v>0</v>
       </c>
       <c r="E192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F192" t="s">
         <v>338</v>
       </c>
       <c r="G192" t="s">
-        <v>291</v>
+        <v>323</v>
       </c>
       <c r="H192" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="I192" t="s">
         <v>470</v>
       </c>
       <c r="J192" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K192" t="s">
         <v>338</v>
@@ -13121,13 +13121,13 @@
         <v>473</v>
       </c>
       <c r="O192" t="s">
-        <v>291</v>
+        <v>323</v>
       </c>
       <c r="P192" t="s">
         <v>472</v>
       </c>
       <c r="Q192" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="R192" t="s">
         <v>474</v>
@@ -13150,25 +13150,25 @@
         <v>0</v>
       </c>
       <c r="E193" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F193" t="s">
         <v>339</v>
       </c>
       <c r="G193" t="s">
-        <v>242</v>
+        <v>321</v>
       </c>
       <c r="H193" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I193" t="s">
         <v>471</v>
       </c>
       <c r="J193" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K193" t="s">
-        <v>242</v>
+        <v>321</v>
       </c>
       <c r="L193" t="s">
         <v>472</v>
@@ -13186,7 +13186,7 @@
         <v>473</v>
       </c>
       <c r="Q193" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R193" t="s">
         <v>474</v>
